--- a/data/hotels_by_city/Denver/Denver_shard_45.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_45.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="517">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g29144-d85371-Reviews-Crossland_Denver_Airport_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Crossland-Denver-Airport-Aurora.h120537.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1505 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r591533641-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>29144</t>
+  </si>
+  <si>
+    <t>85371</t>
+  </si>
+  <si>
+    <t>591533641</t>
+  </si>
+  <si>
+    <t>06/28/2018</t>
+  </si>
+  <si>
+    <t>Patricia Miller</t>
+  </si>
+  <si>
+    <t>Worst ever, been here 3 weeks, havent been in to clean because u have to much stuff on the floor.  Yes i just moved from SD for a new job and have a lot of my belongings with me.So what about new towels, the toilet and shower, and clean sheets, nope!!!!The door keys never work, the dryer didnt work, its loud for a day sleeper, the room was filthy when i got in.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r586592435-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>586592435</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t>The worst hotel ever!!!!! Disgusting property,rooms and Staff.</t>
+  </si>
+  <si>
+    <t>I have never been so outraged and pissed in my entire life. First of all when I made my reservation I wasn't informed that the property only excepted credit cards when paying. I spent 2 days running back and fourth trying to get everything straight and in order so I could check-in. After spending those 2 days running back and fourth I finally get checked in and go to my room. Wow absolutely disgusting and that's putting it lightly. I made the mistake of taking off my shoes and walking around my room without socks within a matter of 30 minutes my feet were beyond black. When I go to the bathroom to shower which is a walk in shower only the entire bathroom is worse then a gas station bathroom I was terrified to even take a shower in the first place. I ended up going to the closest store possible and got bleach, bathroom cleaner, broom &amp; mop and all purpose anti- bacterial cleaner. I spent the next 4 hours scrubbing the bathroom, kitchenette and sleeping area of my room. I can't believe that this place is even allowed to charge the prices it is charging $86 nightly. They shouldn't even be allowed to make a dime off these so called hotel rooms. I would call this place a temporary shelter for the homeless before I would a hotel. THIS PLACE SHOULD BE SHUT DOWN!!!! It does no...I have never been so outraged and pissed in my entire life. First of all when I made my reservation I wasn't informed that the property only excepted credit cards when paying. I spent 2 days running back and fourth trying to get everything straight and in order so I could check-in. After spending those 2 days running back and fourth I finally get checked in and go to my room. Wow absolutely disgusting and that's putting it lightly. I made the mistake of taking off my shoes and walking around my room without socks within a matter of 30 minutes my feet were beyond black. When I go to the bathroom to shower which is a walk in shower only the entire bathroom is worse then a gas station bathroom I was terrified to even take a shower in the first place. I ended up going to the closest store possible and got bleach, bathroom cleaner, broom &amp; mop and all purpose anti- bacterial cleaner. I spent the next 4 hours scrubbing the bathroom, kitchenette and sleeping area of my room. I can't believe that this place is even allowed to charge the prices it is charging $86 nightly. They shouldn't even be allowed to make a dime off these so called hotel rooms. I would call this place a temporary shelter for the homeless before I would a hotel. THIS PLACE SHOULD BE SHUT DOWN!!!! It does no good to even complain or write reviews because nothing is done in regards to  customer complaints. The only reason I'm taking my time to write this review is so that other well paying customers don't get sucked into this hell hole of a hotel stay. Please. Don't stay at this place and if you do decide to make sure to check out the room and property with your own eyes.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I have never been so outraged and pissed in my entire life. First of all when I made my reservation I wasn't informed that the property only excepted credit cards when paying. I spent 2 days running back and fourth trying to get everything straight and in order so I could check-in. After spending those 2 days running back and fourth I finally get checked in and go to my room. Wow absolutely disgusting and that's putting it lightly. I made the mistake of taking off my shoes and walking around my room without socks within a matter of 30 minutes my feet were beyond black. When I go to the bathroom to shower which is a walk in shower only the entire bathroom is worse then a gas station bathroom I was terrified to even take a shower in the first place. I ended up going to the closest store possible and got bleach, bathroom cleaner, broom &amp; mop and all purpose anti- bacterial cleaner. I spent the next 4 hours scrubbing the bathroom, kitchenette and sleeping area of my room. I can't believe that this place is even allowed to charge the prices it is charging $86 nightly. They shouldn't even be allowed to make a dime off these so called hotel rooms. I would call this place a temporary shelter for the homeless before I would a hotel. THIS PLACE SHOULD BE SHUT DOWN!!!! It does no...I have never been so outraged and pissed in my entire life. First of all when I made my reservation I wasn't informed that the property only excepted credit cards when paying. I spent 2 days running back and fourth trying to get everything straight and in order so I could check-in. After spending those 2 days running back and fourth I finally get checked in and go to my room. Wow absolutely disgusting and that's putting it lightly. I made the mistake of taking off my shoes and walking around my room without socks within a matter of 30 minutes my feet were beyond black. When I go to the bathroom to shower which is a walk in shower only the entire bathroom is worse then a gas station bathroom I was terrified to even take a shower in the first place. I ended up going to the closest store possible and got bleach, bathroom cleaner, broom &amp; mop and all purpose anti- bacterial cleaner. I spent the next 4 hours scrubbing the bathroom, kitchenette and sleeping area of my room. I can't believe that this place is even allowed to charge the prices it is charging $86 nightly. They shouldn't even be allowed to make a dime off these so called hotel rooms. I would call this place a temporary shelter for the homeless before I would a hotel. THIS PLACE SHOULD BE SHUT DOWN!!!! It does no good to even complain or write reviews because nothing is done in regards to  customer complaints. The only reason I'm taking my time to write this review is so that other well paying customers don't get sucked into this hell hole of a hotel stay. Please. Don't stay at this place and if you do decide to make sure to check out the room and property with your own eyes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r585652067-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>585652067</t>
+  </si>
+  <si>
+    <t>06/06/2018</t>
+  </si>
+  <si>
+    <t>Do not waste your money.</t>
+  </si>
+  <si>
+    <t>This place is disgusting and seemed sketchy from the start. The room smelled, the bathroom floors look like they hadn't been cleaned in a long time. The toilet hardly flushed and I had to listen to water running all night. My advice is to take your money elsewhere and find a nicer place to stay than this rat hole.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r509766154-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>509766154</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>Absolutely basic, but clean</t>
+  </si>
+  <si>
+    <t>If you are looking for basic accommodations, this place is just fine. The floors are laminate, no carpeting which meant no stains or unseen little items in the carpet. The beds are on legs with maybe 10" floor clearance so you can see under the bed and that it is clean. Bed was clean. Room had kitchenette with large fridge/freezer. Shower was a walk in, worked great. At night the facility was quiet. If you like fluff and being pampered go elsewhere. If you need an inexpensive, clean, functional room this place will fit the bill.TV was not HD. No cups provided in the room.I was in Denver to see three baseball games so I was only looking for a clean bed and a shower in a reasonably safe location. This place was all three.It was also quiet at night. A/C worked GREAT! Internet was fairly good.There you have it. If you are the least bit fussy, don't go here. But if you want an inexpensive room to shower and sleep, no frills, this is it.My friend and I had two rooms we were both satisfied.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>If you are looking for basic accommodations, this place is just fine. The floors are laminate, no carpeting which meant no stains or unseen little items in the carpet. The beds are on legs with maybe 10" floor clearance so you can see under the bed and that it is clean. Bed was clean. Room had kitchenette with large fridge/freezer. Shower was a walk in, worked great. At night the facility was quiet. If you like fluff and being pampered go elsewhere. If you need an inexpensive, clean, functional room this place will fit the bill.TV was not HD. No cups provided in the room.I was in Denver to see three baseball games so I was only looking for a clean bed and a shower in a reasonably safe location. This place was all three.It was also quiet at night. A/C worked GREAT! Internet was fairly good.There you have it. If you are the least bit fussy, don't go here. But if you want an inexpensive room to shower and sleep, no frills, this is it.My friend and I had two rooms we were both satisfied.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r505626141-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>505626141</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t>A good hotel in Aurora</t>
+  </si>
+  <si>
+    <t>There are a lot of negative things being said about this great hotel; and I am here to set the record straight. First of all the staff there  are wonderful,very gracious and helpful .All the stuff in the room are new ;down to the lining on the bed and shower curtain.The entire rooms got a new make over including the flooring and the whole room is super clean. The only thing  that management need to add are  some spoons,folks, and plates.The hotel is ap 30 minutes away from the airport.From down town Denver by the 42 and 43 bus is a bit long. The shorter route to there will be the 121 bus to the train.The bus service runs well. Aurora is a safe neighborhood.There are lots of eateries.There is also a Walmat  about one mile away by foot.121 bus can take you there also. Special thanks to staffer Lorie and the night  lady; and to all the workers there.I thing that you all guys are trying hard to make all the guest happy; even though some may not see it that way.MoreShow less</t>
+  </si>
+  <si>
+    <t>There are a lot of negative things being said about this great hotel; and I am here to set the record straight. First of all the staff there  are wonderful,very gracious and helpful .All the stuff in the room are new ;down to the lining on the bed and shower curtain.The entire rooms got a new make over including the flooring and the whole room is super clean. The only thing  that management need to add are  some spoons,folks, and plates.The hotel is ap 30 minutes away from the airport.From down town Denver by the 42 and 43 bus is a bit long. The shorter route to there will be the 121 bus to the train.The bus service runs well. Aurora is a safe neighborhood.There are lots of eateries.There is also a Walmat  about one mile away by foot.121 bus can take you there also. Special thanks to staffer Lorie and the night  lady; and to all the workers there.I thing that you all guys are trying hard to make all the guest happy; even though some may not see it that way.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r499385038-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>499385038</t>
+  </si>
+  <si>
+    <t>07/07/2017</t>
+  </si>
+  <si>
+    <t>Untidy and dusty rooms</t>
+  </si>
+  <si>
+    <t>Aurora Denver Crosslands is very close to the airport and the staff was able to accommodate us in  the late hours of the night. However, after getting the keys and walking down the corridor, we figured it was dirty and not taken care for a long time. The room was also very dusty and we could see dust on the floor. The wifi was average and we did not have any issues with checkout.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r465187978-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>465187978</t>
+  </si>
+  <si>
+    <t>03/06/2017</t>
+  </si>
+  <si>
+    <t>We have been treated well</t>
+  </si>
+  <si>
+    <t>The staff have treated us great and the GM has been great to us. They always go above and beyond what we ask making sure we are comfortable. The remodeled rooms are very nice and the new amenities have really made the stay more pleasant. Worth the value.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r430245651-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>430245651</t>
+  </si>
+  <si>
+    <t>10/21/2016</t>
+  </si>
+  <si>
+    <t>I didn't expect much, I didn't get much</t>
+  </si>
+  <si>
+    <t>Crossland Denver - Airport - Aurora is a place where you get what you paid for.  Room was clean and had microwave, burners, and fridge, but to get the utensils to do any cooking is a pain.  Friendly front desk.  Convenient to airport and Anschutz Medical Center.  No hot water one morning was the worst part.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r424651398-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>424651398</t>
+  </si>
+  <si>
+    <t>10/03/2016</t>
+  </si>
+  <si>
+    <t>Budget hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budget hotel with no shuttle service from Airport. Just Bare minimum facilities. But clean rooms. No cab service just not fit to be called Airport hotel. The Hotel had no coffee or any restaurant so had to walk a good 1000 meters for it. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r407721848-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>407721848</t>
+  </si>
+  <si>
+    <t>08/19/2016</t>
+  </si>
+  <si>
+    <t>Horrible! The manager couldn't find my paid in full reservation</t>
+  </si>
+  <si>
+    <t>Very bad customer service. I spent 1.5 hour trying to resolve an issue with my reservation, which was not resolved in the end because of a mistake by Crossland Denver.
+My daughter and I arrived to Crossland Denver at 9pm after a long trip to spend the night before our early morning flight. I booked our stay through Hotels.com. The manager Kevin Ripley, who was working the front desk that night, took down my name and said that he does not have our reservation on the books. I also showed him the confirmation email from Hotles.com. Mr. Ripley told us that we are not his customers because we made the reservation through Hotels.com, and that we should pay for a room if we wanted to stay at Crossland (while the email clearly stated that we already paid in full). I requested that Mr. Ripley calls Hotels.com to resolve the issue. Mr. Ripley declined, saying that we are supposed to call Hotels.com since we paid them, and therefore, it is our problem and not his. My daughter proceeded to call Hotels.com. Their customer service confirmed our reservation and informed us that they will call Crossland Denver to discuss the issue. My daughter informed Mr. Ripley that Hotels.com said they will call, and Mr. Ripley in a very unprofessional manner called her “rude” because he was serving other customers whereas she did exactly what he had ask her to do (i.e. calling...Very bad customer service. I spent 1.5 hour trying to resolve an issue with my reservation, which was not resolved in the end because of a mistake by Crossland Denver.My daughter and I arrived to Crossland Denver at 9pm after a long trip to spend the night before our early morning flight. I booked our stay through Hotels.com. The manager Kevin Ripley, who was working the front desk that night, took down my name and said that he does not have our reservation on the books. I also showed him the confirmation email from Hotles.com. Mr. Ripley told us that we are not his customers because we made the reservation through Hotels.com, and that we should pay for a room if we wanted to stay at Crossland (while the email clearly stated that we already paid in full). I requested that Mr. Ripley calls Hotels.com to resolve the issue. Mr. Ripley declined, saying that we are supposed to call Hotels.com since we paid them, and therefore, it is our problem and not his. My daughter proceeded to call Hotels.com. Their customer service confirmed our reservation and informed us that they will call Crossland Denver to discuss the issue. My daughter informed Mr. Ripley that Hotels.com said they will call, and Mr. Ripley in a very unprofessional manner called her “rude” because he was serving other customers whereas she did exactly what he had ask her to do (i.e. calling Hotels.com) and simply informed him that the phone call was coming. He said other unpleasant things to us and implied that our printed reservation confirmation from Hotels.com was fake. We were outraged by how Mr. Ripley was treating us as customers and my daughter told him that she will leave a negative review about their customer service. Mr. Ripley answered the call from Hotels.com but put them on hold for so long that they had to call back. He then did not pick up the phone call from them on two more occasions. Another customer in line understandably became upset that it is taking him a long time to get his plastic cups because the issue we were having with the check-in.  When Mr. Ripley finally spoke to Hotels.com he told them that he refuses to serve us because we “threatened” him and were causing a problem in his hotel. In the end it turned out that Crossland Denver in fact had our reservation and received our payment, but Mr. Ripley could not locate it for unknown to us reasons. Mr. Ripley never admitted his mistake or apologized. In sum, the issue largely could have been avoided and the problem could have been resolved much faster if the Mr. Ripley called Hotels.com right away and treated us as his customers. Needless to say, we did not stay at Crossland Denver and requested a full refund. We travel a lot but never before had issues like this or received this poor treatment at any hotel booked through a third party or otherwise.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Very bad customer service. I spent 1.5 hour trying to resolve an issue with my reservation, which was not resolved in the end because of a mistake by Crossland Denver.
+My daughter and I arrived to Crossland Denver at 9pm after a long trip to spend the night before our early morning flight. I booked our stay through Hotels.com. The manager Kevin Ripley, who was working the front desk that night, took down my name and said that he does not have our reservation on the books. I also showed him the confirmation email from Hotles.com. Mr. Ripley told us that we are not his customers because we made the reservation through Hotels.com, and that we should pay for a room if we wanted to stay at Crossland (while the email clearly stated that we already paid in full). I requested that Mr. Ripley calls Hotels.com to resolve the issue. Mr. Ripley declined, saying that we are supposed to call Hotels.com since we paid them, and therefore, it is our problem and not his. My daughter proceeded to call Hotels.com. Their customer service confirmed our reservation and informed us that they will call Crossland Denver to discuss the issue. My daughter informed Mr. Ripley that Hotels.com said they will call, and Mr. Ripley in a very unprofessional manner called her “rude” because he was serving other customers whereas she did exactly what he had ask her to do (i.e. calling...Very bad customer service. I spent 1.5 hour trying to resolve an issue with my reservation, which was not resolved in the end because of a mistake by Crossland Denver.My daughter and I arrived to Crossland Denver at 9pm after a long trip to spend the night before our early morning flight. I booked our stay through Hotels.com. The manager Kevin Ripley, who was working the front desk that night, took down my name and said that he does not have our reservation on the books. I also showed him the confirmation email from Hotles.com. Mr. Ripley told us that we are not his customers because we made the reservation through Hotels.com, and that we should pay for a room if we wanted to stay at Crossland (while the email clearly stated that we already paid in full). I requested that Mr. Ripley calls Hotels.com to resolve the issue. Mr. Ripley declined, saying that we are supposed to call Hotels.com since we paid them, and therefore, it is our problem and not his. My daughter proceeded to call Hotels.com. Their customer service confirmed our reservation and informed us that they will call Crossland Denver to discuss the issue. My daughter informed Mr. Ripley that Hotels.com said they will call, and Mr. Ripley in a very unprofessional manner called her “rude” because he was serving other customers whereas she did exactly what he had ask her to do (i.e. calling Hotels.com) and simply informed him that the phone call was coming. He said other unpleasant things to us and implied that our printed reservation confirmation from Hotels.com was fake. We were outraged by how Mr. Ripley was treating us as customers and my daughter told him that she will leave a negative review about their customer service. Mr. Ripley answered the call from Hotels.com but put them on hold for so long that they had to call back. He then did not pick up the phone call from them on two more occasions. Another customer in line understandably became upset that it is taking him a long time to get his plastic cups because the issue we were having with the check-in.  When Mr. Ripley finally spoke to Hotels.com he told them that he refuses to serve us because we “threatened” him and were causing a problem in his hotel. In the end it turned out that Crossland Denver in fact had our reservation and received our payment, but Mr. Ripley could not locate it for unknown to us reasons. Mr. Ripley never admitted his mistake or apologized. In sum, the issue largely could have been avoided and the problem could have been resolved much faster if the Mr. Ripley called Hotels.com right away and treated us as his customers. Needless to say, we did not stay at Crossland Denver and requested a full refund. We travel a lot but never before had issues like this or received this poor treatment at any hotel booked through a third party or otherwise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r407269697-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>407269697</t>
+  </si>
+  <si>
+    <t>08/18/2016</t>
+  </si>
+  <si>
+    <t>Beyond Horrible!!!</t>
+  </si>
+  <si>
+    <t>I really should have read the reviews first before booking this place. It was beyond horrible. Not worth $95 a night.Elevators, hallways, and my room smelled of urine. Bathroom trash can had hairs and dirt from previous occupants. Carpets had some black and some red stains. Bed sheets have yellow stains. TV was from the 1980s. Inside the dressers was a pile of thick dirt. Drapes were old and dirty. Elevators had exposed wires. Laundry room dryers required $2 to operate. After an hour my clothes were still damp and wet.I am surprised this place is still open and operational despite of all safety and health hazards.I wouldn't stay here again... even if it was free. Please walk away from this place and never come back if you value your life.MoreShow less</t>
+  </si>
+  <si>
+    <t>I really should have read the reviews first before booking this place. It was beyond horrible. Not worth $95 a night.Elevators, hallways, and my room smelled of urine. Bathroom trash can had hairs and dirt from previous occupants. Carpets had some black and some red stains. Bed sheets have yellow stains. TV was from the 1980s. Inside the dressers was a pile of thick dirt. Drapes were old and dirty. Elevators had exposed wires. Laundry room dryers required $2 to operate. After an hour my clothes were still damp and wet.I am surprised this place is still open and operational despite of all safety and health hazards.I wouldn't stay here again... even if it was free. Please walk away from this place and never come back if you value your life.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r404571610-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>404571610</t>
+  </si>
+  <si>
+    <t>08/12/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should have read the reviews first. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed here for 1 night before needing to catch a flight. We'd driven a long way and should have checked the reviews first. The double room ($102 with tax) was barely clean and we could see a pen lid and a syringe down the drain hole in the bathroom sink. The stairwells smelled like urine, were full of trash and there were shady characters hanging around. We definitely did not feel safe staying there at all. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r402859093-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>402859093</t>
+  </si>
+  <si>
+    <t>08/08/2016</t>
+  </si>
+  <si>
+    <t>Highway underpasses are cleaner!</t>
+  </si>
+  <si>
+    <t>Possibly the worst hotel experience I've ever had. Good thing my husband and I have a sense of humor. I purchased this room as a last minute get away for my husband and I. We checked in late and were met with a slue of shameful disappointments. The front desk lady was dead set on not helping us, so much so that she argued with the guy on the next shift about who would help me, as I stood there for ten minutes. When she lost the battle, she rolled her eyes repeatedly while checking us in, just to tell me that there was some random policy about how I had to put $100 cash deposit down due to my card being a debit. No where on Priceline was this mentioned. She assured me that I would get it back when we checked out, but could not give me a written policy or any kind of written assurance of this. As we walked to our room we noticed the breezeways were covered in bags of garbage from the rooms. Looks like no one cleans the property ever. The sidewalks were sticky and black from the lack of property care. The elevator was no different, sticky floor, sticky buttons and a ripped out electrical panel that was very kindly replaced by a rotting doughnut. More trash on the third floor, a man sitting in the corner with a needle, people blowing...Possibly the worst hotel experience I've ever had. Good thing my husband and I have a sense of humor. I purchased this room as a last minute get away for my husband and I. We checked in late and were met with a slue of shameful disappointments. The front desk lady was dead set on not helping us, so much so that she argued with the guy on the next shift about who would help me, as I stood there for ten minutes. When she lost the battle, she rolled her eyes repeatedly while checking us in, just to tell me that there was some random policy about how I had to put $100 cash deposit down due to my card being a debit. No where on Priceline was this mentioned. She assured me that I would get it back when we checked out, but could not give me a written policy or any kind of written assurance of this. As we walked to our room we noticed the breezeways were covered in bags of garbage from the rooms. Looks like no one cleans the property ever. The sidewalks were sticky and black from the lack of property care. The elevator was no different, sticky floor, sticky buttons and a ripped out electrical panel that was very kindly replaced by a rotting doughnut. More trash on the third floor, a man sitting in the corner with a needle, people blowing marijuana smoke out of doors, good times. Then the room. Oiy! The carpet was black due to dirt trapped on stickiness, sticky tables and dressers, drip marks of who knows what (I really don't want to know) on all of the walls, pubic hairs scattered the bathroom, along with mold, not to mention black finger prints on the ceiling. Wait what!?! But the kicker was the bed! Concrete underpasses would have been more comfortable. It was hard with no cushion and probably purchased from "Crack Houses R Us". They gave us two small flat pieces of cloth that were supposed to resemble pillows. Most importantly they were polite enough to make the bed for our stay, even though they had clearly not change the sheets for a very long time. There was bodily fluids (that were not ours) on the sheets in several places, someone else's hair and who knows what else. When my husband asked for new sheets, the guy who originally argued with the lady who checked us in was now drunk. He threw a mattress pad and a flat sheet at my husband and said these are the only things I have clean, then he stumbled back inside without offering to take care of the filthy room or bed. As we packed up to leave the next day my husband threw all the sheets into the shower and turned it on, just to make sure they actually get cleaned for the next person. I honestly hope that no one else stoops this low. At minimum, this place needs new management, a new staff and a power wash. Personally, I think this place should be condemned and burned to the ground.MoreShow less</t>
+  </si>
+  <si>
+    <t>Possibly the worst hotel experience I've ever had. Good thing my husband and I have a sense of humor. I purchased this room as a last minute get away for my husband and I. We checked in late and were met with a slue of shameful disappointments. The front desk lady was dead set on not helping us, so much so that she argued with the guy on the next shift about who would help me, as I stood there for ten minutes. When she lost the battle, she rolled her eyes repeatedly while checking us in, just to tell me that there was some random policy about how I had to put $100 cash deposit down due to my card being a debit. No where on Priceline was this mentioned. She assured me that I would get it back when we checked out, but could not give me a written policy or any kind of written assurance of this. As we walked to our room we noticed the breezeways were covered in bags of garbage from the rooms. Looks like no one cleans the property ever. The sidewalks were sticky and black from the lack of property care. The elevator was no different, sticky floor, sticky buttons and a ripped out electrical panel that was very kindly replaced by a rotting doughnut. More trash on the third floor, a man sitting in the corner with a needle, people blowing...Possibly the worst hotel experience I've ever had. Good thing my husband and I have a sense of humor. I purchased this room as a last minute get away for my husband and I. We checked in late and were met with a slue of shameful disappointments. The front desk lady was dead set on not helping us, so much so that she argued with the guy on the next shift about who would help me, as I stood there for ten minutes. When she lost the battle, she rolled her eyes repeatedly while checking us in, just to tell me that there was some random policy about how I had to put $100 cash deposit down due to my card being a debit. No where on Priceline was this mentioned. She assured me that I would get it back when we checked out, but could not give me a written policy or any kind of written assurance of this. As we walked to our room we noticed the breezeways were covered in bags of garbage from the rooms. Looks like no one cleans the property ever. The sidewalks were sticky and black from the lack of property care. The elevator was no different, sticky floor, sticky buttons and a ripped out electrical panel that was very kindly replaced by a rotting doughnut. More trash on the third floor, a man sitting in the corner with a needle, people blowing marijuana smoke out of doors, good times. Then the room. Oiy! The carpet was black due to dirt trapped on stickiness, sticky tables and dressers, drip marks of who knows what (I really don't want to know) on all of the walls, pubic hairs scattered the bathroom, along with mold, not to mention black finger prints on the ceiling. Wait what!?! But the kicker was the bed! Concrete underpasses would have been more comfortable. It was hard with no cushion and probably purchased from "Crack Houses R Us". They gave us two small flat pieces of cloth that were supposed to resemble pillows. Most importantly they were polite enough to make the bed for our stay, even though they had clearly not change the sheets for a very long time. There was bodily fluids (that were not ours) on the sheets in several places, someone else's hair and who knows what else. When my husband asked for new sheets, the guy who originally argued with the lady who checked us in was now drunk. He threw a mattress pad and a flat sheet at my husband and said these are the only things I have clean, then he stumbled back inside without offering to take care of the filthy room or bed. As we packed up to leave the next day my husband threw all the sheets into the shower and turned it on, just to make sure they actually get cleaned for the next person. I honestly hope that no one else stoops this low. At minimum, this place needs new management, a new staff and a power wash. Personally, I think this place should be condemned and burned to the ground.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r401983337-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>401983337</t>
+  </si>
+  <si>
+    <t>08/06/2016</t>
+  </si>
+  <si>
+    <t>Oh dear, oh dear, oh dear!!!!</t>
+  </si>
+  <si>
+    <t>Oh my goodness what a place!!Although the reception staff were very polite and helpful I don't think I have ever been to a place quite as bad as this one.  Smelly, dirty and run down.  How this place is still in business I simply do not know.  We took one look at our rooms and headed back to Reception where a very nice receptionist gave us an immediate refund. This place is in need of demolition never mind a refurb.  Don't even go there. You have been warned!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Alyssa B, Public Relations Manager at Crossland Economy Studios - Denver - Airport - Aurora, responded to this reviewResponded August 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2016</t>
+  </si>
+  <si>
+    <t>Oh my goodness what a place!!Although the reception staff were very polite and helpful I don't think I have ever been to a place quite as bad as this one.  Smelly, dirty and run down.  How this place is still in business I simply do not know.  We took one look at our rooms and headed back to Reception where a very nice receptionist gave us an immediate refund. This place is in need of demolition never mind a refurb.  Don't even go there. You have been warned!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r397096926-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>397096926</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stay away we walked out </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a dive stay away everything you can think of is wrong with this place when an employee tells you this is a party hotel and sometimes illegal things go on you just leave and we did . When we pulled up there were all kinds of people blaring music dancing hanging out in the parking lot when we pulled up  several  people  came out of the  2nd floor rooms balcony staring at us . </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r385957414-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>385957414</t>
+  </si>
+  <si>
+    <t>06/25/2016</t>
+  </si>
+  <si>
+    <t>WORST HOTEL IN THE WORLD</t>
+  </si>
+  <si>
+    <t>We arrived at the hotel from another state. The hotel is terrible, small rooms, very dirty, the furniture is old, broken microwave, water leaks, cockroaches running around. At the reception you are met by an angry man that I want to leave immediately.The website states that the room has a coffee machine, iron, cooking utensils, crockery - nothing !!! Empty room, where a very stinks !!!!!</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r385812544-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>385812544</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>(booked a Studio - Non-Smoking) when I got there the desk clerk told me they only have a smoking room for me . clerk was not friendly. I think that says it all!! spent a couple of hours finding another Motel. Vic</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r384519598-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>384519598</t>
+  </si>
+  <si>
+    <t>06/21/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolutely disgusting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The rooms are absolutely disgusting. One of the rooms had the glass broken out of the front window, glass everywhere. Rooms smell horrible. Stains, dirty carpet, dirty floors, counter tops. I am not exaggerating when I say you'll feel more comfortable on the front lawn than in the rooms. The front desk was understanding and apologetic though. He even let me go check another room and it was equally as horrible. </t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r364571827-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>364571827</t>
+  </si>
+  <si>
+    <t>04/16/2016</t>
+  </si>
+  <si>
+    <t>This place is awful</t>
+  </si>
+  <si>
+    <t>The room smells like smoke and was just gross overall. You would be better to sleep in the airport. It was also very noisy . I would not recommend anyone staying here. Reminds me of a drug motel in Rifle,CoMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Alyssa B, Public Relations Manager at Crossland Economy Studios - Denver - Airport - Aurora, responded to this reviewResponded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2016</t>
+  </si>
+  <si>
+    <t>The room smells like smoke and was just gross overall. You would be better to sleep in the airport. It was also very noisy . I would not recommend anyone staying here. Reminds me of a drug motel in Rifle,CoMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r361590298-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>361590298</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>Room was really terrible</t>
+  </si>
+  <si>
+    <t>I was happy. To see my family's in town but this hotel was no management really nasty grossly  cleaning poor front desk employees all ways. Sitting being of the counter. Or talking on the cellular attitude rude and makes guests unhappyMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>I was happy. To see my family's in town but this hotel was no management really nasty grossly  cleaning poor front desk employees all ways. Sitting being of the counter. Or talking on the cellular attitude rude and makes guests unhappyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r322910314-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>322910314</t>
+  </si>
+  <si>
+    <t>10/29/2015</t>
+  </si>
+  <si>
+    <t>What You See Is Not What You Get!</t>
+  </si>
+  <si>
+    <t>At first when you pull up all seems okay. Just like the other reviews the check
+in is by "remote". Be sure to let them know if you need a coffemaker and anything else the little stand up card in the kitchenette the chain advertises. Open the door and prison work release meets homeless shelter. The furniture is composite/plastic with strips all hanging from the dresser, nightstand etc. Large globs of missing paint dot a wall here or there. It started to look like room art and it works. The bathroom was clean and stocked with one bar of soap, a towel that looked like it was cut in half, border sewn on and presto. That's it, nothing else so forget about shampoo, tissue, lotion and don't even think conditioner. It is the most spartan accommodation I experienced ever but what the heck, for $42.00 a night what should I expect? The doors have a built in mechanism that makes it a monumental feat to get it closed from the outside so along with the constant repetition you get to hear a constant slammer vibe. The fire exit doors are heavy and add movement to the rooms adjacent to them. It's hard to believe there can be so many people using them at all hours. The room clerks are friendly and attentive when you call them either on the call box or from your room. They promptly respond to calls...At first when you pull up all seems okay. Just like the other reviews the checkin is by "remote". Be sure to let them know if you need a coffemaker and anything else the little stand up card in the kitchenette the chain advertises. Open the door and prison work release meets homeless shelter. The furniture is composite/plastic with strips all hanging from the dresser, nightstand etc. Large globs of missing paint dot a wall here or there. It started to look like room art and it works. The bathroom was clean and stocked with one bar of soap, a towel that looked like it was cut in half, border sewn on and presto. That's it, nothing else so forget about shampoo, tissue, lotion and don't even think conditioner. It is the most spartan accommodation I experienced ever but what the heck, for $42.00 a night what should I expect? The doors have a built in mechanism that makes it a monumental feat to get it closed from the outside so along with the constant repetition you get to hear a constant slammer vibe. The fire exit doors are heavy and add movement to the rooms adjacent to them. It's hard to believe there can be so many people using them at all hours. The room clerks are friendly and attentive when you call them either on the call box or from your room. They promptly respond to calls for anything you need for your room which would be everything. Any amenities you might need are not there and won't be. The staff is very direct and alert or maybe they're just in evacuation mode. If you don't expect to much the place works. Where else are you going to find a location like this for the price? It's hard to believe there is a Crowne Plaza across the street but here you just have the opportunity to enjoy living the simpler life. I would give them three stars if they only would leave the parking lot lights on.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>At first when you pull up all seems okay. Just like the other reviews the check
+in is by "remote". Be sure to let them know if you need a coffemaker and anything else the little stand up card in the kitchenette the chain advertises. Open the door and prison work release meets homeless shelter. The furniture is composite/plastic with strips all hanging from the dresser, nightstand etc. Large globs of missing paint dot a wall here or there. It started to look like room art and it works. The bathroom was clean and stocked with one bar of soap, a towel that looked like it was cut in half, border sewn on and presto. That's it, nothing else so forget about shampoo, tissue, lotion and don't even think conditioner. It is the most spartan accommodation I experienced ever but what the heck, for $42.00 a night what should I expect? The doors have a built in mechanism that makes it a monumental feat to get it closed from the outside so along with the constant repetition you get to hear a constant slammer vibe. The fire exit doors are heavy and add movement to the rooms adjacent to them. It's hard to believe there can be so many people using them at all hours. The room clerks are friendly and attentive when you call them either on the call box or from your room. They promptly respond to calls...At first when you pull up all seems okay. Just like the other reviews the checkin is by "remote". Be sure to let them know if you need a coffemaker and anything else the little stand up card in the kitchenette the chain advertises. Open the door and prison work release meets homeless shelter. The furniture is composite/plastic with strips all hanging from the dresser, nightstand etc. Large globs of missing paint dot a wall here or there. It started to look like room art and it works. The bathroom was clean and stocked with one bar of soap, a towel that looked like it was cut in half, border sewn on and presto. That's it, nothing else so forget about shampoo, tissue, lotion and don't even think conditioner. It is the most spartan accommodation I experienced ever but what the heck, for $42.00 a night what should I expect? The doors have a built in mechanism that makes it a monumental feat to get it closed from the outside so along with the constant repetition you get to hear a constant slammer vibe. The fire exit doors are heavy and add movement to the rooms adjacent to them. It's hard to believe there can be so many people using them at all hours. The room clerks are friendly and attentive when you call them either on the call box or from your room. They promptly respond to calls for anything you need for your room which would be everything. Any amenities you might need are not there and won't be. The staff is very direct and alert or maybe they're just in evacuation mode. If you don't expect to much the place works. Where else are you going to find a location like this for the price? It's hard to believe there is a Crowne Plaza across the street but here you just have the opportunity to enjoy living the simpler life. I would give them three stars if they only would leave the parking lot lights on.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r308331411-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>308331411</t>
+  </si>
+  <si>
+    <t>09/08/2015</t>
+  </si>
+  <si>
+    <t>wouldn't have given them a 1 but you had to to leave a review</t>
+  </si>
+  <si>
+    <t>This place is dirty, unsafe and all the employees seem to have given up on it.My room was dirty, nasty stuff under beds, cabinets fronts not cleaned, full of smudges and grime, bathroom disgusting, we had a dirty bathroom when we check in. We got 2 towels for a 3 day stay and 1 roll of toilet paper. The carpet is dirty and crunchy. The elevator sounds horrible, like it hasn't been serviced since 1910 sometime. I asked clerk when was last time it was inspected and he would not answer me. It sways sideways when in motion and all the fuse panels are pulled out and in-operative. None if the security doors work properly, you can just pull them open with out using a key. My room key wouldn't work after two days and I was told "yeah, that happens...." I replied that it had never happened at any other hotel, why here?There were cobwebs on the curtains, one of the lamps didn't work, the tv was from the 1980's. I didn't even dare get into the bed, I slept on top of it for 3 nights.  This was the worst hotel I have ever stayed in.  do yourself a favor and stay away.  My vehicle was vandalized overnight in the parking lot.  Just grossMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>This place is dirty, unsafe and all the employees seem to have given up on it.My room was dirty, nasty stuff under beds, cabinets fronts not cleaned, full of smudges and grime, bathroom disgusting, we had a dirty bathroom when we check in. We got 2 towels for a 3 day stay and 1 roll of toilet paper. The carpet is dirty and crunchy. The elevator sounds horrible, like it hasn't been serviced since 1910 sometime. I asked clerk when was last time it was inspected and he would not answer me. It sways sideways when in motion and all the fuse panels are pulled out and in-operative. None if the security doors work properly, you can just pull them open with out using a key. My room key wouldn't work after two days and I was told "yeah, that happens...." I replied that it had never happened at any other hotel, why here?There were cobwebs on the curtains, one of the lamps didn't work, the tv was from the 1980's. I didn't even dare get into the bed, I slept on top of it for 3 nights.  This was the worst hotel I have ever stayed in.  do yourself a favor and stay away.  My vehicle was vandalized overnight in the parking lot.  Just grossMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r306814445-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>306814445</t>
+  </si>
+  <si>
+    <t>09/03/2015</t>
+  </si>
+  <si>
+    <t>Dirty!</t>
+  </si>
+  <si>
+    <t>Poor quality, ran down,  and the dirtiest room I've ever slept in. In fact we didn't shower cause, we didn't feel it would benefit us because the shower was dirty itself. The hotel has potential just needs re-done and a good scrubbing.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r306374212-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>306374212</t>
+  </si>
+  <si>
+    <t>09/02/2015</t>
+  </si>
+  <si>
+    <t>I wanted to rate this hotel higher, really I did...</t>
+  </si>
+  <si>
+    <t>... but I couldn't.
+I booked this dump via the Travelocity "top-secret" deals program. They had it rated as 2 1/2 stars, for a good price,
+When I received the name of the hotel I checked this trip advisor site and was shocked to sell all the one star reviews. I was hoping that things had improved and that all of these reviewers were off-base. But alas, I was too optimistic. This hotel is as bad if not worse than the other reviews.
+Here we go: This entire establishment is a complete disaster. It is as dirty and disgusting as any building I have ever set foot it. The entire property needs to be power washed, disinfected, sanitized and repainted. Peeling paint on many of the doors and exterior wall. Stains from who knows what all over all the exterior concrete walkways. 
+There were cigarette butts EVERYWHERE outside. The elevator reeked of smoke. 
+One lady I saw get out of the elevator, I'm not sure who she was or what she was doing there, but she had several dollar bills pinned to her shirt. Use your imagination.
+Things were not any better inside my room, Even though I had a no-smoking room, there were cigarette burns in the bedspread. And not a good sign that there is plunger standing in the middle of the bathroom next to the toilet. The faucets at the sink were installed backwards (turned wrong direction...... but I couldn't.I booked this dump via the Travelocity "top-secret" deals program. They had it rated as 2 1/2 stars, for a good price,When I received the name of the hotel I checked this trip advisor site and was shocked to sell all the one star reviews. I was hoping that things had improved and that all of these reviewers were off-base. But alas, I was too optimistic. This hotel is as bad if not worse than the other reviews.Here we go: This entire establishment is a complete disaster. It is as dirty and disgusting as any building I have ever set foot it. The entire property needs to be power washed, disinfected, sanitized and repainted. Peeling paint on many of the doors and exterior wall. Stains from who knows what all over all the exterior concrete walkways. There were cigarette butts EVERYWHERE outside. The elevator reeked of smoke. One lady I saw get out of the elevator, I'm not sure who she was or what she was doing there, but she had several dollar bills pinned to her shirt. Use your imagination.Things were not any better inside my room, Even though I had a no-smoking room, there were cigarette burns in the bedspread. And not a good sign that there is plunger standing in the middle of the bathroom next to the toilet. The faucets at the sink were installed backwards (turned wrong direction for on/off.)The kitchen table and chairs were badly worn out, in need of replacement. The refrigerator reeked of some kind of chemical, It appeared to be clean, but I didn't dare put anything in there, not even a can of soda.There was a big stain of some sort on the kitchen wall.The bedding was all messed up. There were two bottom sheets but no top sheet. The bed itself was very uncomfortable.There was a clock-radio next to the bed, but it wasn't plugged in, so it was worthless.There was a small 19" TV, circa 1979, with a very limited selection of channels.At checkout time, there was nobody on duty at the front desk. There was another quest there and she said she had been waiting for about 10 minutes, despite repeatedly yelling "HELLLLL-OOOO, anybody home"? About 5 minutes after I got there, somebody finally showed up to process the checkout.About the only positives I can mention about this hotel are that the air conditioner was super-cold and the wi-fi was fast and free.Travelocity rating this hotel 2 1/2 stars is fraudulent. I am going to file a formal complaint and ask for a refund as soon as I get back home from my trip.If  you use Travelocity's Top Secret no-name hotel program, DO  NOT BOOK A 2 1/2 STAR HOTEL NEAR THE DENVER AIRPORT, or you risk getting stuck at this disgusting establishment.MoreShow less</t>
+  </si>
+  <si>
+    <t>... but I couldn't.
+I booked this dump via the Travelocity "top-secret" deals program. They had it rated as 2 1/2 stars, for a good price,
+When I received the name of the hotel I checked this trip advisor site and was shocked to sell all the one star reviews. I was hoping that things had improved and that all of these reviewers were off-base. But alas, I was too optimistic. This hotel is as bad if not worse than the other reviews.
+Here we go: This entire establishment is a complete disaster. It is as dirty and disgusting as any building I have ever set foot it. The entire property needs to be power washed, disinfected, sanitized and repainted. Peeling paint on many of the doors and exterior wall. Stains from who knows what all over all the exterior concrete walkways. 
+There were cigarette butts EVERYWHERE outside. The elevator reeked of smoke. 
+One lady I saw get out of the elevator, I'm not sure who she was or what she was doing there, but she had several dollar bills pinned to her shirt. Use your imagination.
+Things were not any better inside my room, Even though I had a no-smoking room, there were cigarette burns in the bedspread. And not a good sign that there is plunger standing in the middle of the bathroom next to the toilet. The faucets at the sink were installed backwards (turned wrong direction...... but I couldn't.I booked this dump via the Travelocity "top-secret" deals program. They had it rated as 2 1/2 stars, for a good price,When I received the name of the hotel I checked this trip advisor site and was shocked to sell all the one star reviews. I was hoping that things had improved and that all of these reviewers were off-base. But alas, I was too optimistic. This hotel is as bad if not worse than the other reviews.Here we go: This entire establishment is a complete disaster. It is as dirty and disgusting as any building I have ever set foot it. The entire property needs to be power washed, disinfected, sanitized and repainted. Peeling paint on many of the doors and exterior wall. Stains from who knows what all over all the exterior concrete walkways. There were cigarette butts EVERYWHERE outside. The elevator reeked of smoke. One lady I saw get out of the elevator, I'm not sure who she was or what she was doing there, but she had several dollar bills pinned to her shirt. Use your imagination.Things were not any better inside my room, Even though I had a no-smoking room, there were cigarette burns in the bedspread. And not a good sign that there is plunger standing in the middle of the bathroom next to the toilet. The faucets at the sink were installed backwards (turned wrong direction for on/off.)The kitchen table and chairs were badly worn out, in need of replacement. The refrigerator reeked of some kind of chemical, It appeared to be clean, but I didn't dare put anything in there, not even a can of soda.There was a big stain of some sort on the kitchen wall.The bedding was all messed up. There were two bottom sheets but no top sheet. The bed itself was very uncomfortable.There was a clock-radio next to the bed, but it wasn't plugged in, so it was worthless.There was a small 19" TV, circa 1979, with a very limited selection of channels.At checkout time, there was nobody on duty at the front desk. There was another quest there and she said she had been waiting for about 10 minutes, despite repeatedly yelling "HELLLLL-OOOO, anybody home"? About 5 minutes after I got there, somebody finally showed up to process the checkout.About the only positives I can mention about this hotel are that the air conditioner was super-cold and the wi-fi was fast and free.Travelocity rating this hotel 2 1/2 stars is fraudulent. I am going to file a formal complaint and ask for a refund as soon as I get back home from my trip.If  you use Travelocity's Top Secret no-name hotel program, DO  NOT BOOK A 2 1/2 STAR HOTEL NEAR THE DENVER AIRPORT, or you risk getting stuck at this disgusting establishment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r295875832-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>295875832</t>
+  </si>
+  <si>
+    <t>08/04/2015</t>
+  </si>
+  <si>
+    <t>HORRIBLE SCARY FILTHY DUMP</t>
+  </si>
+  <si>
+    <t>PLEASE save yourself the shock and horror of trying to stay here. Scary people were loitering all around the motel including inside the small lobby space, people were screaming/fighting/cursing right outside the front door and inside the lobby (cops were involved), hypodermic needle caps were laying in the walkways, of it was so so bad!!! And that was BEFORE we made it to our room (which we never went inside). Dirty filthy disgusting scary place inside and out just like what you see on old NYC movies (except we didn't stay long enough to see the rats). Needless to say, we promptly forfeited our reservation and left, probably saving ourselves from taking home bedbugs IF we would've even made it out alive. Yes fellow travelers, IT'S THAT BAD!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Airport - Aurora, responded to this reviewResponded September 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2015</t>
+  </si>
+  <si>
+    <t>PLEASE save yourself the shock and horror of trying to stay here. Scary people were loitering all around the motel including inside the small lobby space, people were screaming/fighting/cursing right outside the front door and inside the lobby (cops were involved), hypodermic needle caps were laying in the walkways, of it was so so bad!!! And that was BEFORE we made it to our room (which we never went inside). Dirty filthy disgusting scary place inside and out just like what you see on old NYC movies (except we didn't stay long enough to see the rats). Needless to say, we promptly forfeited our reservation and left, probably saving ourselves from taking home bedbugs IF we would've even made it out alive. Yes fellow travelers, IT'S THAT BAD!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r293796335-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>293796335</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>HORRIBLE, UNSAFE AND SCARY does not say enough.</t>
+  </si>
+  <si>
+    <t>What a dump, smashed dead bugs on walls, filth everywhere.  Not a place anyone with a family would ever want to stay. Without getting into too much detail suffice it to say that this place is more of the type of place that people rent for an hour or that you would see on a TV crime show where they may be manufacturing things that they shouldn't be.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Airport - Aurora, responded to this reviewResponded August 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2015</t>
+  </si>
+  <si>
+    <t>What a dump, smashed dead bugs on walls, filth everywhere.  Not a place anyone with a family would ever want to stay. Without getting into too much detail suffice it to say that this place is more of the type of place that people rent for an hour or that you would see on a TV crime show where they may be manufacturing things that they shouldn't be.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r288902689-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>288902689</t>
+  </si>
+  <si>
+    <t>07/14/2015</t>
+  </si>
+  <si>
+    <t>HORRIBLE ,UNSAFE ,SCARRY</t>
+  </si>
+  <si>
+    <t>I have no words a nightmare, and the manager just ignore everyone's complaints cause reading comments it was everything I went through and nothing has changed. To travels this is a cheap discussing motelMoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Airport - Aurora, responded to this reviewResponded September 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2015</t>
+  </si>
+  <si>
+    <t>I have no words a nightmare, and the manager just ignore everyone's complaints cause reading comments it was everything I went through and nothing has changed. To travels this is a cheap discussing motelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r286978934-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>286978934</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>Absolutely disgusting...</t>
+  </si>
+  <si>
+    <t>The room has stains on wall, cigarette burns and stains in sheets, floor is dirty as hell, kitchen has roach catchers in cabinets, shower is dirty... Just an overall nasty place. I am on tripadvisor now to find a new place. I don't recommend anyone stay here. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Airport - Aurora, responded to this reviewResponded July 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2015</t>
+  </si>
+  <si>
+    <t>The room has stains on wall, cigarette burns and stains in sheets, floor is dirty as hell, kitchen has roach catchers in cabinets, shower is dirty... Just an overall nasty place. I am on tripadvisor now to find a new place. I don't recommend anyone stay here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r285330857-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>285330857</t>
+  </si>
+  <si>
+    <t>07/03/2015</t>
+  </si>
+  <si>
+    <t>GROSS</t>
+  </si>
+  <si>
+    <t>My reservation was for a non-smoking room. There were burn marks on the sheets, burn marks on the bathroom floor.  There was evidence of a drink being spilled on the wall that had never been wiped clean.  The shower floor was pretty disgusting.  I fortunately only needed a place to sleep jet lag off for a few hours!  I can't imagine anyone staying in this place longer than a few hours!  Elevator was gross and they used a lot of air fresheners to ward off the evident stench.  Trash in the corridors and it was overall just icky!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>My reservation was for a non-smoking room. There were burn marks on the sheets, burn marks on the bathroom floor.  There was evidence of a drink being spilled on the wall that had never been wiped clean.  The shower floor was pretty disgusting.  I fortunately only needed a place to sleep jet lag off for a few hours!  I can't imagine anyone staying in this place longer than a few hours!  Elevator was gross and they used a lot of air fresheners to ward off the evident stench.  Trash in the corridors and it was overall just icky!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r284595889-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>284595889</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Checked In.... Checked OUT</t>
+  </si>
+  <si>
+    <t>Words cannot accurately describe this complete dump of a hotel. Hotel isn't even a proper word for this place. I booked on Hotwire for my husband who just needed a room for 1 night before catching his flight out. He spent more time checking in then he did in his room. Over 30 minutes to check in and when he finally got his room the windows were boarded up, the facilities filthy and the room was full of flies and stunk something awful. Needless to say he checked out and found more suitable accommodations. I recommend this hotel be shut down until it can figure out how to provide for its guests and run a safe establishment. The homeless folks asking for money out front certainly didn't help.MoreShow less</t>
+  </si>
+  <si>
+    <t>Words cannot accurately describe this complete dump of a hotel. Hotel isn't even a proper word for this place. I booked on Hotwire for my husband who just needed a room for 1 night before catching his flight out. He spent more time checking in then he did in his room. Over 30 minutes to check in and when he finally got his room the windows were boarded up, the facilities filthy and the room was full of flies and stunk something awful. Needless to say he checked out and found more suitable accommodations. I recommend this hotel be shut down until it can figure out how to provide for its guests and run a safe establishment. The homeless folks asking for money out front certainly didn't help.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r248620872-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>248620872</t>
+  </si>
+  <si>
+    <t>01/10/2015</t>
+  </si>
+  <si>
+    <t>"Budget" pushed a little too far...</t>
+  </si>
+  <si>
+    <t>Confession: On some trips I choose the really "bargain basement" cheapest rooms I can find.  With due diligence, I'm usually satisfied &amp; occasionally pleasantly surprised.  This time, I may have pushed "cheap" a little too far. Choose another budget property unless this one gets a dramatic property, service, and clientele upgrade.
+I was first in line at check-in, 45 minutes after the nominal check-in time, but it still took them over 20 minutes to get me a room, most of that time spent alone at the desk while the clerks talked in the back room.  I used to work in a prison and walking from the office to the room gave me flashbacks of passing through multiple locks to get to more locks and long, dimly-lit, grungy hallways lined with sketchy-looking characters smoking cigarettes.  I had my hand on the butt of my pistol the whole way and was still a bit nervous. In the room, holes in the bedspread, stains on the floors, none of the promised kitchen amenities, and a worn-out double bed.  The sheets seemed clean enough, but everything else left me skeptical.
+The free wi-fi was deliberately VERY slow to entice you to pay for upgraded/faster service.
+Quite a bit of unexplainable exterior noise throughout the night.  Even leaving before 6am (when even shady places usually quiet down and appear safer) wasn't much consolation. 
+Nothing bad happened.  But the price savings wasn't worth the anxiety (and...Confession: On some trips I choose the really "bargain basement" cheapest rooms I can find.  With due diligence, I'm usually satisfied &amp; occasionally pleasantly surprised.  This time, I may have pushed "cheap" a little too far. Choose another budget property unless this one gets a dramatic property, service, and clientele upgrade.I was first in line at check-in, 45 minutes after the nominal check-in time, but it still took them over 20 minutes to get me a room, most of that time spent alone at the desk while the clerks talked in the back room.  I used to work in a prison and walking from the office to the room gave me flashbacks of passing through multiple locks to get to more locks and long, dimly-lit, grungy hallways lined with sketchy-looking characters smoking cigarettes.  I had my hand on the butt of my pistol the whole way and was still a bit nervous. In the room, holes in the bedspread, stains on the floors, none of the promised kitchen amenities, and a worn-out double bed.  The sheets seemed clean enough, but everything else left me skeptical.The free wi-fi was deliberately VERY slow to entice you to pay for upgraded/faster service.Quite a bit of unexplainable exterior noise throughout the night.  Even leaving before 6am (when even shady places usually quiet down and appear safer) wasn't much consolation. Nothing bad happened.  But the price savings wasn't worth the anxiety (and I'm usually perceived as cavalier, unworried, and willing to take significantly more risk without worrying about it.)MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Confession: On some trips I choose the really "bargain basement" cheapest rooms I can find.  With due diligence, I'm usually satisfied &amp; occasionally pleasantly surprised.  This time, I may have pushed "cheap" a little too far. Choose another budget property unless this one gets a dramatic property, service, and clientele upgrade.
+I was first in line at check-in, 45 minutes after the nominal check-in time, but it still took them over 20 minutes to get me a room, most of that time spent alone at the desk while the clerks talked in the back room.  I used to work in a prison and walking from the office to the room gave me flashbacks of passing through multiple locks to get to more locks and long, dimly-lit, grungy hallways lined with sketchy-looking characters smoking cigarettes.  I had my hand on the butt of my pistol the whole way and was still a bit nervous. In the room, holes in the bedspread, stains on the floors, none of the promised kitchen amenities, and a worn-out double bed.  The sheets seemed clean enough, but everything else left me skeptical.
+The free wi-fi was deliberately VERY slow to entice you to pay for upgraded/faster service.
+Quite a bit of unexplainable exterior noise throughout the night.  Even leaving before 6am (when even shady places usually quiet down and appear safer) wasn't much consolation. 
+Nothing bad happened.  But the price savings wasn't worth the anxiety (and...Confession: On some trips I choose the really "bargain basement" cheapest rooms I can find.  With due diligence, I'm usually satisfied &amp; occasionally pleasantly surprised.  This time, I may have pushed "cheap" a little too far. Choose another budget property unless this one gets a dramatic property, service, and clientele upgrade.I was first in line at check-in, 45 minutes after the nominal check-in time, but it still took them over 20 minutes to get me a room, most of that time spent alone at the desk while the clerks talked in the back room.  I used to work in a prison and walking from the office to the room gave me flashbacks of passing through multiple locks to get to more locks and long, dimly-lit, grungy hallways lined with sketchy-looking characters smoking cigarettes.  I had my hand on the butt of my pistol the whole way and was still a bit nervous. In the room, holes in the bedspread, stains on the floors, none of the promised kitchen amenities, and a worn-out double bed.  The sheets seemed clean enough, but everything else left me skeptical.The free wi-fi was deliberately VERY slow to entice you to pay for upgraded/faster service.Quite a bit of unexplainable exterior noise throughout the night.  Even leaving before 6am (when even shady places usually quiet down and appear safer) wasn't much consolation. Nothing bad happened.  But the price savings wasn't worth the anxiety (and I'm usually perceived as cavalier, unworried, and willing to take significantly more risk without worrying about it.)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r245696764-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>245696764</t>
+  </si>
+  <si>
+    <t>12/23/2014</t>
+  </si>
+  <si>
+    <t>So sleeping in my car was actually the better idea!</t>
+  </si>
+  <si>
+    <t>I am on a road trip which requires driving several hours a day, eating snacks from my trunk and sleeping in my car despite weather dipping into the teens at night. It wasn't bad the first week, but hey, its Christmas and I wanted to treat myself. I reserved the remaining day of my trip here, where I could shower and sleep warmly. I'm in my room and the AC door is broken, leaving an open gap by my bed. I opened the drawer to the night stand to put the bible on the curtain to hold it closed, because the door issue makes the air force behind the curtain, exposing me to the world. Anyway, there is chewed gum in my drawer. The wrapper is on the floor on the other side of the room. There is a  nugget of some sort in the kitchen chair. I'm keeping my food in the trunk because its filthy in here. This is the kind of place that even low maintenance people can't get comfortable in. I'd leave but the reservation person said I can't get a refund. I feel like my new tattoo may get infected if I sleep on these sheets.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Airport - Aurora, responded to this reviewResponded January 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2015</t>
+  </si>
+  <si>
+    <t>I am on a road trip which requires driving several hours a day, eating snacks from my trunk and sleeping in my car despite weather dipping into the teens at night. It wasn't bad the first week, but hey, its Christmas and I wanted to treat myself. I reserved the remaining day of my trip here, where I could shower and sleep warmly. I'm in my room and the AC door is broken, leaving an open gap by my bed. I opened the drawer to the night stand to put the bible on the curtain to hold it closed, because the door issue makes the air force behind the curtain, exposing me to the world. Anyway, there is chewed gum in my drawer. The wrapper is on the floor on the other side of the room. There is a  nugget of some sort in the kitchen chair. I'm keeping my food in the trunk because its filthy in here. This is the kind of place that even low maintenance people can't get comfortable in. I'd leave but the reservation person said I can't get a refund. I feel like my new tattoo may get infected if I sleep on these sheets.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r242850468-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>242850468</t>
+  </si>
+  <si>
+    <t>12/03/2014</t>
+  </si>
+  <si>
+    <t>probably the worst hotel ive seen</t>
+  </si>
+  <si>
+    <t>so i drive 8 hours to denver and go to check in at 230 but check isnt until three which they were very rude about i asked if maybe my room was already done they said didnt matter check in was not until 3 so id have to come back rudely. so i come back and check in the room they gave me was not the one i reserved and was tiny and gross, burns in the comforter, dirty shower, no space, tiny bed, and the staff was very rude, i checked out as soon as i saw the room, which they said they would refund my money but have not done so yet, would not recommend to anyone, the front desk ladies were very rude and  unprofessional.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>so i drive 8 hours to denver and go to check in at 230 but check isnt until three which they were very rude about i asked if maybe my room was already done they said didnt matter check in was not until 3 so id have to come back rudely. so i come back and check in the room they gave me was not the one i reserved and was tiny and gross, burns in the comforter, dirty shower, no space, tiny bed, and the staff was very rude, i checked out as soon as i saw the room, which they said they would refund my money but have not done so yet, would not recommend to anyone, the front desk ladies were very rude and  unprofessional.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r233558236-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>233558236</t>
+  </si>
+  <si>
+    <t>10/09/2014</t>
+  </si>
+  <si>
+    <t>Perfect for my needs</t>
+  </si>
+  <si>
+    <t>To be clear, you'll want to check your germ-o-phobia at the door. This isn't the Hampton. It's more along the lines of an abandoned hostel, but with potential. Fortunately, I was well aware of what I was getting into. I even brought my own sheets and pillows. But the more I think about it, that's not a bad policy at any motel. The biggest thing going for Crosslands is that the staff is very friendly and helpful. (which was a shock, to be honest)
+My room was what it was. A nice-sized endcap, but with unmade beds with stained linens and other deficiencies found in the reviews below (in fairness, I didn't even complain...I just went with it). In short, it ain't pretty. But interestingly, I did have a nice, new flat screen TV. And the maintenance man was there upgrading the door locks. I cooked dinner, showered, went out on the town, returned, slept beautifully and departed with a smile (the girl at the desk is quite lovely).
+Look at it this way, people. You're going to Denver and paying less than half of what the next Hotel up the ladder is going to cost you. It's even less than a private at the youth hostel, I believe. And the location is superb. *although, as always, take precautions*
+It worked for this traveler. In fact, I got more than I paid for. I got a place to eat and...To be clear, you'll want to check your germ-o-phobia at the door. This isn't the Hampton. It's more along the lines of an abandoned hostel, but with potential. Fortunately, I was well aware of what I was getting into. I even brought my own sheets and pillows. But the more I think about it, that's not a bad policy at any motel. The biggest thing going for Crosslands is that the staff is very friendly and helpful. (which was a shock, to be honest)My room was what it was. A nice-sized endcap, but with unmade beds with stained linens and other deficiencies found in the reviews below (in fairness, I didn't even complain...I just went with it). In short, it ain't pretty. But interestingly, I did have a nice, new flat screen TV. And the maintenance man was there upgrading the door locks. I cooked dinner, showered, went out on the town, returned, slept beautifully and departed with a smile (the girl at the desk is quite lovely).Look at it this way, people. You're going to Denver and paying less than half of what the next Hotel up the ladder is going to cost you. It's even less than a private at the youth hostel, I believe. And the location is superb. *although, as always, take precautions*It worked for this traveler. In fact, I got more than I paid for. I got a place to eat and sleep and shower IN DENVER, CO. Thank you Crosslands.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>To be clear, you'll want to check your germ-o-phobia at the door. This isn't the Hampton. It's more along the lines of an abandoned hostel, but with potential. Fortunately, I was well aware of what I was getting into. I even brought my own sheets and pillows. But the more I think about it, that's not a bad policy at any motel. The biggest thing going for Crosslands is that the staff is very friendly and helpful. (which was a shock, to be honest)
+My room was what it was. A nice-sized endcap, but with unmade beds with stained linens and other deficiencies found in the reviews below (in fairness, I didn't even complain...I just went with it). In short, it ain't pretty. But interestingly, I did have a nice, new flat screen TV. And the maintenance man was there upgrading the door locks. I cooked dinner, showered, went out on the town, returned, slept beautifully and departed with a smile (the girl at the desk is quite lovely).
+Look at it this way, people. You're going to Denver and paying less than half of what the next Hotel up the ladder is going to cost you. It's even less than a private at the youth hostel, I believe. And the location is superb. *although, as always, take precautions*
+It worked for this traveler. In fact, I got more than I paid for. I got a place to eat and...To be clear, you'll want to check your germ-o-phobia at the door. This isn't the Hampton. It's more along the lines of an abandoned hostel, but with potential. Fortunately, I was well aware of what I was getting into. I even brought my own sheets and pillows. But the more I think about it, that's not a bad policy at any motel. The biggest thing going for Crosslands is that the staff is very friendly and helpful. (which was a shock, to be honest)My room was what it was. A nice-sized endcap, but with unmade beds with stained linens and other deficiencies found in the reviews below (in fairness, I didn't even complain...I just went with it). In short, it ain't pretty. But interestingly, I did have a nice, new flat screen TV. And the maintenance man was there upgrading the door locks. I cooked dinner, showered, went out on the town, returned, slept beautifully and departed with a smile (the girl at the desk is quite lovely).Look at it this way, people. You're going to Denver and paying less than half of what the next Hotel up the ladder is going to cost you. It's even less than a private at the youth hostel, I believe. And the location is superb. *although, as always, take precautions*It worked for this traveler. In fact, I got more than I paid for. I got a place to eat and sleep and shower IN DENVER, CO. Thank you Crosslands.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r226625815-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>226625815</t>
+  </si>
+  <si>
+    <t>09/03/2014</t>
+  </si>
+  <si>
+    <t>Don't stay here</t>
+  </si>
+  <si>
+    <t>I have to give one star otherwise could have given zero...this is an awful , unsafe and dirty hotel..please don't stay here ..we travelled colorado ,Wyoming ,Dakota for 12 days and stayed so many different hotels in that region...but nightmare of the whole trip was this hotel... Where should I start? We reached at night  one lady at front desk said Orbitz didn't book a non smoking room for us ,so we need to stay in a smoking room with our five year old daughter ..and we had booking for three days ..oh gosh!! ..she gave us a room ,that was totally backside of hotel, awful smoking smell , carpet full of urine marks, Broken smoke detector,...kitchen is fully empty ,not a piece of thing inside that ..we went to front desk and asked her what's the point of kitchen if it doesn't have anything ?. She said this is not luxury it's economy hotel,people bring things for cooking in kitchen ,it was told there is a full kitchen but not utensils ...really???!!!!  Whatever she gave us some dirtiest pots ,one broken coffee maker and  two knives...room n hotel was very very unsafe ,,.noisy people outside talking ,we felt we can't stay here ..we asked we will go if they can refund some percent money, lady said it depends on orbitz..she doesn't have any problem...ok good...we called orbitz, they said they will call front desk...and said front desk lady told...I have to give one star otherwise could have given zero...this is an awful , unsafe and dirty hotel..please don't stay here ..we travelled colorado ,Wyoming ,Dakota for 12 days and stayed so many different hotels in that region...but nightmare of the whole trip was this hotel... Where should I start? We reached at night  one lady at front desk said Orbitz didn't book a non smoking room for us ,so we need to stay in a smoking room with our five year old daughter ..and we had booking for three days ..oh gosh!! ..she gave us a room ,that was totally backside of hotel, awful smoking smell , carpet full of urine marks, Broken smoke detector,...kitchen is fully empty ,not a piece of thing inside that ..we went to front desk and asked her what's the point of kitchen if it doesn't have anything ?. She said this is not luxury it's economy hotel,people bring things for cooking in kitchen ,it was told there is a full kitchen but not utensils ...really???!!!!  Whatever she gave us some dirtiest pots ,one broken coffee maker and  two knives...room n hotel was very very unsafe ,,.noisy people outside talking ,we felt we can't stay here ..we asked we will go if they can refund some percent money, lady said it depends on orbitz..she doesn't have any problem...ok good...we called orbitz, they said they will call front desk...and said front desk lady told them she can't return money until manager comes in Monday...but when we called that lady she said no she didn't say same to orbitz is lying ,actually that lady was completely lying which we came to know after listening recorded voice from orbitz,...we decided we can't stay here ,but that night no place available ,booked next night somewhere else,...slept that night anyhow, bed was not bad but environment horrible.,,Next morning front desk lady was African American, she was really good..immediately listened to us and transferred us to a front side nonsmoking room,..that room was ok and little safe as it's front side and can be seen by all..we took the keys and moved out for two days from there ..third day returned just to take rest before catching flight...please don't stay here with family...u will regret ..there is nothing called Cleanliness in the hotel ...epic!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>I have to give one star otherwise could have given zero...this is an awful , unsafe and dirty hotel..please don't stay here ..we travelled colorado ,Wyoming ,Dakota for 12 days and stayed so many different hotels in that region...but nightmare of the whole trip was this hotel... Where should I start? We reached at night  one lady at front desk said Orbitz didn't book a non smoking room for us ,so we need to stay in a smoking room with our five year old daughter ..and we had booking for three days ..oh gosh!! ..she gave us a room ,that was totally backside of hotel, awful smoking smell , carpet full of urine marks, Broken smoke detector,...kitchen is fully empty ,not a piece of thing inside that ..we went to front desk and asked her what's the point of kitchen if it doesn't have anything ?. She said this is not luxury it's economy hotel,people bring things for cooking in kitchen ,it was told there is a full kitchen but not utensils ...really???!!!!  Whatever she gave us some dirtiest pots ,one broken coffee maker and  two knives...room n hotel was very very unsafe ,,.noisy people outside talking ,we felt we can't stay here ..we asked we will go if they can refund some percent money, lady said it depends on orbitz..she doesn't have any problem...ok good...we called orbitz, they said they will call front desk...and said front desk lady told...I have to give one star otherwise could have given zero...this is an awful , unsafe and dirty hotel..please don't stay here ..we travelled colorado ,Wyoming ,Dakota for 12 days and stayed so many different hotels in that region...but nightmare of the whole trip was this hotel... Where should I start? We reached at night  one lady at front desk said Orbitz didn't book a non smoking room for us ,so we need to stay in a smoking room with our five year old daughter ..and we had booking for three days ..oh gosh!! ..she gave us a room ,that was totally backside of hotel, awful smoking smell , carpet full of urine marks, Broken smoke detector,...kitchen is fully empty ,not a piece of thing inside that ..we went to front desk and asked her what's the point of kitchen if it doesn't have anything ?. She said this is not luxury it's economy hotel,people bring things for cooking in kitchen ,it was told there is a full kitchen but not utensils ...really???!!!!  Whatever she gave us some dirtiest pots ,one broken coffee maker and  two knives...room n hotel was very very unsafe ,,.noisy people outside talking ,we felt we can't stay here ..we asked we will go if they can refund some percent money, lady said it depends on orbitz..she doesn't have any problem...ok good...we called orbitz, they said they will call front desk...and said front desk lady told them she can't return money until manager comes in Monday...but when we called that lady she said no she didn't say same to orbitz is lying ,actually that lady was completely lying which we came to know after listening recorded voice from orbitz,...we decided we can't stay here ,but that night no place available ,booked next night somewhere else,...slept that night anyhow, bed was not bad but environment horrible.,,Next morning front desk lady was African American, she was really good..immediately listened to us and transferred us to a front side nonsmoking room,..that room was ok and little safe as it's front side and can be seen by all..we took the keys and moved out for two days from there ..third day returned just to take rest before catching flight...please don't stay here with family...u will regret ..there is nothing called Cleanliness in the hotel ...epic!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r224501147-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>224501147</t>
+  </si>
+  <si>
+    <t>08/26/2014</t>
+  </si>
+  <si>
+    <t>No No No</t>
+  </si>
+  <si>
+    <t>This hotel was awful. The room had a really bad smell, and a dirty feel. Was very dated. A lot of dodgy people hanging around outside, making for an unsafe environment. When we returned to the room after a night out, the door would not open, and felt as though the chain was on from inside the room. This made us feel very unsafe, and it took 4 attempts to get in. Only stayed here as it was cheap, and close to the airport, but Would never stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r217897351-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>217897351</t>
+  </si>
+  <si>
+    <t>07/27/2014</t>
+  </si>
+  <si>
+    <t>DON'T STAY HERE!  SLEEP IN YOUR CAR INSTEAD!!!</t>
+  </si>
+  <si>
+    <t>This is the WORST hotel my husband and I ever stayed in.  The woman at the front desk was RUDE, OBNOXIOUS, and I believe a little racist.  She was running an audit when we got there, and refused to check us in,  She told us to come back in an hour!  It was 10:00 p.m., we had a 5 a.m. flight the next morning, and were NOT happy!  When we finally got into the room, it was dirty, smelly, the TV didn't work, the outlets didn't have covers and wires were exposed, the bathroom door wouldn't close, the parking lot was full of people until well into the early hours of the morning, there were questionable stains on the sheets and mattress cover.  We slept in our clothes, on top of the covers.  It was the most miserable experience we've had in a long time.  The ONLY reason we stayed here was because every other hotel near the airport was full.  Next time we will sleep in the car!  DO NOT STAY HERE!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>This is the WORST hotel my husband and I ever stayed in.  The woman at the front desk was RUDE, OBNOXIOUS, and I believe a little racist.  She was running an audit when we got there, and refused to check us in,  She told us to come back in an hour!  It was 10:00 p.m., we had a 5 a.m. flight the next morning, and were NOT happy!  When we finally got into the room, it was dirty, smelly, the TV didn't work, the outlets didn't have covers and wires were exposed, the bathroom door wouldn't close, the parking lot was full of people until well into the early hours of the morning, there were questionable stains on the sheets and mattress cover.  We slept in our clothes, on top of the covers.  It was the most miserable experience we've had in a long time.  The ONLY reason we stayed here was because every other hotel near the airport was full.  Next time we will sleep in the car!  DO NOT STAY HERE!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r217759670-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>217759670</t>
+  </si>
+  <si>
+    <t>Perhaps better than sleeping in your car... maybe</t>
+  </si>
+  <si>
+    <t>"Economy" is being generous.  This was booked free for me by a relative so I wouldn't have to sleep in my car. If I had to pay for it I would not be happy at all! Just a few of the bad points... Only 1 dresser drawer is usable as 1 is missing and 1 is broken, no towels and when I called to ask they had to put some in the washer, floor is doing around toilet and there are zero supplies in the kitchen (if you were intending on using it). I'll let her know not to put anyone else up here. ;) Luckily I'm very low maintenance.MoreShow less</t>
+  </si>
+  <si>
+    <t>"Economy" is being generous.  This was booked free for me by a relative so I wouldn't have to sleep in my car. If I had to pay for it I would not be happy at all! Just a few of the bad points... Only 1 dresser drawer is usable as 1 is missing and 1 is broken, no towels and when I called to ask they had to put some in the washer, floor is doing around toilet and there are zero supplies in the kitchen (if you were intending on using it). I'll let her know not to put anyone else up here. ;) Luckily I'm very low maintenance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r214822628-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>214822628</t>
+  </si>
+  <si>
+    <t>07/11/2014</t>
+  </si>
+  <si>
+    <t>I WON'T stay here again!</t>
+  </si>
+  <si>
+    <t>I stayed here for 3 days. I booked online, got there and there were no vacancies. Luckily...or unlucky...the office lady gave me a room of someone that hadn't checked in yet. I asked her if the area was safe. She said "I wouldn't stay here". She also said "I'll be here til 11pm so if you need me to call 911 just let me know". Being a single woman that was of no comfort to me! I slept every night with my pistol beside me. By the 3rd night I was a little more comfortable with the place. The room wasn't bad, just very basic....essentials only. It was fairly clean, although I did still cover the toilet with paper whenever I sat on it. To me the main problem was the other people staying there. There were people up 3:30am shouting and laughing and stomping around with no regard to others. This occurred EVERY night that I was there! Honestly I just tried to keep to myself and blend in the woodwork as to not bring attention to myself from the undesirables. Also, on my 2nd night there, I got off work at 11pm went to the hotel and my key card wouldn't work. Mind you the office closes at 11p. If I ever need to stay in a hotel again...It WON'T be this one!MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for 3 days. I booked online, got there and there were no vacancies. Luckily...or unlucky...the office lady gave me a room of someone that hadn't checked in yet. I asked her if the area was safe. She said "I wouldn't stay here". She also said "I'll be here til 11pm so if you need me to call 911 just let me know". Being a single woman that was of no comfort to me! I slept every night with my pistol beside me. By the 3rd night I was a little more comfortable with the place. The room wasn't bad, just very basic....essentials only. It was fairly clean, although I did still cover the toilet with paper whenever I sat on it. To me the main problem was the other people staying there. There were people up 3:30am shouting and laughing and stomping around with no regard to others. This occurred EVERY night that I was there! Honestly I just tried to keep to myself and blend in the woodwork as to not bring attention to myself from the undesirables. Also, on my 2nd night there, I got off work at 11pm went to the hotel and my key card wouldn't work. Mind you the office closes at 11p. If I ever need to stay in a hotel again...It WON'T be this one!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r211435635-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>211435635</t>
+  </si>
+  <si>
+    <t>06/21/2014</t>
+  </si>
+  <si>
+    <t>Not the worst, but pretty close</t>
+  </si>
+  <si>
+    <t>We recently moved back to Denver and have been having a hard time finding an apartment, so we found this place on Hotwire. I'm really glad we didn't pay full price. The ladies in the office were really nice, which was really the only saving grace. They have a policy that you can't get clean towels without turning in the dirty ones, and housekeeping only comes once a week. One person I spoke to actually checked into a dirty room. There's a mini kitchenette, which is nice, but they don't supply any dishes or silverware. We had to go to the Dollar Store to get some, and there's also no Shampoo/Conditioner/Lotion or any toiletries. The pillows were flat and horrible, and the sheets had burn holes in them.MoreShow less</t>
+  </si>
+  <si>
+    <t>We recently moved back to Denver and have been having a hard time finding an apartment, so we found this place on Hotwire. I'm really glad we didn't pay full price. The ladies in the office were really nice, which was really the only saving grace. They have a policy that you can't get clean towels without turning in the dirty ones, and housekeeping only comes once a week. One person I spoke to actually checked into a dirty room. There's a mini kitchenette, which is nice, but they don't supply any dishes or silverware. We had to go to the Dollar Store to get some, and there's also no Shampoo/Conditioner/Lotion or any toiletries. The pillows were flat and horrible, and the sheets had burn holes in them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r209571546-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>209571546</t>
+  </si>
+  <si>
+    <t>06/09/2014</t>
+  </si>
+  <si>
+    <t>Not what I expected from Crossland</t>
+  </si>
+  <si>
+    <t>I have stayed at this location several times over the last 5 years, however after my recent stay I would not recommend this location to anyone. The room was nasty. The bathroom and toilet were dirty. I asked if there was another room available and was told there was not.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r207025546-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>207025546</t>
+  </si>
+  <si>
+    <t>05/25/2014</t>
+  </si>
+  <si>
+    <t>Most disgusting hotel EVER!!</t>
+  </si>
+  <si>
+    <t>I was looking for a cheap place to stay just for a few hours before going to the airport, I bought it through Hotel.com for a really good deal. We got there and waiting for 20 minutes for somebody at the Front desk to finally come down, He finally check us in and give us our keys. The way to our room was dark and scary. We open up the room and it smelled terrible! The monoxide alarm was beeping, the lights above the night stand weren't working so the room was really dark, the bathroom was dirty and we didn't have any toilet paper, just the empty roll on the floor. We called the FD and asked him to move us but he said he didn't have any more rooms. The carpet has huge stains to what it seems to be blood, really disgusting!! I didn't even open the sheets because I didn't want to touch anything. We couldn't stay there, and they guy at the FD wouldn't refund the money. I ended up paying a lot more for another room at Quality Inn and Suites, but it was so worth it. I would have contracted some disease if I stayed at this hotel. PLEASE DON'T GO!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Airport - Aurora, responded to this reviewResponded May 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2014</t>
+  </si>
+  <si>
+    <t>I was looking for a cheap place to stay just for a few hours before going to the airport, I bought it through Hotel.com for a really good deal. We got there and waiting for 20 minutes for somebody at the Front desk to finally come down, He finally check us in and give us our keys. The way to our room was dark and scary. We open up the room and it smelled terrible! The monoxide alarm was beeping, the lights above the night stand weren't working so the room was really dark, the bathroom was dirty and we didn't have any toilet paper, just the empty roll on the floor. We called the FD and asked him to move us but he said he didn't have any more rooms. The carpet has huge stains to what it seems to be blood, really disgusting!! I didn't even open the sheets because I didn't want to touch anything. We couldn't stay there, and they guy at the FD wouldn't refund the money. I ended up paying a lot more for another room at Quality Inn and Suites, but it was so worth it. I would have contracted some disease if I stayed at this hotel. PLEASE DON'T GO!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r205086852-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>205086852</t>
+  </si>
+  <si>
+    <t>05/11/2014</t>
+  </si>
+  <si>
+    <t>Right features - bad smell</t>
+  </si>
+  <si>
+    <t>This extended stay hotel offers all the right features - clean room with comfy bed and well equipped kitchen plus friendly staff. The location is convenient to Denver International Airport. However, we stayed in a nonsmoking room, surrounded by other nonsmoking rooms but the smell was unpleasant. The ventilation system somehow allowed smoke from other rooms to filter through. Wifi was problematic, as well.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r203290326-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>203290326</t>
+  </si>
+  <si>
+    <t>04/29/2014</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>My husband is staying there because he's working in the area!  He says the room is small and the staff are not friendly, room is not very clean and he's had numerous problems with his room key. He would not recommend this to anyone!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Crossland Economy Studios - Denver - Airport - Aurora, responded to this reviewResponded May 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2014</t>
+  </si>
+  <si>
+    <t>My husband is staying there because he's working in the area!  He says the room is small and the staff are not friendly, room is not very clean and he's had numerous problems with his room key. He would not recommend this to anyone!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r202700838-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>202700838</t>
+  </si>
+  <si>
+    <t>04/25/2014</t>
+  </si>
+  <si>
+    <t>This hotel needs to be removed from Trip Advisor.</t>
+  </si>
+  <si>
+    <t>Overcharged, double booked, wrong room, dirty facilities,  clogged toilet, cigarette burns on the bed spreads, mold on the shower curtain. This hotel needs to be removed from all Third Party sites. Definitely a waste of my time and money. Do not stay hereMoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Airport - Aurora, responded to this reviewResponded April 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2014</t>
+  </si>
+  <si>
+    <t>Overcharged, double booked, wrong room, dirty facilities,  clogged toilet, cigarette burns on the bed spreads, mold on the shower curtain. This hotel needs to be removed from all Third Party sites. Definitely a waste of my time and money. Do not stay hereMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r199463742-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>199463742</t>
+  </si>
+  <si>
+    <t>03/31/2014</t>
+  </si>
+  <si>
+    <t>Convenient for the right price</t>
+  </si>
+  <si>
+    <t>The customer Svc was great the room was clean maybe newer t.v.'s. I got the best value for my money. Many restaurants in the area to choose from. And right off a major high way. I-70 &amp; Chambers. I could not beat that. Found out about washing &amp; drying super convenient. I enjoyed my stay. Will stay again if needed again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r197655520-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>197655520</t>
+  </si>
+  <si>
+    <t>03/16/2014</t>
+  </si>
+  <si>
+    <t>Poor communication and very unhelpful staff.  Worthless</t>
+  </si>
+  <si>
+    <t>I stayed here 1 night at the beginning of September. First the room had no toliet paper and 1 towel for 2 people, since it was a quick stay I didn't say anythign to the frotn desk. however....
+I left my jacket in the room, I realized this within 2 hours of my drive back north and called them. They had it and would be happy to ship, great my credit card is on file already is that okay, yes great. 
+October - Nothing, call them and yup still there it will ship out tomorrow.
+2 weeks later - Its still here, and we cannot ship out until we get a fax with your credit card information, okay this is the first time I am hearing about this. so i fax it to them, on 10/15/2013 ( I still have the paper from the transmission!!) I ask the manager to call me with any problems.
+November - Still nothing, call them and oh yeah its here will ship tomorrow
+December - More of the same.
+January - I am basically over it, never mind the jacket was expensive. But I did call still, someone would call me, never happened
+February - I finally call again and am told its there will ship tomorrow fedex even! 
+2 weeks later - No jacket, call and get some story about the person I talked to is no longer there and my jacket is...I stayed here 1 night at the beginning of September. First the room had no toliet paper and 1 towel for 2 people, since it was a quick stay I didn't say anythign to the frotn desk. however....I left my jacket in the room, I realized this within 2 hours of my drive back north and called them. They had it and would be happy to ship, great my credit card is on file already is that okay, yes great. October - Nothing, call them and yup still there it will ship out tomorrow.2 weeks later - Its still here, and we cannot ship out until we get a fax with your credit card information, okay this is the first time I am hearing about this. so i fax it to them, on 10/15/2013 ( I still have the paper from the transmission!!) I ask the manager to call me with any problems.November - Still nothing, call them and oh yeah its here will ship tomorrowDecember - More of the same.January - I am basically over it, never mind the jacket was expensive. But I did call still, someone would call me, never happenedFebruary - I finally call again and am told its there will ship tomorrow fedex even! 2 weeks later - No jacket, call and get some story about the person I talked to is no longer there and my jacket is now gone. Wow that took 7 months and NOW my jacket is gone. Ask to speak to a manger, whom is not there, shocking. Will someone please call me. I am told again, tomorrow. Nothing. Its now been 2 weeks my magic number. These people have my credit card and I still don't have my jacket. Going to cancel it soon and explore my options with the BBB. Moral of the story, stay the hell away. And maybe harass them with 15 + calls a day if you want to see progress. Worthless.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>I stayed here 1 night at the beginning of September. First the room had no toliet paper and 1 towel for 2 people, since it was a quick stay I didn't say anythign to the frotn desk. however....
+I left my jacket in the room, I realized this within 2 hours of my drive back north and called them. They had it and would be happy to ship, great my credit card is on file already is that okay, yes great. 
+October - Nothing, call them and yup still there it will ship out tomorrow.
+2 weeks later - Its still here, and we cannot ship out until we get a fax with your credit card information, okay this is the first time I am hearing about this. so i fax it to them, on 10/15/2013 ( I still have the paper from the transmission!!) I ask the manager to call me with any problems.
+November - Still nothing, call them and oh yeah its here will ship tomorrow
+December - More of the same.
+January - I am basically over it, never mind the jacket was expensive. But I did call still, someone would call me, never happened
+February - I finally call again and am told its there will ship tomorrow fedex even! 
+2 weeks later - No jacket, call and get some story about the person I talked to is no longer there and my jacket is...I stayed here 1 night at the beginning of September. First the room had no toliet paper and 1 towel for 2 people, since it was a quick stay I didn't say anythign to the frotn desk. however....I left my jacket in the room, I realized this within 2 hours of my drive back north and called them. They had it and would be happy to ship, great my credit card is on file already is that okay, yes great. October - Nothing, call them and yup still there it will ship out tomorrow.2 weeks later - Its still here, and we cannot ship out until we get a fax with your credit card information, okay this is the first time I am hearing about this. so i fax it to them, on 10/15/2013 ( I still have the paper from the transmission!!) I ask the manager to call me with any problems.November - Still nothing, call them and oh yeah its here will ship tomorrowDecember - More of the same.January - I am basically over it, never mind the jacket was expensive. But I did call still, someone would call me, never happenedFebruary - I finally call again and am told its there will ship tomorrow fedex even! 2 weeks later - No jacket, call and get some story about the person I talked to is no longer there and my jacket is now gone. Wow that took 7 months and NOW my jacket is gone. Ask to speak to a manger, whom is not there, shocking. Will someone please call me. I am told again, tomorrow. Nothing. Its now been 2 weeks my magic number. These people have my credit card and I still don't have my jacket. Going to cancel it soon and explore my options with the BBB. Moral of the story, stay the hell away. And maybe harass them with 15 + calls a day if you want to see progress. Worthless.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r195081454-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>195081454</t>
+  </si>
+  <si>
+    <t>02/23/2014</t>
+  </si>
+  <si>
+    <t>Nightmare</t>
+  </si>
+  <si>
+    <t>I do not recommend you stay here, I repeat do not stay here. We were relocated to the Denver area and needed a place to stay for several days. I booked two nights online. It took approximately 50 minutes to check in, I had to ring a phone, wait for an answer and wait again for the clerk to open the door. There was one other customer in front of me. That other customer was a regular and decided to talk about her whole day and the clerk played into it. The other customer was there to pay one months rent, which probably should have taken 15 minutes at the most, it took her nearly 50 minutes. The clerk was slow and I rudely interrupted to get the clerk's attention so we could check in. It was 11 p.m. and we were on the road for 10 hours. Finally, after checking in, the room was filthy, there were blood stains on the comforter and the side of the linens. The floor carpet and tile had dirt. The bathroom sinks and towels had hair (looked like a man's shaving hair) left all over. We were extremely tired and fell asleep anyway. The next day I went to get my money back for the upcoming night's stay and was told it would take 3 to 5 business days to recieve a refund. It's day five and I haven't seen my money yet....I do not recommend you stay here, I repeat do not stay here. We were relocated to the Denver area and needed a place to stay for several days. I booked two nights online. It took approximately 50 minutes to check in, I had to ring a phone, wait for an answer and wait again for the clerk to open the door. There was one other customer in front of me. That other customer was a regular and decided to talk about her whole day and the clerk played into it. The other customer was there to pay one months rent, which probably should have taken 15 minutes at the most, it took her nearly 50 minutes. The clerk was slow and I rudely interrupted to get the clerk's attention so we could check in. It was 11 p.m. and we were on the road for 10 hours. Finally, after checking in, the room was filthy, there were blood stains on the comforter and the side of the linens. The floor carpet and tile had dirt. The bathroom sinks and towels had hair (looked like a man's shaving hair) left all over. We were extremely tired and fell asleep anyway. The next day I went to get my money back for the upcoming night's stay and was told it would take 3 to 5 business days to recieve a refund. It's day five and I haven't seen my money yet. We used Priceline and found a hotel, cheaper rated at 3.5 stars and it exceeded our expectations.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>I do not recommend you stay here, I repeat do not stay here. We were relocated to the Denver area and needed a place to stay for several days. I booked two nights online. It took approximately 50 minutes to check in, I had to ring a phone, wait for an answer and wait again for the clerk to open the door. There was one other customer in front of me. That other customer was a regular and decided to talk about her whole day and the clerk played into it. The other customer was there to pay one months rent, which probably should have taken 15 minutes at the most, it took her nearly 50 minutes. The clerk was slow and I rudely interrupted to get the clerk's attention so we could check in. It was 11 p.m. and we were on the road for 10 hours. Finally, after checking in, the room was filthy, there were blood stains on the comforter and the side of the linens. The floor carpet and tile had dirt. The bathroom sinks and towels had hair (looked like a man's shaving hair) left all over. We were extremely tired and fell asleep anyway. The next day I went to get my money back for the upcoming night's stay and was told it would take 3 to 5 business days to recieve a refund. It's day five and I haven't seen my money yet....I do not recommend you stay here, I repeat do not stay here. We were relocated to the Denver area and needed a place to stay for several days. I booked two nights online. It took approximately 50 minutes to check in, I had to ring a phone, wait for an answer and wait again for the clerk to open the door. There was one other customer in front of me. That other customer was a regular and decided to talk about her whole day and the clerk played into it. The other customer was there to pay one months rent, which probably should have taken 15 minutes at the most, it took her nearly 50 minutes. The clerk was slow and I rudely interrupted to get the clerk's attention so we could check in. It was 11 p.m. and we were on the road for 10 hours. Finally, after checking in, the room was filthy, there were blood stains on the comforter and the side of the linens. The floor carpet and tile had dirt. The bathroom sinks and towels had hair (looked like a man's shaving hair) left all over. We were extremely tired and fell asleep anyway. The next day I went to get my money back for the upcoming night's stay and was told it would take 3 to 5 business days to recieve a refund. It's day five and I haven't seen my money yet. We used Priceline and found a hotel, cheaper rated at 3.5 stars and it exceeded our expectations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r186338959-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>186338959</t>
+  </si>
+  <si>
+    <t>11/30/2013</t>
+  </si>
+  <si>
+    <t>Dirt hole</t>
+  </si>
+  <si>
+    <t>Be smart don't stay here.  If you do you will understand why I say this.   Bad bed,, one burner works one stove,,no screen on facuet so sprays all over dog piss on floor dirty greasy dishes ,,, the list never stops</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r181074205-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>181074205</t>
+  </si>
+  <si>
+    <t>10/14/2013</t>
+  </si>
+  <si>
+    <t>WORST service from hotel never stayed in</t>
+  </si>
+  <si>
+    <t>DO NOT BOOK THIS PLACE!!  Confirmation means nothing, you can arrive there and not have a room! Reservation was confirmed online and held with my credit card.  I picked up my nephew at 4p from work, when I recieved a phone call from this hotel stating they had moved him to Cherry Creek Location.  INSANE!!  He has no transportation, and we specifically booked Airport location since he could walk to work from there.  The agent on the phone advised me that sometimes they are overbooked. NOT MY PROBLEM.  Also advised me he was not the only one moved to another location. Again, NOT MY PROBLEM.  I fail to understand how you can CONFIRM a reservation, and upon checkin "after" 3pm, you have NO ROOMS?!!  This was unacceptable customer service. I just retired from 29 yrs in the airline business and have NEVER  experienced this situation.  Its quite frustrating!! I could have gone to this hotel in the morning, anytime, all day to checkin.  There should have been some disclaimer about overbookings or the possibility of NOT having a room available if checkin at 3pm..according to Hotel's policy..... I hope they improve  reservation policies and STOP inconveniencing potential repeat customers!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Airport - Aurora, responded to this reviewResponded October 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2013</t>
+  </si>
+  <si>
+    <t>DO NOT BOOK THIS PLACE!!  Confirmation means nothing, you can arrive there and not have a room! Reservation was confirmed online and held with my credit card.  I picked up my nephew at 4p from work, when I recieved a phone call from this hotel stating they had moved him to Cherry Creek Location.  INSANE!!  He has no transportation, and we specifically booked Airport location since he could walk to work from there.  The agent on the phone advised me that sometimes they are overbooked. NOT MY PROBLEM.  Also advised me he was not the only one moved to another location. Again, NOT MY PROBLEM.  I fail to understand how you can CONFIRM a reservation, and upon checkin "after" 3pm, you have NO ROOMS?!!  This was unacceptable customer service. I just retired from 29 yrs in the airline business and have NEVER  experienced this situation.  Its quite frustrating!! I could have gone to this hotel in the morning, anytime, all day to checkin.  There should have been some disclaimer about overbookings or the possibility of NOT having a room available if checkin at 3pm..according to Hotel's policy..... I hope they improve  reservation policies and STOP inconveniencing potential repeat customers!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r180641231-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>180641231</t>
+  </si>
+  <si>
+    <t>10/11/2013</t>
+  </si>
+  <si>
+    <t>Welcome to the "Crossland Project"</t>
+  </si>
+  <si>
+    <t>I only stayed one night, but my experience at the Crossland Aurora was terrible. I will list reasons from my experience that contributred to my rating:
+1) Show up after check-in and am told the room is not ready and to return in 20 minutes. This is excusable as it is common in any hotel. I return in about 30 minutes and am told the room is available but it didn't get a chance to have a "deep clean" and do I mind if the carpet is a "little dirty"? What choice do I have? I prepaid on a third-party site. 
+2) I enter the elevator corridor and am instantly greeted by a garbage-coated floor - few garbage cans desperate to be emptied.
+3) Open the room door and am blasted by an absolutely putrid odor - a mix of smoke, rotten food, and cleaning product. 
+4) The carpet between the "kitchen" and the rest of the room is soaking wet. 
+5) Try to turn on the television - nothing happens. After struggling with it for a while I realize the outlet is dead. Change the outlet and it works. Barely.
+6) Wifi does not work at all. When I checked in I was given a number to call "if I have any problems with the internet" - as if they expected there to be a problem. Sat for 25 minutes on hold waiting for this third party internet provider...I only stayed one night, but my experience at the Crossland Aurora was terrible. I will list reasons from my experience that contributred to my rating:1) Show up after check-in and am told the room is not ready and to return in 20 minutes. This is excusable as it is common in any hotel. I return in about 30 minutes and am told the room is available but it didn't get a chance to have a "deep clean" and do I mind if the carpet is a "little dirty"? What choice do I have? I prepaid on a third-party site. 2) I enter the elevator corridor and am instantly greeted by a garbage-coated floor - few garbage cans desperate to be emptied.3) Open the room door and am blasted by an absolutely putrid odor - a mix of smoke, rotten food, and cleaning product. 4) The carpet between the "kitchen" and the rest of the room is soaking wet. 5) Try to turn on the television - nothing happens. After struggling with it for a while I realize the outlet is dead. Change the outlet and it works. Barely.6) Wifi does not work at all. When I checked in I was given a number to call "if I have any problems with the internet" - as if they expected there to be a problem. Sat for 25 minutes on hold waiting for this third party internet provider before I give up. 7) Decide to cut my losses and go to bed (with a little liquid assistance) and notice they have only provided me with a sheet, unless I was willing to use the disgusting, unwashed bed cover - no thanks.8) Wake up freezing cold and resort to turning on the heater - cranked to "high heat" and not surprisingly...it doesn't work. Only get cold outside air. 9) few items I had in the fridge ended up frozen.10) Insects on the ceiling all night.11) Office didn't open at 7:00 as advertised. Waited around a little while after that so I could complain to someone but decided I'd rather just get the hell out of there.Seriously, I've never had such a poor experience in a hotel. The only kick I got out of the place were some interesting conversations with the "characters" that live there long term. Characters indeed.AVOID!MoreShow less</t>
+  </si>
+  <si>
+    <t>I only stayed one night, but my experience at the Crossland Aurora was terrible. I will list reasons from my experience that contributred to my rating:
+1) Show up after check-in and am told the room is not ready and to return in 20 minutes. This is excusable as it is common in any hotel. I return in about 30 minutes and am told the room is available but it didn't get a chance to have a "deep clean" and do I mind if the carpet is a "little dirty"? What choice do I have? I prepaid on a third-party site. 
+2) I enter the elevator corridor and am instantly greeted by a garbage-coated floor - few garbage cans desperate to be emptied.
+3) Open the room door and am blasted by an absolutely putrid odor - a mix of smoke, rotten food, and cleaning product. 
+4) The carpet between the "kitchen" and the rest of the room is soaking wet. 
+5) Try to turn on the television - nothing happens. After struggling with it for a while I realize the outlet is dead. Change the outlet and it works. Barely.
+6) Wifi does not work at all. When I checked in I was given a number to call "if I have any problems with the internet" - as if they expected there to be a problem. Sat for 25 minutes on hold waiting for this third party internet provider...I only stayed one night, but my experience at the Crossland Aurora was terrible. I will list reasons from my experience that contributred to my rating:1) Show up after check-in and am told the room is not ready and to return in 20 minutes. This is excusable as it is common in any hotel. I return in about 30 minutes and am told the room is available but it didn't get a chance to have a "deep clean" and do I mind if the carpet is a "little dirty"? What choice do I have? I prepaid on a third-party site. 2) I enter the elevator corridor and am instantly greeted by a garbage-coated floor - few garbage cans desperate to be emptied.3) Open the room door and am blasted by an absolutely putrid odor - a mix of smoke, rotten food, and cleaning product. 4) The carpet between the "kitchen" and the rest of the room is soaking wet. 5) Try to turn on the television - nothing happens. After struggling with it for a while I realize the outlet is dead. Change the outlet and it works. Barely.6) Wifi does not work at all. When I checked in I was given a number to call "if I have any problems with the internet" - as if they expected there to be a problem. Sat for 25 minutes on hold waiting for this third party internet provider before I give up. 7) Decide to cut my losses and go to bed (with a little liquid assistance) and notice they have only provided me with a sheet, unless I was willing to use the disgusting, unwashed bed cover - no thanks.8) Wake up freezing cold and resort to turning on the heater - cranked to "high heat" and not surprisingly...it doesn't work. Only get cold outside air. 9) few items I had in the fridge ended up frozen.10) Insects on the ceiling all night.11) Office didn't open at 7:00 as advertised. Waited around a little while after that so I could complain to someone but decided I'd rather just get the hell out of there.Seriously, I've never had such a poor experience in a hotel. The only kick I got out of the place were some interesting conversations with the "characters" that live there long term. Characters indeed.AVOID!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r170569362-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>170569362</t>
+  </si>
+  <si>
+    <t>08/03/2013</t>
+  </si>
+  <si>
+    <t>Dirty...</t>
+  </si>
+  <si>
+    <t>Needed a quick, cheap stay before an early morning flight out.  We got cheap, but that's about it.  Cat food on the floor, shower drip, smelly, and the floors smacked of movie theater floors, i.e., stained, sticky and dirty.  We do not recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Crossland Economy Studios - Denver - Airport - Aurora, responded to this reviewResponded August 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2013</t>
+  </si>
+  <si>
+    <t>Needed a quick, cheap stay before an early morning flight out.  We got cheap, but that's about it.  Cat food on the floor, shower drip, smelly, and the floors smacked of movie theater floors, i.e., stained, sticky and dirty.  We do not recommend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r168558083-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>168558083</t>
+  </si>
+  <si>
+    <t>07/22/2013</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE!</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE. Our hotel room was dirty! There was garbage on the floor from the previous guest, hair on the bathroom floor, bugs in kitchenette and the shower floor was grey with dirt. Then we got a call at 3:30 in the morning from the front desk saying they had no record of us being there and when my husband explained the situation they just hung up. When I checked my credit card records, we had been double charged. We would have been better off sleeping in the car.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Crossland Economy Studios - Denver - Airport - Aurora, responded to this reviewResponded August 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2013</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE. Our hotel room was dirty! There was garbage on the floor from the previous guest, hair on the bathroom floor, bugs in kitchenette and the shower floor was grey with dirt. Then we got a call at 3:30 in the morning from the front desk saying they had no record of us being there and when my husband explained the situation they just hung up. When I checked my credit card records, we had been double charged. We would have been better off sleeping in the car.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r164795289-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>164795289</t>
+  </si>
+  <si>
+    <t>06/22/2013</t>
+  </si>
+  <si>
+    <t>run!</t>
+  </si>
+  <si>
+    <t>truly scary.   found 2 hairs in the shower.  there were lots of tooth paste stains down the side of the wall next to the bathroom sink.   the floor was heavily water stained in the bathroom.  no fan in the bathroom, but that was good because the cover was rusted and full of dust.  cob web in one corner above shower.   one dining room chair had crumbs.  only one pot and one coffee cup in the kitchen.  bed covers were ancient.   no blankets.   thank goodness i travel with my own pillow.  tv controller gummy.   I survived.   Only reason i stayed was I didn't want to distress my worn out hubby.   If i have my own pillow, it can handle anything!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Airport - Aurora, responded to this reviewResponded June 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2013</t>
+  </si>
+  <si>
+    <t>truly scary.   found 2 hairs in the shower.  there were lots of tooth paste stains down the side of the wall next to the bathroom sink.   the floor was heavily water stained in the bathroom.  no fan in the bathroom, but that was good because the cover was rusted and full of dust.  cob web in one corner above shower.   one dining room chair had crumbs.  only one pot and one coffee cup in the kitchen.  bed covers were ancient.   no blankets.   thank goodness i travel with my own pillow.  tv controller gummy.   I survived.   Only reason i stayed was I didn't want to distress my worn out hubby.   If i have my own pillow, it can handle anything!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r151575163-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>151575163</t>
+  </si>
+  <si>
+    <t>02/06/2013</t>
+  </si>
+  <si>
+    <t>You get what you pay for.</t>
+  </si>
+  <si>
+    <t>Pros: Location is excellent with easy freeway access and a 15 minute drive to the airport.   Walmart and Safeway grocery stores within a mile.  Close dining and gas stations. Plenty of parking space and clean exterior. Kitchenette was clean well stocked. Cons:  I was a guest for 30 days.  In those 30 days I had 2 days without hot water. 3+ nights without wifi.  And 2 weeks without housekeeping.  Pillows and sheets smelled  like an old baseball cap.  No bleach is used in the laundry process if there is its not enough. So plan on a shower in the morning cause you smell like you've worked All day when you wake up. High traffic carpet was filthy.  Bathroom sink had no water pressure.  Cable channels were very limited. And not that the hotel can help this but some o the neighbors were extremely loud.  So like I said, you get what you pay for.  Don't expect any bells or whistles, if you are expecting a lot out of your dollar you will be dissappointed.  But if your looking for value, and affordable accommodations this place will be fine.  The ceiling doesn't leak so you'll stay dry! MoreShow less</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Crossland Economy Studios - Denver - Airport - Aurora, responded to this reviewResponded February 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2013</t>
+  </si>
+  <si>
+    <t>Pros: Location is excellent with easy freeway access and a 15 minute drive to the airport.   Walmart and Safeway grocery stores within a mile.  Close dining and gas stations. Plenty of parking space and clean exterior. Kitchenette was clean well stocked. Cons:  I was a guest for 30 days.  In those 30 days I had 2 days without hot water. 3+ nights without wifi.  And 2 weeks without housekeeping.  Pillows and sheets smelled  like an old baseball cap.  No bleach is used in the laundry process if there is its not enough. So plan on a shower in the morning cause you smell like you've worked All day when you wake up. High traffic carpet was filthy.  Bathroom sink had no water pressure.  Cable channels were very limited. And not that the hotel can help this but some o the neighbors were extremely loud.  So like I said, you get what you pay for.  Don't expect any bells or whistles, if you are expecting a lot out of your dollar you will be dissappointed.  But if your looking for value, and affordable accommodations this place will be fine.  The ceiling doesn't leak so you'll stay dry! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r145834419-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>145834419</t>
+  </si>
+  <si>
+    <t>11/20/2012</t>
+  </si>
+  <si>
+    <t>Will not recommend this hotel</t>
+  </si>
+  <si>
+    <t>I was afraid to take my shoes off - the carpet was very dirty with a spill stain that looked like it was air dried and not cleaned up.  The second bed had hair on the sheets, and it looked as if it was not changed.  I had an allergic reaction the first night.  Desk help did not know what to do when I told them that I was checking out before they opened.  My credit card was charged several times.  Had to verify they did not overcharge me.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Crossland Economy Studios - Denver - Airport - Aurora, responded to this reviewResponded November 24, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 24, 2012</t>
+  </si>
+  <si>
+    <t>I was afraid to take my shoes off - the carpet was very dirty with a spill stain that looked like it was air dried and not cleaned up.  The second bed had hair on the sheets, and it looked as if it was not changed.  I had an allergic reaction the first night.  Desk help did not know what to do when I told them that I was checking out before they opened.  My credit card was charged several times.  Had to verify they did not overcharge me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r139701415-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>139701415</t>
+  </si>
+  <si>
+    <t>09/07/2012</t>
+  </si>
+  <si>
+    <t>OMG.....You cant pay me to stay here.</t>
+  </si>
+  <si>
+    <t>I'd rather sleep in my car. Disgusting is putting it nicely! There was feces on my toilet paper roll, Im not sure what was in the bed. The window wouldnt lock and as a single female, I did not feel safe here. The room smelled so bad I knew I wouldnt sleep, I checked in and checked right out. If this is what this chain is like then avoid it at all costs.... Im at the Laquinta on Tower road and its worth every extra penny I paid.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Airport - Aurora, responded to this reviewResponded September 11, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2012</t>
+  </si>
+  <si>
+    <t>I'd rather sleep in my car. Disgusting is putting it nicely! There was feces on my toilet paper roll, Im not sure what was in the bed. The window wouldnt lock and as a single female, I did not feel safe here. The room smelled so bad I knew I wouldnt sleep, I checked in and checked right out. If this is what this chain is like then avoid it at all costs.... Im at the Laquinta on Tower road and its worth every extra penny I paid.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r137752799-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>137752799</t>
+  </si>
+  <si>
+    <t>08/20/2012</t>
+  </si>
+  <si>
+    <t>Cozy room, friendly staff</t>
+  </si>
+  <si>
+    <t>I was sent to this extended stay by my company to stay in while I'm working in Denver. The room is cozy and has a mini fridge, stove, and microwave. The room was clean upon arrival and even had a pleasant smell to it. My only complaint was that the shower curtain needed to be washed. The staff is extremely friendly and helpful, and the housekeeping was also friendly and thorough. I would highly recommend staying here!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Airport - Aurora, responded to this reviewResponded August 22, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2012</t>
+  </si>
+  <si>
+    <t>I was sent to this extended stay by my company to stay in while I'm working in Denver. The room is cozy and has a mini fridge, stove, and microwave. The room was clean upon arrival and even had a pleasant smell to it. My only complaint was that the shower curtain needed to be washed. The staff is extremely friendly and helpful, and the housekeeping was also friendly and thorough. I would highly recommend staying here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r136998746-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>136998746</t>
+  </si>
+  <si>
+    <t>08/12/2012</t>
+  </si>
+  <si>
+    <t>Not bad for the price</t>
+  </si>
+  <si>
+    <t>We stayed here while in the Denver area for work for a month.  While the room was "no frills"  it had what we needed and was a clean place to sleep.  The staff was very nice and always helpful.  Seems most of the persons staying there are construction workers.  But there was not anything that made us feel unsafe.  There is not a lot in the immediate vicinity, except 2 fast food restaurants.  But if you are willing to drive a half mile over the highway, there are lots of restaurants to choose from.The only negative issue we experienced was seeing what were obviously hookers around the hotel some nights.  In fact, one night we had a knock on the door and were asked if we "needed a date".   But outside of that, it met our needs at an affordable price.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Airport - Aurora, responded to this reviewResponded August 21, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2012</t>
+  </si>
+  <si>
+    <t>We stayed here while in the Denver area for work for a month.  While the room was "no frills"  it had what we needed and was a clean place to sleep.  The staff was very nice and always helpful.  Seems most of the persons staying there are construction workers.  But there was not anything that made us feel unsafe.  There is not a lot in the immediate vicinity, except 2 fast food restaurants.  But if you are willing to drive a half mile over the highway, there are lots of restaurants to choose from.The only negative issue we experienced was seeing what were obviously hookers around the hotel some nights.  In fact, one night we had a knock on the door and were asked if we "needed a date".   But outside of that, it met our needs at an affordable price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r135962279-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>135962279</t>
+  </si>
+  <si>
+    <t>08/01/2012</t>
+  </si>
+  <si>
+    <t>A nice place to start our honeymoon</t>
+  </si>
+  <si>
+    <t>This hotel is a nice place where you can find a bed to sleep, a coffee-machine and some towels, a mini-fridge and a pretty big shower! If you want you can cook in the room but don't forget your showergel or shampoo because they give you just a face-soap! There isn't an hair -dryer and no brakfast in the morning but there is free wi-fi! It's near the airport so it's really convenient!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Airport - Aurora, responded to this reviewResponded August 13, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2012</t>
+  </si>
+  <si>
+    <t>This hotel is a nice place where you can find a bed to sleep, a coffee-machine and some towels, a mini-fridge and a pretty big shower! If you want you can cook in the room but don't forget your showergel or shampoo because they give you just a face-soap! There isn't an hair -dryer and no brakfast in the morning but there is free wi-fi! It's near the airport so it's really convenient!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r116316145-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>116316145</t>
+  </si>
+  <si>
+    <t>08/05/2011</t>
+  </si>
+  <si>
+    <t>Avoid at all costs</t>
+  </si>
+  <si>
+    <t>So, I booked a hotel on a website that doesn't tell you the hotel until after you pay. I wanted a safe, cheap place close to the Denver Airport. However, I paid for a room at ended up being this place and I didn't even spend the entire night...I'll explain...
+Before you even get to this hotel, you see a sign warning you that a correctional facility is nearby and not to pick up hitchhikers. The hotel has all exterior corridors and very seedy looking people hang out in the parking lot. Whether they are actually staying there, who knows. It appears to be a flop house for people who have been kicked out of their apartments or just released from the jail down the street. In the lobby, the clerk checked me in but then proceeded to tell the entire, packed with creepy people lobby my room number and how to get to my room. First of all, you are never to announce a room number, but the calibre of people in the lobby made me fearful and I have traveled in some sketchy areas...My room was located on the ground floor, in a section of the hotel that faced away from the main area. Also, another unsafe situation as far as I was concerned.
+The room was supposed to be a queen but that bed was at most a full (although it looked like a fat twin). The...So, I booked a hotel on a website that doesn't tell you the hotel until after you pay. I wanted a safe, cheap place close to the Denver Airport. However, I paid for a room at ended up being this place and I didn't even spend the entire night...I'll explain...Before you even get to this hotel, you see a sign warning you that a correctional facility is nearby and not to pick up hitchhikers. The hotel has all exterior corridors and very seedy looking people hang out in the parking lot. Whether they are actually staying there, who knows. It appears to be a flop house for people who have been kicked out of their apartments or just released from the jail down the street. In the lobby, the clerk checked me in but then proceeded to tell the entire, packed with creepy people lobby my room number and how to get to my room. First of all, you are never to announce a room number, but the calibre of people in the lobby made me fearful and I have traveled in some sketchy areas...My room was located on the ground floor, in a section of the hotel that faced away from the main area. Also, another unsafe situation as far as I was concerned.The room was supposed to be a queen but that bed was at most a full (although it looked like a fat twin). The smell in the room was burnt food and an overpowering air freshener stench. There was a very small kitchette along the back wall with a sink, fridge, microwave and a two-burner cooktop. The bath had only a shower. Aside from a small table and a TV stand, there was no other furniture in the room. It was grim and felt very unsafe. I tried to get comfortable but failed miserably. Finally, around 10pm, I left, forfeiting my night's stay and went to stay somewhere else where I felt safe and in a clean room. I would NOT recommend this hotel under any circumstances.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>So, I booked a hotel on a website that doesn't tell you the hotel until after you pay. I wanted a safe, cheap place close to the Denver Airport. However, I paid for a room at ended up being this place and I didn't even spend the entire night...I'll explain...
+Before you even get to this hotel, you see a sign warning you that a correctional facility is nearby and not to pick up hitchhikers. The hotel has all exterior corridors and very seedy looking people hang out in the parking lot. Whether they are actually staying there, who knows. It appears to be a flop house for people who have been kicked out of their apartments or just released from the jail down the street. In the lobby, the clerk checked me in but then proceeded to tell the entire, packed with creepy people lobby my room number and how to get to my room. First of all, you are never to announce a room number, but the calibre of people in the lobby made me fearful and I have traveled in some sketchy areas...My room was located on the ground floor, in a section of the hotel that faced away from the main area. Also, another unsafe situation as far as I was concerned.
+The room was supposed to be a queen but that bed was at most a full (although it looked like a fat twin). The...So, I booked a hotel on a website that doesn't tell you the hotel until after you pay. I wanted a safe, cheap place close to the Denver Airport. However, I paid for a room at ended up being this place and I didn't even spend the entire night...I'll explain...Before you even get to this hotel, you see a sign warning you that a correctional facility is nearby and not to pick up hitchhikers. The hotel has all exterior corridors and very seedy looking people hang out in the parking lot. Whether they are actually staying there, who knows. It appears to be a flop house for people who have been kicked out of their apartments or just released from the jail down the street. In the lobby, the clerk checked me in but then proceeded to tell the entire, packed with creepy people lobby my room number and how to get to my room. First of all, you are never to announce a room number, but the calibre of people in the lobby made me fearful and I have traveled in some sketchy areas...My room was located on the ground floor, in a section of the hotel that faced away from the main area. Also, another unsafe situation as far as I was concerned.The room was supposed to be a queen but that bed was at most a full (although it looked like a fat twin). The smell in the room was burnt food and an overpowering air freshener stench. There was a very small kitchette along the back wall with a sink, fridge, microwave and a two-burner cooktop. The bath had only a shower. Aside from a small table and a TV stand, there was no other furniture in the room. It was grim and felt very unsafe. I tried to get comfortable but failed miserably. Finally, around 10pm, I left, forfeiting my night's stay and went to stay somewhere else where I felt safe and in a clean room. I would NOT recommend this hotel under any circumstances.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r116173015-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>116173015</t>
+  </si>
+  <si>
+    <t>08/02/2011</t>
+  </si>
+  <si>
+    <t>Disgusting!</t>
+  </si>
+  <si>
+    <t>There were a ton of flies in the room, old noodles left in the sick and the place looked like it had not been cleaned in days.  We were put in a smoking room, when we specifically asked for non-smoking (a hotels.com error) and were told there were no more non-smoking rooms available.  If it had not been close to midnight, we would have looked for another place to stay.  The hotel is cheap and very close to the airport, but it would have been worth spending more money and getting more acceptable conditions!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r114687218-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>114687218</t>
+  </si>
+  <si>
+    <t>06/23/2011</t>
+  </si>
+  <si>
+    <t>OK I guess for the money, but basic and could be cleaner</t>
+  </si>
+  <si>
+    <t>This is a basic motel that had a clean room. However the walkways and hallways were dirty and needed to be painted. There is no wake up service so be sure to set the alarm and make sure it works if you have to be up early (there is a clock in the room). Internet is available for $5/day. Access to the stairs and elevator is thru a closed area, that my wife and I thought could be very unsafe, especially at night. Note this motel is about a 15 minute drive to Denver Airport. Kelly in office was very pleasant.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r74914727-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>74914727</t>
+  </si>
+  <si>
+    <t>08/12/2010</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE!!!!!!</t>
+  </si>
+  <si>
+    <t>I booked 6 rooms for family members a month in advance because we had an early flight,we were from out of town.  When I called to make reservations they were going to email me confermation, after a few days I had not recieved confermation so i called them to double check what happend.. They said they had no reservations for us!!! So we re-booked the rooms and they gave me confermation numbers.  So a week later I just wanted to make sure they hadn't lost our reservation.. and guess what they did! So we re-booked AGAIN!!! At that time I offered my credit card they said that they didn't need it! So the day that we were to head to Denver they called me and said that they had over booked and there was no avaliable rooms!! GREAT!! They said that they gave our rooms away because we didn't secure it with a credit card!! So needless to say we had to book another motel at the last minute!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>I booked 6 rooms for family members a month in advance because we had an early flight,we were from out of town.  When I called to make reservations they were going to email me confermation, after a few days I had not recieved confermation so i called them to double check what happend.. They said they had no reservations for us!!! So we re-booked the rooms and they gave me confermation numbers.  So a week later I just wanted to make sure they hadn't lost our reservation.. and guess what they did! So we re-booked AGAIN!!! At that time I offered my credit card they said that they didn't need it! So the day that we were to head to Denver they called me and said that they had over booked and there was no avaliable rooms!! GREAT!! They said that they gave our rooms away because we didn't secure it with a credit card!! So needless to say we had to book another motel at the last minute!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r67558105-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>67558105</t>
+  </si>
+  <si>
+    <t>06/15/2010</t>
+  </si>
+  <si>
+    <t>Arrived at 1am after making reservation...</t>
+  </si>
+  <si>
+    <t>Arrived at 1am after making reservation on line and telling them the time I would arrive, to find the office locked.  Had to call them to come and open.  Was told it was close to airport to find out it was a $30 cab ride away.The bedding was yellow and dirty, 3 lights in the unit were burned out, tried to turn on wall light it fell off the wall, shower dripped all night to keep you awake and on and on.  This place is disgustingly unkept.  don't waste your money or time here.  Also nice and close to train tracks where train comes through about 3:30 am!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r27530066-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>27530066</t>
+  </si>
+  <si>
+    <t>04/06/2009</t>
+  </si>
+  <si>
+    <t>Don't book here ...unless you want to pay and not get a room</t>
+  </si>
+  <si>
+    <t>Here is what happened.
+I booked before flying to denver, co, 2 rooms for me and my wife and a coworker for the 2nd room.
+I had to prepay the hotel before flying, so i did, and in the 1 foto it looked like a normal holiday inn style low budged HOTEL ...not motel..HOTEL!
+it was cheap and near denver airport....yea right!!  its far and a drive in the middle of the night and an adventure just to find it.
+We got there at around 12 am MIDNITE.... 
+there was nobody there to greet, welcome, give a key....or even say who the hell are you?
+NOBODY the door was CLOSED, and thats that...i looked and drove around.... we found no entrance without a lock.  People were sleeping if there were any and there wasnt a thing to do...i called the number and of course there was nobody there as the ligths were off in the office.
+to make this brief, we went for another hotel in the area paid more and were very happy, but this took an extra half hour.  
+Needless to say it was a horrible experience...now here is where it gets bad.
+We called when coming back from Denver after our vacation to get a refund...and i found out that their number is only the HOTEL.COM number not their own.  WTV i told them give me my money back....they said not so fast talk to them directly....Here is what happened.I booked before flying to denver, co, 2 rooms for me and my wife and a coworker for the 2nd room.I had to prepay the hotel before flying, so i did, and in the 1 foto it looked like a normal holiday inn style low budged HOTEL ...not motel..HOTEL!it was cheap and near denver airport....yea right!!  its far and a drive in the middle of the night and an adventure just to find it.We got there at around 12 am MIDNITE.... there was nobody there to greet, welcome, give a key....or even say who the hell are you?NOBODY the door was CLOSED, and thats that...i looked and drove around.... we found no entrance without a lock.  People were sleeping if there were any and there wasnt a thing to do...i called the number and of course there was nobody there as the ligths were off in the office.to make this brief, we went for another hotel in the area paid more and were very happy, but this took an extra half hour.  Needless to say it was a horrible experience...now here is where it gets bad.We called when coming back from Denver after our vacation to get a refund...and i found out that their number is only the HOTEL.COM number not their own.  WTV i told them give me my money back....they said not so fast talk to them directly.  I said i wont give them the satisfaction and callledmy AMEX for a refund.They refused ( crossland Motel) and AMEX said i cant win, well its april and i still am fighting and i ll fight it nonstop till they go out of business so i will eventually win or just give this story to all other travel websites.I didnt stay there not cause of the motel looking dump but cause there was no way to get my key or get in the damn place.  i want my money back but they wont give me any refund.i didnt sleep or put a foot in the room but i have to pay for it!!?? HAHA  i love america! DONT STAY HERE&gt;&gt;&gt;&gt; pay more and stay at a human being run place.  Its a dump and its not like in the foto...its a damn MOTEL!!!Trust me you will be  glad you listened.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2009</t>
+  </si>
+  <si>
+    <t>Here is what happened.
+I booked before flying to denver, co, 2 rooms for me and my wife and a coworker for the 2nd room.
+I had to prepay the hotel before flying, so i did, and in the 1 foto it looked like a normal holiday inn style low budged HOTEL ...not motel..HOTEL!
+it was cheap and near denver airport....yea right!!  its far and a drive in the middle of the night and an adventure just to find it.
+We got there at around 12 am MIDNITE.... 
+there was nobody there to greet, welcome, give a key....or even say who the hell are you?
+NOBODY the door was CLOSED, and thats that...i looked and drove around.... we found no entrance without a lock.  People were sleeping if there were any and there wasnt a thing to do...i called the number and of course there was nobody there as the ligths were off in the office.
+to make this brief, we went for another hotel in the area paid more and were very happy, but this took an extra half hour.  
+Needless to say it was a horrible experience...now here is where it gets bad.
+We called when coming back from Denver after our vacation to get a refund...and i found out that their number is only the HOTEL.COM number not their own.  WTV i told them give me my money back....they said not so fast talk to them directly....Here is what happened.I booked before flying to denver, co, 2 rooms for me and my wife and a coworker for the 2nd room.I had to prepay the hotel before flying, so i did, and in the 1 foto it looked like a normal holiday inn style low budged HOTEL ...not motel..HOTEL!it was cheap and near denver airport....yea right!!  its far and a drive in the middle of the night and an adventure just to find it.We got there at around 12 am MIDNITE.... there was nobody there to greet, welcome, give a key....or even say who the hell are you?NOBODY the door was CLOSED, and thats that...i looked and drove around.... we found no entrance without a lock.  People were sleeping if there were any and there wasnt a thing to do...i called the number and of course there was nobody there as the ligths were off in the office.to make this brief, we went for another hotel in the area paid more and were very happy, but this took an extra half hour.  Needless to say it was a horrible experience...now here is where it gets bad.We called when coming back from Denver after our vacation to get a refund...and i found out that their number is only the HOTEL.COM number not their own.  WTV i told them give me my money back....they said not so fast talk to them directly.  I said i wont give them the satisfaction and callledmy AMEX for a refund.They refused ( crossland Motel) and AMEX said i cant win, well its april and i still am fighting and i ll fight it nonstop till they go out of business so i will eventually win or just give this story to all other travel websites.I didnt stay there not cause of the motel looking dump but cause there was no way to get my key or get in the damn place.  i want my money back but they wont give me any refund.i didnt sleep or put a foot in the room but i have to pay for it!!?? HAHA  i love america! DONT STAY HERE&gt;&gt;&gt;&gt; pay more and stay at a human being run place.  Its a dump and its not like in the foto...its a damn MOTEL!!!Trust me you will be  glad you listened.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r8394512-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>8394512</t>
+  </si>
+  <si>
+    <t>08/10/2007</t>
+  </si>
+  <si>
+    <t>Not At All Recommended</t>
+  </si>
+  <si>
+    <t>You really get what you pay for at $49.99 per night.  The mattress and sheets were old and/or dirty.  The staff was incompetent, one young girl gave me wrong directions instead of saying she couldn't offer assistance.  Half of the staff wasn't friendly.  Overall, NOT RECOMMENDED!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r7428419-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>7428419</t>
+  </si>
+  <si>
+    <t>04/23/2007</t>
+  </si>
+  <si>
+    <t>OK for the price</t>
+  </si>
+  <si>
+    <t>They say you get what you pay for... This is true for this hotel. I found it to be safe, secure and near the airport. the room was clean. No big frills, but if you have an early AM flight at DIA, it fits the bill. I'm not saying I'd stay there for a week, however it did suit my needs. I live in Breckenridge and it was better to come down the night before, rather than risk missing my flight. I've stated at hotels in the area where I'd paid much much more and had a worse experience than this place. I got it thru HOTWIRE for 29.00 + tax...their regular rate is 45.00.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2007</t>
+  </si>
+  <si>
+    <t>They say you get what you pay for... This is true for this hotel. I found it to be safe, secure and near the airport. the room was clean. No big frills, but if you have an early AM flight at DIA, it fits the bill. I'm not saying I'd stay there for a week, however it did suit my needs. I live in Breckenridge and it was better to come down the night before, rather than risk missing my flight. I've stated at hotels in the area where I'd paid much much more and had a worse experience than this place. I got it thru HOTWIRE for 29.00 + tax...their regular rate is 45.00.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r7278578-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>7278578</t>
+  </si>
+  <si>
+    <t>04/02/2007</t>
+  </si>
+  <si>
+    <t>Inexpensive, Clean Lodging with Kitchnette and Utensils</t>
+  </si>
+  <si>
+    <t>If you're looking for room service, jacuzzi, in-room  internet/pay per view, heated indoor pool, and exercise room, look elsewhere. However, if you need inexpensive , clean lodging that has a kitchenette and untensils in the room, this is the place. Property is occupied primarily by out-of town construction workers, truckers, and others who are in the area for an extended period of time.  Previous employer required me to be in Aurora for business trips 3 times/year for 1-2 weeks at a time.  **Warning: Given that this is extended stay lodging, room service only comes once a week, unless you ask and pay for additional cleaning service.  Therefore, don't  be a slob unless you're willing to live in your own mess for a week or willing to pay for maid service out of your own pocket**Having the kitchenette really cut down on food costs, and grocery stores/restauaraunts are nearby.  What this property lacks in amenties, it makes up with price and convience of having a mini-kitchenette and location close  to 1-70, Denver Metro, and Aurora.MoreShow less</t>
+  </si>
+  <si>
+    <t>If you're looking for room service, jacuzzi, in-room  internet/pay per view, heated indoor pool, and exercise room, look elsewhere. However, if you need inexpensive , clean lodging that has a kitchenette and untensils in the room, this is the place. Property is occupied primarily by out-of town construction workers, truckers, and others who are in the area for an extended period of time.  Previous employer required me to be in Aurora for business trips 3 times/year for 1-2 weeks at a time.  **Warning: Given that this is extended stay lodging, room service only comes once a week, unless you ask and pay for additional cleaning service.  Therefore, don't  be a slob unless you're willing to live in your own mess for a week or willing to pay for maid service out of your own pocket**Having the kitchenette really cut down on food costs, and grocery stores/restauaraunts are nearby.  What this property lacks in amenties, it makes up with price and convience of having a mini-kitchenette and location close  to 1-70, Denver Metro, and Aurora.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2040,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2072,4444 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O12" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>109</v>
+      </c>
+      <c r="O13" t="s">
+        <v>122</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>109</v>
+      </c>
+      <c r="O14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>109</v>
+      </c>
+      <c r="O15" t="s">
+        <v>122</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>134</v>
+      </c>
+      <c r="X15" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" t="s">
+        <v>139</v>
+      </c>
+      <c r="K16" t="s">
+        <v>140</v>
+      </c>
+      <c r="L16" t="s">
+        <v>141</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" t="s">
+        <v>144</v>
+      </c>
+      <c r="K17" t="s">
+        <v>145</v>
+      </c>
+      <c r="L17" t="s">
+        <v>146</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>147</v>
+      </c>
+      <c r="O17" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" t="s">
+        <v>144</v>
+      </c>
+      <c r="K18" t="s">
+        <v>150</v>
+      </c>
+      <c r="L18" t="s">
+        <v>151</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>147</v>
+      </c>
+      <c r="O18" t="s">
+        <v>98</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K19" t="s">
+        <v>155</v>
+      </c>
+      <c r="L19" t="s">
+        <v>156</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>157</v>
+      </c>
+      <c r="O19" t="s">
+        <v>98</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>159</v>
+      </c>
+      <c r="J20" t="s">
+        <v>160</v>
+      </c>
+      <c r="K20" t="s">
+        <v>161</v>
+      </c>
+      <c r="L20" t="s">
+        <v>162</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>163</v>
+      </c>
+      <c r="O20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>164</v>
+      </c>
+      <c r="X20" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>168</v>
+      </c>
+      <c r="J21" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" t="s">
+        <v>170</v>
+      </c>
+      <c r="L21" t="s">
+        <v>171</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>172</v>
+      </c>
+      <c r="O21" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>164</v>
+      </c>
+      <c r="X21" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>175</v>
+      </c>
+      <c r="J22" t="s">
+        <v>176</v>
+      </c>
+      <c r="K22" t="s">
+        <v>177</v>
+      </c>
+      <c r="L22" t="s">
+        <v>178</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>179</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J23" t="s">
+        <v>183</v>
+      </c>
+      <c r="K23" t="s">
+        <v>184</v>
+      </c>
+      <c r="L23" t="s">
+        <v>185</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>186</v>
+      </c>
+      <c r="O23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>188</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>189</v>
+      </c>
+      <c r="J24" t="s">
+        <v>190</v>
+      </c>
+      <c r="K24" t="s">
+        <v>191</v>
+      </c>
+      <c r="L24" t="s">
+        <v>192</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>186</v>
+      </c>
+      <c r="O24" t="s">
+        <v>98</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" t="s">
+        <v>195</v>
+      </c>
+      <c r="K25" t="s">
+        <v>196</v>
+      </c>
+      <c r="L25" t="s">
+        <v>197</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>186</v>
+      </c>
+      <c r="O25" t="s">
+        <v>98</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>199</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>200</v>
+      </c>
+      <c r="J26" t="s">
+        <v>201</v>
+      </c>
+      <c r="K26" t="s">
+        <v>202</v>
+      </c>
+      <c r="L26" t="s">
+        <v>203</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>204</v>
+      </c>
+      <c r="X26" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>207</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>208</v>
+      </c>
+      <c r="J27" t="s">
+        <v>209</v>
+      </c>
+      <c r="K27" t="s">
+        <v>210</v>
+      </c>
+      <c r="L27" t="s">
+        <v>211</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>212</v>
+      </c>
+      <c r="O27" t="s">
+        <v>98</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>213</v>
+      </c>
+      <c r="X27" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>216</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>217</v>
+      </c>
+      <c r="J28" t="s">
+        <v>218</v>
+      </c>
+      <c r="K28" t="s">
+        <v>219</v>
+      </c>
+      <c r="L28" t="s">
+        <v>220</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>212</v>
+      </c>
+      <c r="O28" t="s">
+        <v>66</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>221</v>
+      </c>
+      <c r="X28" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>224</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>225</v>
+      </c>
+      <c r="J29" t="s">
+        <v>226</v>
+      </c>
+      <c r="K29" t="s">
+        <v>227</v>
+      </c>
+      <c r="L29" t="s">
+        <v>228</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>212</v>
+      </c>
+      <c r="O29" t="s">
+        <v>98</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>229</v>
+      </c>
+      <c r="X29" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>232</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>233</v>
+      </c>
+      <c r="J30" t="s">
+        <v>234</v>
+      </c>
+      <c r="K30" t="s">
+        <v>235</v>
+      </c>
+      <c r="L30" t="s">
+        <v>236</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>237</v>
+      </c>
+      <c r="O30" t="s">
+        <v>59</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>229</v>
+      </c>
+      <c r="X30" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>239</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>240</v>
+      </c>
+      <c r="J31" t="s">
+        <v>241</v>
+      </c>
+      <c r="K31" t="s">
+        <v>242</v>
+      </c>
+      <c r="L31" t="s">
+        <v>243</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>237</v>
+      </c>
+      <c r="O31" t="s">
+        <v>59</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>229</v>
+      </c>
+      <c r="X31" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>245</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>246</v>
+      </c>
+      <c r="J32" t="s">
+        <v>247</v>
+      </c>
+      <c r="K32" t="s">
+        <v>248</v>
+      </c>
+      <c r="L32" t="s">
+        <v>249</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>250</v>
+      </c>
+      <c r="O32" t="s">
+        <v>98</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>252</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>253</v>
+      </c>
+      <c r="J33" t="s">
+        <v>254</v>
+      </c>
+      <c r="K33" t="s">
+        <v>255</v>
+      </c>
+      <c r="L33" t="s">
+        <v>256</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>257</v>
+      </c>
+      <c r="X33" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>260</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>261</v>
+      </c>
+      <c r="J34" t="s">
+        <v>262</v>
+      </c>
+      <c r="K34" t="s">
+        <v>263</v>
+      </c>
+      <c r="L34" t="s">
+        <v>264</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>265</v>
+      </c>
+      <c r="O34" t="s">
+        <v>98</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>267</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>268</v>
+      </c>
+      <c r="J35" t="s">
+        <v>269</v>
+      </c>
+      <c r="K35" t="s">
+        <v>270</v>
+      </c>
+      <c r="L35" t="s">
+        <v>271</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>272</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>274</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>275</v>
+      </c>
+      <c r="J36" t="s">
+        <v>276</v>
+      </c>
+      <c r="K36" t="s">
+        <v>277</v>
+      </c>
+      <c r="L36" t="s">
+        <v>278</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>279</v>
+      </c>
+      <c r="O36" t="s">
+        <v>66</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>281</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>282</v>
+      </c>
+      <c r="J37" t="s">
+        <v>283</v>
+      </c>
+      <c r="K37" t="s">
+        <v>284</v>
+      </c>
+      <c r="L37" t="s">
+        <v>285</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>272</v>
+      </c>
+      <c r="O37" t="s">
+        <v>122</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>286</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>287</v>
+      </c>
+      <c r="J38" t="s">
+        <v>288</v>
+      </c>
+      <c r="K38" t="s">
+        <v>289</v>
+      </c>
+      <c r="L38" t="s">
+        <v>290</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>291</v>
+      </c>
+      <c r="O38" t="s">
+        <v>122</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>293</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>294</v>
+      </c>
+      <c r="J39" t="s">
+        <v>288</v>
+      </c>
+      <c r="K39" t="s">
+        <v>295</v>
+      </c>
+      <c r="L39" t="s">
+        <v>296</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>298</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>299</v>
+      </c>
+      <c r="J40" t="s">
+        <v>300</v>
+      </c>
+      <c r="K40" t="s">
+        <v>301</v>
+      </c>
+      <c r="L40" t="s">
+        <v>302</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>291</v>
+      </c>
+      <c r="O40" t="s">
+        <v>59</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>304</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>305</v>
+      </c>
+      <c r="J41" t="s">
+        <v>306</v>
+      </c>
+      <c r="K41" t="s">
+        <v>307</v>
+      </c>
+      <c r="L41" t="s">
+        <v>308</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>279</v>
+      </c>
+      <c r="O41" t="s">
+        <v>122</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>310</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>311</v>
+      </c>
+      <c r="J42" t="s">
+        <v>312</v>
+      </c>
+      <c r="K42" t="s">
+        <v>313</v>
+      </c>
+      <c r="L42" t="s">
+        <v>314</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>279</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>315</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>316</v>
+      </c>
+      <c r="J43" t="s">
+        <v>317</v>
+      </c>
+      <c r="K43" t="s">
+        <v>318</v>
+      </c>
+      <c r="L43" t="s">
+        <v>319</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>320</v>
+      </c>
+      <c r="O43" t="s">
+        <v>66</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>321</v>
+      </c>
+      <c r="X43" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>324</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>325</v>
+      </c>
+      <c r="J44" t="s">
+        <v>326</v>
+      </c>
+      <c r="K44" t="s">
+        <v>327</v>
+      </c>
+      <c r="L44" t="s">
+        <v>328</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>329</v>
+      </c>
+      <c r="O44" t="s">
+        <v>122</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>330</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>331</v>
+      </c>
+      <c r="J45" t="s">
+        <v>332</v>
+      </c>
+      <c r="K45" t="s">
+        <v>333</v>
+      </c>
+      <c r="L45" t="s">
+        <v>334</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>320</v>
+      </c>
+      <c r="O45" t="s">
+        <v>98</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>335</v>
+      </c>
+      <c r="X45" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>338</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>339</v>
+      </c>
+      <c r="J46" t="s">
+        <v>340</v>
+      </c>
+      <c r="K46" t="s">
+        <v>341</v>
+      </c>
+      <c r="L46" t="s">
+        <v>342</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>343</v>
+      </c>
+      <c r="X46" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>346</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>347</v>
+      </c>
+      <c r="J47" t="s">
+        <v>348</v>
+      </c>
+      <c r="K47" t="s">
+        <v>349</v>
+      </c>
+      <c r="L47" t="s">
+        <v>350</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>351</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>352</v>
+      </c>
+      <c r="J48" t="s">
+        <v>353</v>
+      </c>
+      <c r="K48" t="s">
+        <v>354</v>
+      </c>
+      <c r="L48" t="s">
+        <v>355</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>356</v>
+      </c>
+      <c r="O48" t="s">
+        <v>59</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>358</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>359</v>
+      </c>
+      <c r="J49" t="s">
+        <v>360</v>
+      </c>
+      <c r="K49" t="s">
+        <v>361</v>
+      </c>
+      <c r="L49" t="s">
+        <v>362</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>363</v>
+      </c>
+      <c r="O49" t="s">
+        <v>98</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>365</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>366</v>
+      </c>
+      <c r="J50" t="s">
+        <v>367</v>
+      </c>
+      <c r="K50" t="s">
+        <v>368</v>
+      </c>
+      <c r="L50" t="s">
+        <v>369</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>370</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>371</v>
+      </c>
+      <c r="J51" t="s">
+        <v>372</v>
+      </c>
+      <c r="K51" t="s">
+        <v>373</v>
+      </c>
+      <c r="L51" t="s">
+        <v>374</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>375</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>376</v>
+      </c>
+      <c r="X51" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>379</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>380</v>
+      </c>
+      <c r="J52" t="s">
+        <v>381</v>
+      </c>
+      <c r="K52" t="s">
+        <v>382</v>
+      </c>
+      <c r="L52" t="s">
+        <v>383</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>375</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>2</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>376</v>
+      </c>
+      <c r="X52" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>385</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>386</v>
+      </c>
+      <c r="J53" t="s">
+        <v>387</v>
+      </c>
+      <c r="K53" t="s">
+        <v>388</v>
+      </c>
+      <c r="L53" t="s">
+        <v>389</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>390</v>
+      </c>
+      <c r="O53" t="s">
+        <v>122</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>391</v>
+      </c>
+      <c r="X53" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>394</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>395</v>
+      </c>
+      <c r="J54" t="s">
+        <v>396</v>
+      </c>
+      <c r="K54" t="s">
+        <v>397</v>
+      </c>
+      <c r="L54" t="s">
+        <v>398</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>390</v>
+      </c>
+      <c r="O54" t="s">
+        <v>122</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>399</v>
+      </c>
+      <c r="X54" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>402</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>403</v>
+      </c>
+      <c r="J55" t="s">
+        <v>404</v>
+      </c>
+      <c r="K55" t="s">
+        <v>405</v>
+      </c>
+      <c r="L55" t="s">
+        <v>406</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>407</v>
+      </c>
+      <c r="O55" t="s">
+        <v>122</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>408</v>
+      </c>
+      <c r="X55" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>411</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>412</v>
+      </c>
+      <c r="J56" t="s">
+        <v>413</v>
+      </c>
+      <c r="K56" t="s">
+        <v>414</v>
+      </c>
+      <c r="L56" t="s">
+        <v>415</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>2</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>416</v>
+      </c>
+      <c r="X56" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>419</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>420</v>
+      </c>
+      <c r="J57" t="s">
+        <v>421</v>
+      </c>
+      <c r="K57" t="s">
+        <v>422</v>
+      </c>
+      <c r="L57" t="s">
+        <v>423</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>424</v>
+      </c>
+      <c r="O57" t="s">
+        <v>98</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>2</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>425</v>
+      </c>
+      <c r="X57" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>428</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>429</v>
+      </c>
+      <c r="J58" t="s">
+        <v>430</v>
+      </c>
+      <c r="K58" t="s">
+        <v>431</v>
+      </c>
+      <c r="L58" t="s">
+        <v>432</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>433</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>434</v>
+      </c>
+      <c r="X58" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>437</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>438</v>
+      </c>
+      <c r="J59" t="s">
+        <v>439</v>
+      </c>
+      <c r="K59" t="s">
+        <v>440</v>
+      </c>
+      <c r="L59" t="s">
+        <v>441</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>442</v>
+      </c>
+      <c r="X59" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>445</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>446</v>
+      </c>
+      <c r="J60" t="s">
+        <v>447</v>
+      </c>
+      <c r="K60" t="s">
+        <v>448</v>
+      </c>
+      <c r="L60" t="s">
+        <v>449</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>450</v>
+      </c>
+      <c r="O60" t="s">
+        <v>98</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>451</v>
+      </c>
+      <c r="X60" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>454</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>455</v>
+      </c>
+      <c r="J61" t="s">
+        <v>456</v>
+      </c>
+      <c r="K61" t="s">
+        <v>457</v>
+      </c>
+      <c r="L61" t="s">
+        <v>458</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>450</v>
+      </c>
+      <c r="O61" t="s">
+        <v>122</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>459</v>
+      </c>
+      <c r="X61" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>462</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>463</v>
+      </c>
+      <c r="J62" t="s">
+        <v>464</v>
+      </c>
+      <c r="K62" t="s">
+        <v>465</v>
+      </c>
+      <c r="L62" t="s">
+        <v>466</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>467</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>469</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>470</v>
+      </c>
+      <c r="J63" t="s">
+        <v>471</v>
+      </c>
+      <c r="K63" t="s">
+        <v>472</v>
+      </c>
+      <c r="L63" t="s">
+        <v>473</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="s">
+        <v>467</v>
+      </c>
+      <c r="O63" t="s">
+        <v>66</v>
+      </c>
+      <c r="P63" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>474</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>475</v>
+      </c>
+      <c r="J64" t="s">
+        <v>476</v>
+      </c>
+      <c r="K64" t="s">
+        <v>477</v>
+      </c>
+      <c r="L64" t="s">
+        <v>478</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>479</v>
+      </c>
+      <c r="O64" t="s">
+        <v>122</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>480</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>481</v>
+      </c>
+      <c r="J65" t="s">
+        <v>482</v>
+      </c>
+      <c r="K65" t="s">
+        <v>483</v>
+      </c>
+      <c r="L65" t="s">
+        <v>484</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>485</v>
+      </c>
+      <c r="O65" t="s">
+        <v>66</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>487</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>488</v>
+      </c>
+      <c r="J66" t="s">
+        <v>489</v>
+      </c>
+      <c r="K66" t="s">
+        <v>490</v>
+      </c>
+      <c r="L66" t="s">
+        <v>491</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>492</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>493</v>
+      </c>
+      <c r="J67" t="s">
+        <v>494</v>
+      </c>
+      <c r="K67" t="s">
+        <v>495</v>
+      </c>
+      <c r="L67" t="s">
+        <v>496</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>497</v>
+      </c>
+      <c r="O67" t="s">
+        <v>98</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="n">
+        <v>1</v>
+      </c>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>499</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>500</v>
+      </c>
+      <c r="J68" t="s">
+        <v>501</v>
+      </c>
+      <c r="K68" t="s">
+        <v>502</v>
+      </c>
+      <c r="L68" t="s">
+        <v>503</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>504</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>505</v>
+      </c>
+      <c r="J69" t="s">
+        <v>506</v>
+      </c>
+      <c r="K69" t="s">
+        <v>507</v>
+      </c>
+      <c r="L69" t="s">
+        <v>508</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>509</v>
+      </c>
+      <c r="O69" t="s">
+        <v>98</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>511</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>512</v>
+      </c>
+      <c r="J70" t="s">
+        <v>513</v>
+      </c>
+      <c r="K70" t="s">
+        <v>514</v>
+      </c>
+      <c r="L70" t="s">
+        <v>515</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>509</v>
+      </c>
+      <c r="O70" t="s">
+        <v>98</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>516</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_45.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_45.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="849">
   <si>
     <t>STR#</t>
   </si>
@@ -150,18 +150,159 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/01/2018</t>
+    <t>08/30/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r608931262-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>29144</t>
+  </si>
+  <si>
+    <t>85371</t>
+  </si>
+  <si>
+    <t>608931262</t>
+  </si>
+  <si>
+    <t>08/21/2018</t>
+  </si>
+  <si>
+    <t>LOVED IT!</t>
+  </si>
+  <si>
+    <t>You can't have high expectations when you are on a budget in denver, but this was a really nice place. Easy access / fire escapes. Near airport and stores. 1 mile away from walmart. Friendly staff and guest makes the stay worth it! Well worth the expectations compared to some places you pay 2 times as much! Thanks crosslands!!</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r520944558-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>520944558</t>
+  </si>
+  <si>
+    <t>09/03/2017</t>
+  </si>
+  <si>
+    <t>Know What You're Getting Into ...VERY BASIC! NO FRILLS!</t>
+  </si>
+  <si>
+    <t>To save a lot of readers some time this hotel is 100% non-smoking.
+They will let you stand outside your door on the balcony but no smoking inside.
+I had never stayed with this brand before.
+I stayed on 8/25/17.
+I found out they are part of the Extended Stay America chain so that kind of explains a lot of things.
+Check-in was easy and the property was pretty secure.
+Since I had never been here before I found out this is a very basic room and totally no frills at all.
+I had one towel, one hand towel and one wash cloth and 2 bars of soap.
+The towels they had were very thin and flimsy.
+By the time you dried off your top half the towel was soaked.
+That's all for amenities!!?? No shampoo? No hairdryer?
+I was impressed by... 
+Having an elevator!!!!
+The full size fridge/freezer unit and the kitchen sink with 2 burner stovetop and microwave. 
+Were there supposed to be dishes and utensils as I've read in other reviews on here?
+Because there weren't any.
+Good wifi
+32" flat screen
+Not impress with...
+Toilet kept running after each flush. I had to remove the lid and fix it each time I went.
+No hangers. Hanger rack, but no hangers,
+LOUD train horns at all hours of the night. I don't know if it's the crossing near by or a yard near by but it's loud....To save a lot of readers some time this hotel is 100% non-smoking.They will let you stand outside your door on the balcony but no smoking inside.I had never stayed with this brand before.I stayed on 8/25/17.I found out they are part of the Extended Stay America chain so that kind of explains a lot of things.Check-in was easy and the property was pretty secure.Since I had never been here before I found out this is a very basic room and totally no frills at all.I had one towel, one hand towel and one wash cloth and 2 bars of soap.The towels they had were very thin and flimsy.By the time you dried off your top half the towel was soaked.That's all for amenities!!?? No shampoo? No hairdryer?I was impressed by... Having an elevator!!!!The full size fridge/freezer unit and the kitchen sink with 2 burner stovetop and microwave. Were there supposed to be dishes and utensils as I've read in other reviews on here?Because there weren't any.Good wifi32" flat screenNot impress with...Toilet kept running after each flush. I had to remove the lid and fix it each time I went.No hangers. Hanger rack, but no hangers,LOUD train horns at all hours of the night. I don't know if it's the crossing near by or a yard near by but it's loud. Especially on the back side of the hotel.Stand up shower only?Oh and when I first turned on the TV, skinaMax was showing soft porn.Glad it wasn't someone with a kid or a family who turned it on.This is just not my kind of hotel.I won't be back.It has nothing to do with the Management or Housekeeping or really any one thing.It's just not my thing.Economy is one thing but this is even below that.It may be for some, it's just not for me.I like a little quaint-ness not just 4 walls and a bed.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>To save a lot of readers some time this hotel is 100% non-smoking.
+They will let you stand outside your door on the balcony but no smoking inside.
+I had never stayed with this brand before.
+I stayed on 8/25/17.
+I found out they are part of the Extended Stay America chain so that kind of explains a lot of things.
+Check-in was easy and the property was pretty secure.
+Since I had never been here before I found out this is a very basic room and totally no frills at all.
+I had one towel, one hand towel and one wash cloth and 2 bars of soap.
+The towels they had were very thin and flimsy.
+By the time you dried off your top half the towel was soaked.
+That's all for amenities!!?? No shampoo? No hairdryer?
+I was impressed by... 
+Having an elevator!!!!
+The full size fridge/freezer unit and the kitchen sink with 2 burner stovetop and microwave. 
+Were there supposed to be dishes and utensils as I've read in other reviews on here?
+Because there weren't any.
+Good wifi
+32" flat screen
+Not impress with...
+Toilet kept running after each flush. I had to remove the lid and fix it each time I went.
+No hangers. Hanger rack, but no hangers,
+LOUD train horns at all hours of the night. I don't know if it's the crossing near by or a yard near by but it's loud....To save a lot of readers some time this hotel is 100% non-smoking.They will let you stand outside your door on the balcony but no smoking inside.I had never stayed with this brand before.I stayed on 8/25/17.I found out they are part of the Extended Stay America chain so that kind of explains a lot of things.Check-in was easy and the property was pretty secure.Since I had never been here before I found out this is a very basic room and totally no frills at all.I had one towel, one hand towel and one wash cloth and 2 bars of soap.The towels they had were very thin and flimsy.By the time you dried off your top half the towel was soaked.That's all for amenities!!?? No shampoo? No hairdryer?I was impressed by... Having an elevator!!!!The full size fridge/freezer unit and the kitchen sink with 2 burner stovetop and microwave. Were there supposed to be dishes and utensils as I've read in other reviews on here?Because there weren't any.Good wifi32" flat screenNot impress with...Toilet kept running after each flush. I had to remove the lid and fix it each time I went.No hangers. Hanger rack, but no hangers,LOUD train horns at all hours of the night. I don't know if it's the crossing near by or a yard near by but it's loud. Especially on the back side of the hotel.Stand up shower only?Oh and when I first turned on the TV, skinaMax was showing soft porn.Glad it wasn't someone with a kid or a family who turned it on.This is just not my kind of hotel.I won't be back.It has nothing to do with the Management or Housekeeping or really any one thing.It's just not my thing.Economy is one thing but this is even below that.It may be for some, it's just not for me.I like a little quaint-ness not just 4 walls and a bed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r607679275-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>607679275</t>
+  </si>
+  <si>
+    <t>08/18/2018</t>
+  </si>
+  <si>
+    <t>Early check in was smooth!</t>
+  </si>
+  <si>
+    <t>Great management service!  I was amazed at the service level.  The room was clean and I had a great night rest after being delayed for almost 24 hours.  I couldn’t have asked for a better hotel.  It was 15 min from the airport and in a great and safe location.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r607080177-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>607080177</t>
+  </si>
+  <si>
+    <t>08/16/2018</t>
+  </si>
+  <si>
+    <t>Great management</t>
+  </si>
+  <si>
+    <t>I would recommend this hotel to anybody who needs a room. We had a issue and the management team worked their hardest to resolve it as soon as possible. Great customer service, excellent communication and the rooms are cleaned all the time. Love love love this hotel and the team.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r597486725-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>597486725</t>
+  </si>
+  <si>
+    <t>07/18/2018</t>
+  </si>
+  <si>
+    <t>DO NOT BOOK THIS PLACE EVEN IF ITS JUST ONE NIGHT</t>
+  </si>
+  <si>
+    <t>I recently had a layover in Denver and was just looking for somewhere in the hotel area that was affordable and close so I could sleep for a few hours and shower. The first disappointment was that even tho it says DEN airport area when searching, its actually 30 min drive away that cost $40USD +tip. The young guy at reception was very kind and nice and informative - that was the only positive thing I have to say about this experience. The room itself was small and basic (to be expected) but what I didn’t expect was a sketchy atmosphere, gross unclean room, hairs that were not mine In the sink, a pillows that were so used and old they had no shape. I honestly slept with my hoodie on and put a shawl on top of the pillow so my face would wouldn’t touch the actual pillowcase. As for a shower, I skipped my shower because I was too grossed out. I ended up taking an Uber to the airport- $28usd so that’s definitely the way to go. But for future reference, I know now that any supposed $ I would save to stay here &amp; get to/ from there, may as well go to the WESTIN that is actually attached to DEN airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I recently had a layover in Denver and was just looking for somewhere in the hotel area that was affordable and close so I could sleep for a few hours and shower. The first disappointment was that even tho it says DEN airport area when searching, its actually 30 min drive away that cost $40USD +tip. The young guy at reception was very kind and nice and informative - that was the only positive thing I have to say about this experience. The room itself was small and basic (to be expected) but what I didn’t expect was a sketchy atmosphere, gross unclean room, hairs that were not mine In the sink, a pillows that were so used and old they had no shape. I honestly slept with my hoodie on and put a shawl on top of the pillow so my face would wouldn’t touch the actual pillowcase. As for a shower, I skipped my shower because I was too grossed out. I ended up taking an Uber to the airport- $28usd so that’s definitely the way to go. But for future reference, I know now that any supposed $ I would save to stay here &amp; get to/ from there, may as well go to the WESTIN that is actually attached to DEN airport.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r591533641-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
-    <t>29144</t>
-  </si>
-  <si>
-    <t>85371</t>
-  </si>
-  <si>
     <t>591533641</t>
   </si>
   <si>
@@ -177,9 +318,6 @@
     <t>June 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r586592435-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -216,7 +354,46 @@
     <t>This place is disgusting and seemed sketchy from the start. The room smelled, the bathroom floors look like they hadn't been cleaned in a long time. The toilet hardly flushed and I had to listen to water running all night. My advice is to take your money elsewhere and find a nicer place to stay than this rat hole.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r560936032-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>560936032</t>
+  </si>
+  <si>
+    <t>02/16/2018</t>
+  </si>
+  <si>
+    <t>This place ought to be shut down!</t>
+  </si>
+  <si>
+    <t>If I knew what I was getting into, I would NEVER in a million years have stayed here. Unfortunately I didn't reserve this hotel and didn't know what kind of hell i was gonna be placed in. This place is a dumb with sorry to say some incompetent staff. The front desk lady who checked us in was either having a very bad day or just isn't fit for that job since she was totally confused and was sending guests to occupied rooms. That alone should have been the RED FLAG!!!The room was filthy, the door wasn't closing properly and cleanliness being a huge dealbreaker for me, it was super upsetting. Horrible horrible horrible, I'm sorry but I wouldn't even let my enemy stay here, that's how bad it is.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>If I knew what I was getting into, I would NEVER in a million years have stayed here. Unfortunately I didn't reserve this hotel and didn't know what kind of hell i was gonna be placed in. This place is a dumb with sorry to say some incompetent staff. The front desk lady who checked us in was either having a very bad day or just isn't fit for that job since she was totally confused and was sending guests to occupied rooms. That alone should have been the RED FLAG!!!The room was filthy, the door wasn't closing properly and cleanliness being a huge dealbreaker for me, it was super upsetting. Horrible horrible horrible, I'm sorry but I wouldn't even let my enemy stay here, that's how bad it is.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r513438323-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>513438323</t>
+  </si>
+  <si>
+    <t>08/15/2017</t>
+  </si>
+  <si>
+    <t>Basic and Dirty</t>
+  </si>
+  <si>
+    <t>I booked this room for a quick overnight stay for an early morning flight. Upon check-in, they gave me a room on the back side of the motel, next to some sketchy characters. I immediately went back to the desk, and asked for a room at the front of the building. They were accommodating, and I went to my new room. This room is VERY BASIC. The AC worked, but the vents were filthy. The shower wasn't completely clean, and there was hair by the drain. The worst part was walking from the shower to the bed with bare feet, and by the time I sit down, my feet were black and filthy. After rinsing off my feet, and putting socks on I went to the office to let them know how dirty the floor and shower were. While she did apologize, it didn't change the fact the room had not been cleaned well. It was fairly quiet in the evening, but there are some interesting people who stay at this motel. You can also rent rooms by the week and month, so you will see construction workers and the like coming and going. This motel is old and dirty. I won't stay here again, and will pay a little more to feel safer when traveling alone.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked this room for a quick overnight stay for an early morning flight. Upon check-in, they gave me a room on the back side of the motel, next to some sketchy characters. I immediately went back to the desk, and asked for a room at the front of the building. They were accommodating, and I went to my new room. This room is VERY BASIC. The AC worked, but the vents were filthy. The shower wasn't completely clean, and there was hair by the drain. The worst part was walking from the shower to the bed with bare feet, and by the time I sit down, my feet were black and filthy. After rinsing off my feet, and putting socks on I went to the office to let them know how dirty the floor and shower were. While she did apologize, it didn't change the fact the room had not been cleaned well. It was fairly quiet in the evening, but there are some interesting people who stay at this motel. You can also rent rooms by the week and month, so you will see construction workers and the like coming and going. This motel is old and dirty. I won't stay here again, and will pay a little more to feel safer when traveling alone.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r509766154-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
@@ -234,9 +411,6 @@
     <t>If you are looking for basic accommodations, this place is just fine. The floors are laminate, no carpeting which meant no stains or unseen little items in the carpet. The beds are on legs with maybe 10" floor clearance so you can see under the bed and that it is clean. Bed was clean. Room had kitchenette with large fridge/freezer. Shower was a walk in, worked great. At night the facility was quiet. If you like fluff and being pampered go elsewhere. If you need an inexpensive, clean, functional room this place will fit the bill.TV was not HD. No cups provided in the room.I was in Denver to see three baseball games so I was only looking for a clean bed and a shower in a reasonably safe location. This place was all three.It was also quiet at night. A/C worked GREAT! Internet was fairly good.There you have it. If you are the least bit fussy, don't go here. But if you want an inexpensive room to shower and sleep, no frills, this is it.My friend and I had two rooms we were both satisfied.MoreShow less</t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
     <t>If you are looking for basic accommodations, this place is just fine. The floors are laminate, no carpeting which meant no stains or unseen little items in the carpet. The beds are on legs with maybe 10" floor clearance so you can see under the bed and that it is clean. Bed was clean. Room had kitchenette with large fridge/freezer. Shower was a walk in, worked great. At night the facility was quiet. If you like fluff and being pampered go elsewhere. If you need an inexpensive, clean, functional room this place will fit the bill.TV was not HD. No cups provided in the room.I was in Denver to see three baseball games so I was only looking for a clean bed and a shower in a reasonably safe location. This place was all three.It was also quiet at night. A/C worked GREAT! Internet was fairly good.There you have it. If you are the least bit fussy, don't go here. But if you want an inexpensive room to shower and sleep, no frills, this is it.My friend and I had two rooms we were both satisfied.More</t>
   </si>
   <si>
@@ -276,6 +450,45 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r490105956-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>490105956</t>
+  </si>
+  <si>
+    <t>06/03/2017</t>
+  </si>
+  <si>
+    <t>DO NOT BOOK!</t>
+  </si>
+  <si>
+    <t>I booked this motel, even got a conformation number, put a hold with a credit card, and even told them I would be checking in that evening. When I got there, all rooms were booked and the receptionist told me even though I had a confirmation  number it wouldn't matter cause she had no rooms. So much for booking this place again! Will never book here again! Horrible customer service.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r472984873-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>472984873</t>
+  </si>
+  <si>
+    <t>04/05/2017</t>
+  </si>
+  <si>
+    <t>Right what I wanted</t>
+  </si>
+  <si>
+    <t>I had to stay overnight in Denver and had a connection early in the morning. The hotel at the airport was charging a bit salty price, and I found this offer of Windham´s executive franchise.It is not aimed at being luxous, no luxury at all, but it has everything one needs, the rooms are comfortable, everything was new (or in good condition) and working, Breakfast is honest (pancakes, cereal, milk, fruits, tea, bread, etc.), and the price was fair.There is even a fitness room with threadmills, bikes, and weights (machines).It is located in an area where there are many hotels. There are a couple of restaurants at walking distance (I haven´t used). Parking lot is right on the entrance and there is a fairly big elevator that serves the second and third floor. I was able to take all my luggage to the second floor without much effort.Wifi, hair dryer, and stuff were not a problem, and people at the front desk were very friendly.Besides, airport is 5 miles away and there is a shuttle service.I recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>I had to stay overnight in Denver and had a connection early in the morning. The hotel at the airport was charging a bit salty price, and I found this offer of Windham´s executive franchise.It is not aimed at being luxous, no luxury at all, but it has everything one needs, the rooms are comfortable, everything was new (or in good condition) and working, Breakfast is honest (pancakes, cereal, milk, fruits, tea, bread, etc.), and the price was fair.There is even a fitness room with threadmills, bikes, and weights (machines).It is located in an area where there are many hotels. There are a couple of restaurants at walking distance (I haven´t used). Parking lot is right on the entrance and there is a fairly big elevator that serves the second and third floor. I was able to take all my luggage to the second floor without much effort.Wifi, hair dryer, and stuff were not a problem, and people at the front desk were very friendly.Besides, airport is 5 miles away and there is a shuttle service.I recommend.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r465187978-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -312,9 +525,6 @@
     <t>October 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r424651398-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -328,6 +538,54 @@
   </si>
   <si>
     <t xml:space="preserve">Budget hotel with no shuttle service from Airport. Just Bare minimum facilities. But clean rooms. No cab service just not fit to be called Airport hotel. The Hotel had no coffee or any restaurant so had to walk a good 1000 meters for it. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r417192859-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>417192859</t>
+  </si>
+  <si>
+    <t>09/11/2016</t>
+  </si>
+  <si>
+    <t>Stuck in Denver at airport</t>
+  </si>
+  <si>
+    <t>A friend made reservation - only good thing was friendly lady at front desk, and price and airport shuttle.  No cups in room, wall taped together, no wake up call, no phone book, keys missing off phone.  blood on the sheetsMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>AngieSalesColorado1, Director of Sales at Crossland Economy Studios - Denver - Airport - Aurora, responded to this reviewResponded September 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2016</t>
+  </si>
+  <si>
+    <t>A friend made reservation - only good thing was friendly lady at front desk, and price and airport shuttle.  No cups in room, wall taped together, no wake up call, no phone book, keys missing off phone.  blood on the sheetsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r409072050-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>409072050</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>was concerned about the place but ok</t>
+  </si>
+  <si>
+    <t>After reading all the bad reports was concerned about staying. The front desk person tell me that 2 or 3 months ago everyone was let go but the manager and district manager also the place was going to go through a full redo.  i had asked for a none smoking room but when i walked in reeked of smoke and there was a cigarette butt in the toilet.  as this is to be part of the extended stay places it does come with a small reg. that needed defrosting. and micro wave and two burner stove.  i have stayed in other extended stay place and this was the first with no dishes, or other cooking items.  when i asked about even a cup she said they had none.  also it does not come with clean and towel replacing if you need that you have to ask.  as to noise and other problems saw and heard nothing.  the elevator needed while it worked looked like some one had removed some buttons.  the doors to the rooms were all card key entry. even getting on the 2 and 3 floors need a card to get to in.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>After reading all the bad reports was concerned about staying. The front desk person tell me that 2 or 3 months ago everyone was let go but the manager and district manager also the place was going to go through a full redo.  i had asked for a none smoking room but when i walked in reeked of smoke and there was a cigarette butt in the toilet.  as this is to be part of the extended stay places it does come with a small reg. that needed defrosting. and micro wave and two burner stove.  i have stayed in other extended stay place and this was the first with no dishes, or other cooking items.  when i asked about even a cup she said they had none.  also it does not come with clean and towel replacing if you need that you have to ask.  as to noise and other problems saw and heard nothing.  the elevator needed while it worked looked like some one had removed some buttons.  the doors to the rooms were all card key entry. even getting on the 2 and 3 floors need a card to get to in.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r407721848-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
@@ -346,9 +604,6 @@
 My daughter and I arrived to Crossland Denver at 9pm after a long trip to spend the night before our early morning flight. I booked our stay through Hotels.com. The manager Kevin Ripley, who was working the front desk that night, took down my name and said that he does not have our reservation on the books. I also showed him the confirmation email from Hotles.com. Mr. Ripley told us that we are not his customers because we made the reservation through Hotels.com, and that we should pay for a room if we wanted to stay at Crossland (while the email clearly stated that we already paid in full). I requested that Mr. Ripley calls Hotels.com to resolve the issue. Mr. Ripley declined, saying that we are supposed to call Hotels.com since we paid them, and therefore, it is our problem and not his. My daughter proceeded to call Hotels.com. Their customer service confirmed our reservation and informed us that they will call Crossland Denver to discuss the issue. My daughter informed Mr. Ripley that Hotels.com said they will call, and Mr. Ripley in a very unprofessional manner called her “rude” because he was serving other customers whereas she did exactly what he had ask her to do (i.e. calling...Very bad customer service. I spent 1.5 hour trying to resolve an issue with my reservation, which was not resolved in the end because of a mistake by Crossland Denver.My daughter and I arrived to Crossland Denver at 9pm after a long trip to spend the night before our early morning flight. I booked our stay through Hotels.com. The manager Kevin Ripley, who was working the front desk that night, took down my name and said that he does not have our reservation on the books. I also showed him the confirmation email from Hotles.com. Mr. Ripley told us that we are not his customers because we made the reservation through Hotels.com, and that we should pay for a room if we wanted to stay at Crossland (while the email clearly stated that we already paid in full). I requested that Mr. Ripley calls Hotels.com to resolve the issue. Mr. Ripley declined, saying that we are supposed to call Hotels.com since we paid them, and therefore, it is our problem and not his. My daughter proceeded to call Hotels.com. Their customer service confirmed our reservation and informed us that they will call Crossland Denver to discuss the issue. My daughter informed Mr. Ripley that Hotels.com said they will call, and Mr. Ripley in a very unprofessional manner called her “rude” because he was serving other customers whereas she did exactly what he had ask her to do (i.e. calling Hotels.com) and simply informed him that the phone call was coming. He said other unpleasant things to us and implied that our printed reservation confirmation from Hotels.com was fake. We were outraged by how Mr. Ripley was treating us as customers and my daughter told him that she will leave a negative review about their customer service. Mr. Ripley answered the call from Hotels.com but put them on hold for so long that they had to call back. He then did not pick up the phone call from them on two more occasions. Another customer in line understandably became upset that it is taking him a long time to get his plastic cups because the issue we were having with the check-in.  When Mr. Ripley finally spoke to Hotels.com he told them that he refuses to serve us because we “threatened” him and were causing a problem in his hotel. In the end it turned out that Crossland Denver in fact had our reservation and received our payment, but Mr. Ripley could not locate it for unknown to us reasons. Mr. Ripley never admitted his mistake or apologized. In sum, the issue largely could have been avoided and the problem could have been resolved much faster if the Mr. Ripley called Hotels.com right away and treated us as his customers. Needless to say, we did not stay at Crossland Denver and requested a full refund. We travel a lot but never before had issues like this or received this poor treatment at any hotel booked through a third party or otherwise.MoreShow less</t>
   </si>
   <si>
-    <t>August 2016</t>
-  </si>
-  <si>
     <t>Very bad customer service. I spent 1.5 hour trying to resolve an issue with my reservation, which was not resolved in the end because of a mistake by Crossland Denver.
 My daughter and I arrived to Crossland Denver at 9pm after a long trip to spend the night before our early morning flight. I booked our stay through Hotels.com. The manager Kevin Ripley, who was working the front desk that night, took down my name and said that he does not have our reservation on the books. I also showed him the confirmation email from Hotles.com. Mr. Ripley told us that we are not his customers because we made the reservation through Hotels.com, and that we should pay for a room if we wanted to stay at Crossland (while the email clearly stated that we already paid in full). I requested that Mr. Ripley calls Hotels.com to resolve the issue. Mr. Ripley declined, saying that we are supposed to call Hotels.com since we paid them, and therefore, it is our problem and not his. My daughter proceeded to call Hotels.com. Their customer service confirmed our reservation and informed us that they will call Crossland Denver to discuss the issue. My daughter informed Mr. Ripley that Hotels.com said they will call, and Mr. Ripley in a very unprofessional manner called her “rude” because he was serving other customers whereas she did exactly what he had ask her to do (i.e. calling...Very bad customer service. I spent 1.5 hour trying to resolve an issue with my reservation, which was not resolved in the end because of a mistake by Crossland Denver.My daughter and I arrived to Crossland Denver at 9pm after a long trip to spend the night before our early morning flight. I booked our stay through Hotels.com. The manager Kevin Ripley, who was working the front desk that night, took down my name and said that he does not have our reservation on the books. I also showed him the confirmation email from Hotles.com. Mr. Ripley told us that we are not his customers because we made the reservation through Hotels.com, and that we should pay for a room if we wanted to stay at Crossland (while the email clearly stated that we already paid in full). I requested that Mr. Ripley calls Hotels.com to resolve the issue. Mr. Ripley declined, saying that we are supposed to call Hotels.com since we paid them, and therefore, it is our problem and not his. My daughter proceeded to call Hotels.com. Their customer service confirmed our reservation and informed us that they will call Crossland Denver to discuss the issue. My daughter informed Mr. Ripley that Hotels.com said they will call, and Mr. Ripley in a very unprofessional manner called her “rude” because he was serving other customers whereas she did exactly what he had ask her to do (i.e. calling Hotels.com) and simply informed him that the phone call was coming. He said other unpleasant things to us and implied that our printed reservation confirmation from Hotels.com was fake. We were outraged by how Mr. Ripley was treating us as customers and my daughter told him that she will leave a negative review about their customer service. Mr. Ripley answered the call from Hotels.com but put them on hold for so long that they had to call back. He then did not pick up the phone call from them on two more occasions. Another customer in line understandably became upset that it is taking him a long time to get his plastic cups because the issue we were having with the check-in.  When Mr. Ripley finally spoke to Hotels.com he told them that he refuses to serve us because we “threatened” him and were causing a problem in his hotel. In the end it turned out that Crossland Denver in fact had our reservation and received our payment, but Mr. Ripley could not locate it for unknown to us reasons. Mr. Ripley never admitted his mistake or apologized. In sum, the issue largely could have been avoided and the problem could have been resolved much faster if the Mr. Ripley called Hotels.com right away and treated us as his customers. Needless to say, we did not stay at Crossland Denver and requested a full refund. We travel a lot but never before had issues like this or received this poor treatment at any hotel booked through a third party or otherwise.More</t>
   </si>
@@ -386,7 +641,40 @@
     <t xml:space="preserve">We stayed here for 1 night before needing to catch a flight. We'd driven a long way and should have checked the reviews first. The double room ($102 with tax) was barely clean and we could see a pen lid and a syringe down the drain hole in the bathroom sink. The stairwells smelled like urine, were full of trash and there were shady characters hanging around. We definitely did not feel safe staying there at all. </t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r403883832-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>403883832</t>
+  </si>
+  <si>
+    <t>08/10/2016</t>
+  </si>
+  <si>
+    <t>The Worst Hotel in Denver -  absolutely the worst</t>
+  </si>
+  <si>
+    <t>This hotel is the all time worst. Don't even think about booking this hotel. Specifics: Hotel provides no drinking cups of any kind; provides no waste baskets; provides no luggage carts; provides no wake up calls.  Advertising says they provide cooking utensils. That is false.  Not one pot or pan, and not one knife, fork, or spoon.  Persons at the front desk are very rude. Clientele are a lot of scuddy, low life persons who are there because the price is cheap.  The only thing I enjoyed at this hotel was leaving.  Remember "My Cousin Vinny" where the very loud train horn sounded at 4:30 A.M.? Same thing happens at this hotel (at 4:55 A. M, and several times during the night).MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>This hotel is the all time worst. Don't even think about booking this hotel. Specifics: Hotel provides no drinking cups of any kind; provides no waste baskets; provides no luggage carts; provides no wake up calls.  Advertising says they provide cooking utensils. That is false.  Not one pot or pan, and not one knife, fork, or spoon.  Persons at the front desk are very rude. Clientele are a lot of scuddy, low life persons who are there because the price is cheap.  The only thing I enjoyed at this hotel was leaving.  Remember "My Cousin Vinny" where the very loud train horn sounded at 4:30 A.M.? Same thing happens at this hotel (at 4:55 A. M, and several times during the night).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r403677859-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>403677859</t>
+  </si>
+  <si>
+    <t>Avoid!  Reservations Don't Work.</t>
+  </si>
+  <si>
+    <t>Beware! Online guaranteed reservation doesn’t work. On July 10 we booked and paid for a handicap accessible queen for July 13 as my wife was recovering from tendon surgery. At arrival, the desk clerk said there wasn’t a handicap or queen bed available. I said I have a confirmed reservation. He said it made no difference; that I should have called their office and the only room they had was two doubles. I said “But I have a reservation.” He said no matter, I should have called the office. It was late, my wife was exhausted, we took the room, managed, and it was a second floor room, one double bed and basic at best. In the morning, I raised the question with the manager and was told it was my fault since I didn’t call the office.  I was told “You got a room!”  A waste of time, money, an insult to people with limited mobility and illegal under the 1990 Americans With Disabilities Act.  Plus the place itself was scary- give it a miss.MoreShow less</t>
+  </si>
+  <si>
+    <t>Beware! Online guaranteed reservation doesn’t work. On July 10 we booked and paid for a handicap accessible queen for July 13 as my wife was recovering from tendon surgery. At arrival, the desk clerk said there wasn’t a handicap or queen bed available. I said I have a confirmed reservation. He said it made no difference; that I should have called their office and the only room they had was two doubles. I said “But I have a reservation.” He said no matter, I should have called the office. It was late, my wife was exhausted, we took the room, managed, and it was a second floor room, one double bed and basic at best. In the morning, I raised the question with the manager and was told it was my fault since I didn’t call the office.  I was told “You got a room!”  A waste of time, money, an insult to people with limited mobility and illegal under the 1990 Americans With Disabilities Act.  Plus the place itself was scary- give it a miss.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r402859093-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
@@ -446,6 +734,48 @@
     <t xml:space="preserve">This is a dive stay away everything you can think of is wrong with this place when an employee tells you this is a party hotel and sometimes illegal things go on you just leave and we did . When we pulled up there were all kinds of people blaring music dancing hanging out in the parking lot when we pulled up  several  people  came out of the  2nd floor rooms balcony staring at us . </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r387963915-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>387963915</t>
+  </si>
+  <si>
+    <t>06/30/2016</t>
+  </si>
+  <si>
+    <t>Horrific! A once in a lifetime dump.</t>
+  </si>
+  <si>
+    <t>Hairs in the bed, sinks splattered with something, carpet absolutely filthy, no wake-up calls (perhaps because the phone had been gutted- nothing but a plastic shell), broken fixtures, surly staff, just the worst damn room I've ever seen.  The office had a sign: "We cooperate with law enforcement."MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Alyssa B, Public Relations Manager at Crossland Economy Studios - Denver - Airport - Aurora, responded to this reviewResponded July 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2016</t>
+  </si>
+  <si>
+    <t>Hairs in the bed, sinks splattered with something, carpet absolutely filthy, no wake-up calls (perhaps because the phone had been gutted- nothing but a plastic shell), broken fixtures, surly staff, just the worst damn room I've ever seen.  The office had a sign: "We cooperate with law enforcement."More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r387490138-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>387490138</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place.....to commit suicide. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If this is the last place to stay in Denver. Don't come to Denver. Or sleep outside, under a bridge, with used needles and condoms for a mattress. Flies, burnt out bulbs, no soap, irons, hangars or hair dryer provided. If you plan to end your life, do it here. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r385957414-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -461,9 +791,6 @@
     <t>We arrived at the hotel from another state. The hotel is terrible, small rooms, very dirty, the furniture is old, broken microwave, water leaks, cockroaches running around. At the reception you are met by an angry man that I want to leave immediately.The website states that the room has a coffee machine, iron, cooking utensils, crockery - nothing !!! Empty room, where a very stinks !!!!!</t>
   </si>
   <si>
-    <t>June 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r385812544-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -492,6 +819,36 @@
   </si>
   <si>
     <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r382603193-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>382603193</t>
+  </si>
+  <si>
+    <t>06/14/2016</t>
+  </si>
+  <si>
+    <t>Mr Larry Cipriani</t>
+  </si>
+  <si>
+    <t>STOP!! DO NOT STAY AT THIS GARBAGE DUMP OF AN UNPROFESSIONAL HOTEL!!Did not even get to our room before we opted to leave. The counter staff was condescending and rude. They require a $100 cash deposit to then put the room on a debit card. Then their hours of business do not accommodate traveling patrons as they are not open until 7 am to refund your cash deposit. The absolute worst experience ever.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r378607925-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>378607925</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One Step Above A Crack House </t>
+  </si>
+  <si>
+    <t>If money is tight this is the place for you. Rooms smell like urine and mildew. Televisions from the 1990 s with furniture from the Goodwill. Trash all around the property with people smoking weed and crack all night in the parking lot. The front desk is rude, unprofessional, ignorant,inconsistent pricing and slow. The only good point about the hotel is the location. Not to mention someone died while staying there. Avoid this place!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r364571827-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
@@ -565,6 +922,47 @@
 in is by "remote". Be sure to let them know if you need a coffemaker and anything else the little stand up card in the kitchenette the chain advertises. Open the door and prison work release meets homeless shelter. The furniture is composite/plastic with strips all hanging from the dresser, nightstand etc. Large globs of missing paint dot a wall here or there. It started to look like room art and it works. The bathroom was clean and stocked with one bar of soap, a towel that looked like it was cut in half, border sewn on and presto. That's it, nothing else so forget about shampoo, tissue, lotion and don't even think conditioner. It is the most spartan accommodation I experienced ever but what the heck, for $42.00 a night what should I expect? The doors have a built in mechanism that makes it a monumental feat to get it closed from the outside so along with the constant repetition you get to hear a constant slammer vibe. The fire exit doors are heavy and add movement to the rooms adjacent to them. It's hard to believe there can be so many people using them at all hours. The room clerks are friendly and attentive when you call them either on the call box or from your room. They promptly respond to calls...At first when you pull up all seems okay. Just like the other reviews the checkin is by "remote". Be sure to let them know if you need a coffemaker and anything else the little stand up card in the kitchenette the chain advertises. Open the door and prison work release meets homeless shelter. The furniture is composite/plastic with strips all hanging from the dresser, nightstand etc. Large globs of missing paint dot a wall here or there. It started to look like room art and it works. The bathroom was clean and stocked with one bar of soap, a towel that looked like it was cut in half, border sewn on and presto. That's it, nothing else so forget about shampoo, tissue, lotion and don't even think conditioner. It is the most spartan accommodation I experienced ever but what the heck, for $42.00 a night what should I expect? The doors have a built in mechanism that makes it a monumental feat to get it closed from the outside so along with the constant repetition you get to hear a constant slammer vibe. The fire exit doors are heavy and add movement to the rooms adjacent to them. It's hard to believe there can be so many people using them at all hours. The room clerks are friendly and attentive when you call them either on the call box or from your room. They promptly respond to calls for anything you need for your room which would be everything. Any amenities you might need are not there and won't be. The staff is very direct and alert or maybe they're just in evacuation mode. If you don't expect to much the place works. Where else are you going to find a location like this for the price? It's hard to believe there is a Crowne Plaza across the street but here you just have the opportunity to enjoy living the simpler life. I would give them three stars if they only would leave the parking lot lights on.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r314935090-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>314935090</t>
+  </si>
+  <si>
+    <t>09/29/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wish we'd slept in the car. </t>
+  </si>
+  <si>
+    <t>Arrived exhausted at 1am and told we couldn't check in for another half hour due to an audit of the hotel happening? When finally the system was back on line we got talking to the (very confused but nice) check in clerk who told us that in the past two weeks 3 managers had quit, most of the house Maids had quit and he was basically doing everything himself. He himself had only been hired two weeks earlier to do the laundry and was now running the place! He told us he couldn't remember which rooms he'd cleaned that day, so he took us for a walk to find a "clean" one. Finally got into a room an hour after our arrival. Room was grim to say the least. Carpet covered in black non descript stains, cigarette burns in the duvet and pillows. Toilet seat melted?! Flies in the bathroom. Kitchenette... Just no. Could hear  every other rooms conversations. Didn't feel that safe the whole time. Wish we'd slept in the car. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Arrived exhausted at 1am and told we couldn't check in for another half hour due to an audit of the hotel happening? When finally the system was back on line we got talking to the (very confused but nice) check in clerk who told us that in the past two weeks 3 managers had quit, most of the house Maids had quit and he was basically doing everything himself. He himself had only been hired two weeks earlier to do the laundry and was now running the place! He told us he couldn't remember which rooms he'd cleaned that day, so he took us for a walk to find a "clean" one. Finally got into a room an hour after our arrival. Room was grim to say the least. Carpet covered in black non descript stains, cigarette burns in the duvet and pillows. Toilet seat melted?! Flies in the bathroom. Kitchenette... Just no. Could hear  every other rooms conversations. Didn't feel that safe the whole time. Wish we'd slept in the car. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r309679781-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>309679781</t>
+  </si>
+  <si>
+    <t>09/12/2015</t>
+  </si>
+  <si>
+    <t>Horrible. PLEASE DO NOT BOOK THIS HOTEL EVEN IF ITS AVAILABLE FOR FREE</t>
+  </si>
+  <si>
+    <t>The worst accommodation experience I have ever had in my 3 years in the US. We were a group of friends travelling to Colorado on vacation for the labor day long weekend. We had been to Aspen, Rocky Mountain National Park, Royal Gorge for the first three days of the long weekend (Sept 5/Sept 6/Sept 7) and had our flights back on Sept 8th from Denver International Airport. Hence, we had booked this hotel for a night's stay, as we had to get up early in the morning and leave for the airport.
+So we reach this hotel in the night at about 11 pm (super tired after the entire trip) and we are shocked to see that the office is closed. There is a telephone right outside the office via which we do get an after hour assistance and are told that someone will be there within 5 mins to help us out. Yes, someone did arrive in 5 mins and got us all checked in and gave us the keys to our room. So we go to the room and when we enter the room, it literally stinks, the pillows are lying all over on the floor, the bed sheets and comforters are all dirty and aren't arranged properly. So, we decide to call the front desk and request for another room. They did give us another room and so we go to this second room and this...The worst accommodation experience I have ever had in my 3 years in the US. We were a group of friends travelling to Colorado on vacation for the labor day long weekend. We had been to Aspen, Rocky Mountain National Park, Royal Gorge for the first three days of the long weekend (Sept 5/Sept 6/Sept 7) and had our flights back on Sept 8th from Denver International Airport. Hence, we had booked this hotel for a night's stay, as we had to get up early in the morning and leave for the airport.So we reach this hotel in the night at about 11 pm (super tired after the entire trip) and we are shocked to see that the office is closed. There is a telephone right outside the office via which we do get an after hour assistance and are told that someone will be there within 5 mins to help us out. Yes, someone did arrive in 5 mins and got us all checked in and gave us the keys to our room. So we go to the room and when we enter the room, it literally stinks, the pillows are lying all over on the floor, the bed sheets and comforters are all dirty and aren't arranged properly. So, we decide to call the front desk and request for another room. They did give us another room and so we go to this second room and this room turns out to be dirtier than the first one. There is trash everywhere on the floor, the room stinks worse than the first one, and there are no pillows or bedsheets or comforters at all there. We get annoyed by this and we call the front desk again. The guy on the phone just says that he had just gotten in for a night shift and said that he didn't know what was going on. He gives us keys to another room (third room now). We go to this third room, and this one too stinks a bit but the bedsheets and comforters look a lot cleaner than the ones in the previous rooms. We were a little relieved but then we open the washroom to see some flies in there which by now are out of the washroom in the bedroom. We were so tired, we hand no patience and energy to complain again and go to a new room. So we decide to stay in there for whatever few hours we had in Denver.The whole point of all this being, this hotel was the dirtiest, shabbiest hotel I have ever come across in the US. We paid $90 for that room that night. We would have rather paid a few more and stayed at any other hotel around but this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>The worst accommodation experience I have ever had in my 3 years in the US. We were a group of friends travelling to Colorado on vacation for the labor day long weekend. We had been to Aspen, Rocky Mountain National Park, Royal Gorge for the first three days of the long weekend (Sept 5/Sept 6/Sept 7) and had our flights back on Sept 8th from Denver International Airport. Hence, we had booked this hotel for a night's stay, as we had to get up early in the morning and leave for the airport.
+So we reach this hotel in the night at about 11 pm (super tired after the entire trip) and we are shocked to see that the office is closed. There is a telephone right outside the office via which we do get an after hour assistance and are told that someone will be there within 5 mins to help us out. Yes, someone did arrive in 5 mins and got us all checked in and gave us the keys to our room. So we go to the room and when we enter the room, it literally stinks, the pillows are lying all over on the floor, the bed sheets and comforters are all dirty and aren't arranged properly. So, we decide to call the front desk and request for another room. They did give us another room and so we go to this second room and this...The worst accommodation experience I have ever had in my 3 years in the US. We were a group of friends travelling to Colorado on vacation for the labor day long weekend. We had been to Aspen, Rocky Mountain National Park, Royal Gorge for the first three days of the long weekend (Sept 5/Sept 6/Sept 7) and had our flights back on Sept 8th from Denver International Airport. Hence, we had booked this hotel for a night's stay, as we had to get up early in the morning and leave for the airport.So we reach this hotel in the night at about 11 pm (super tired after the entire trip) and we are shocked to see that the office is closed. There is a telephone right outside the office via which we do get an after hour assistance and are told that someone will be there within 5 mins to help us out. Yes, someone did arrive in 5 mins and got us all checked in and gave us the keys to our room. So we go to the room and when we enter the room, it literally stinks, the pillows are lying all over on the floor, the bed sheets and comforters are all dirty and aren't arranged properly. So, we decide to call the front desk and request for another room. They did give us another room and so we go to this second room and this room turns out to be dirtier than the first one. There is trash everywhere on the floor, the room stinks worse than the first one, and there are no pillows or bedsheets or comforters at all there. We get annoyed by this and we call the front desk again. The guy on the phone just says that he had just gotten in for a night shift and said that he didn't know what was going on. He gives us keys to another room (third room now). We go to this third room, and this one too stinks a bit but the bedsheets and comforters look a lot cleaner than the ones in the previous rooms. We were a little relieved but then we open the washroom to see some flies in there which by now are out of the washroom in the bedroom. We were so tired, we hand no patience and energy to complain again and go to a new room. So we decide to stay in there for whatever few hours we had in Denver.The whole point of all this being, this hotel was the dirtiest, shabbiest hotel I have ever come across in the US. We paid $90 for that room that night. We would have rather paid a few more and stayed at any other hotel around but this one.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r308331411-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -578,9 +976,6 @@
   </si>
   <si>
     <t>This place is dirty, unsafe and all the employees seem to have given up on it.My room was dirty, nasty stuff under beds, cabinets fronts not cleaned, full of smudges and grime, bathroom disgusting, we had a dirty bathroom when we check in. We got 2 towels for a 3 day stay and 1 roll of toilet paper. The carpet is dirty and crunchy. The elevator sounds horrible, like it hasn't been serviced since 1910 sometime. I asked clerk when was last time it was inspected and he would not answer me. It sways sideways when in motion and all the fuse panels are pulled out and in-operative. None if the security doors work properly, you can just pull them open with out using a key. My room key wouldn't work after two days and I was told "yeah, that happens...." I replied that it had never happened at any other hotel, why here?There were cobwebs on the curtains, one of the lamps didn't work, the tv was from the 1980's. I didn't even dare get into the bed, I slept on top of it for 3 nights.  This was the worst hotel I have ever stayed in.  do yourself a favor and stay away.  My vehicle was vandalized overnight in the parking lot.  Just grossMoreShow less</t>
-  </si>
-  <si>
-    <t>September 2015</t>
   </si>
   <si>
     <t>This place is dirty, unsafe and all the employees seem to have given up on it.My room was dirty, nasty stuff under beds, cabinets fronts not cleaned, full of smudges and grime, bathroom disgusting, we had a dirty bathroom when we check in. We got 2 towels for a 3 day stay and 1 roll of toilet paper. The carpet is dirty and crunchy. The elevator sounds horrible, like it hasn't been serviced since 1910 sometime. I asked clerk when was last time it was inspected and he would not answer me. It sways sideways when in motion and all the fuse panels are pulled out and in-operative. None if the security doors work properly, you can just pull them open with out using a key. My room key wouldn't work after two days and I was told "yeah, that happens...." I replied that it had never happened at any other hotel, why here?There were cobwebs on the curtains, one of the lamps didn't work, the tv was from the 1980's. I didn't even dare get into the bed, I slept on top of it for 3 nights.  This was the worst hotel I have ever stayed in.  do yourself a favor and stay away.  My vehicle was vandalized overnight in the parking lot.  Just grossMore</t>
@@ -631,6 +1026,63 @@
 Things were not any better inside my room, Even though I had a no-smoking room, there were cigarette burns in the bedspread. And not a good sign that there is plunger standing in the middle of the bathroom next to the toilet. The faucets at the sink were installed backwards (turned wrong direction...... but I couldn't.I booked this dump via the Travelocity "top-secret" deals program. They had it rated as 2 1/2 stars, for a good price,When I received the name of the hotel I checked this trip advisor site and was shocked to sell all the one star reviews. I was hoping that things had improved and that all of these reviewers were off-base. But alas, I was too optimistic. This hotel is as bad if not worse than the other reviews.Here we go: This entire establishment is a complete disaster. It is as dirty and disgusting as any building I have ever set foot it. The entire property needs to be power washed, disinfected, sanitized and repainted. Peeling paint on many of the doors and exterior wall. Stains from who knows what all over all the exterior concrete walkways. There were cigarette butts EVERYWHERE outside. The elevator reeked of smoke. One lady I saw get out of the elevator, I'm not sure who she was or what she was doing there, but she had several dollar bills pinned to her shirt. Use your imagination.Things were not any better inside my room, Even though I had a no-smoking room, there were cigarette burns in the bedspread. And not a good sign that there is plunger standing in the middle of the bathroom next to the toilet. The faucets at the sink were installed backwards (turned wrong direction for on/off.)The kitchen table and chairs were badly worn out, in need of replacement. The refrigerator reeked of some kind of chemical, It appeared to be clean, but I didn't dare put anything in there, not even a can of soda.There was a big stain of some sort on the kitchen wall.The bedding was all messed up. There were two bottom sheets but no top sheet. The bed itself was very uncomfortable.There was a clock-radio next to the bed, but it wasn't plugged in, so it was worthless.There was a small 19" TV, circa 1979, with a very limited selection of channels.At checkout time, there was nobody on duty at the front desk. There was another quest there and she said she had been waiting for about 10 minutes, despite repeatedly yelling "HELLLLL-OOOO, anybody home"? About 5 minutes after I got there, somebody finally showed up to process the checkout.About the only positives I can mention about this hotel are that the air conditioner was super-cold and the wi-fi was fast and free.Travelocity rating this hotel 2 1/2 stars is fraudulent. I am going to file a formal complaint and ask for a refund as soon as I get back home from my trip.If  you use Travelocity's Top Secret no-name hotel program, DO  NOT BOOK A 2 1/2 STAR HOTEL NEAR THE DENVER AIRPORT, or you risk getting stuck at this disgusting establishment.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r300464529-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>300464529</t>
+  </si>
+  <si>
+    <t>08/17/2015</t>
+  </si>
+  <si>
+    <t>No No No - Please read before booking</t>
+  </si>
+  <si>
+    <t>Booked a room here with my girlfriend as we drove cross-country (Chicago - Las Vegas). Worth mentioning the room was booked well in advance of stay. We picked it because it was the cheapest place in the Denver area - probably the same reason you're considering. Well, here's my advice - DO NOT BOOK. DO NOT TRY AND STAY HERE. RUN AWAY. RUN AWAY AS FAST AS YOU CAN.
+After 15 hours on the road, we arrived at Crossland a little before 12 midnight, weary from the road and looking forward to a bed - even a shabby, bug-infested, smoke-smelling bed, as many previous reviewers suggested we would be likely to find. Unfortunately for us, we got there only to learn that Crossland does not have on-hand staff 24 hours a day (something we were never informed of when making our reservation). We arrived to find the office locked and empty with no one there to check us in/get us keys/etc. There was, however, a telephone with a number to call for after hours assistance. The number  directed to an answering service who informed us they would call the "overnight staff-person" to come check us in. A little inconvenient, but we assumed he/she would be there shortly to assist us.
+WRONG
+10 minutes passed. 20 minutes passed. No one showed up. We called back the answering service to ask what was going on. The answerer seemed surprised that no one...Booked a room here with my girlfriend as we drove cross-country (Chicago - Las Vegas). Worth mentioning the room was booked well in advance of stay. We picked it because it was the cheapest place in the Denver area - probably the same reason you're considering. Well, here's my advice - DO NOT BOOK. DO NOT TRY AND STAY HERE. RUN AWAY. RUN AWAY AS FAST AS YOU CAN.After 15 hours on the road, we arrived at Crossland a little before 12 midnight, weary from the road and looking forward to a bed - even a shabby, bug-infested, smoke-smelling bed, as many previous reviewers suggested we would be likely to find. Unfortunately for us, we got there only to learn that Crossland does not have on-hand staff 24 hours a day (something we were never informed of when making our reservation). We arrived to find the office locked and empty with no one there to check us in/get us keys/etc. There was, however, a telephone with a number to call for after hours assistance. The number  directed to an answering service who informed us they would call the "overnight staff-person" to come check us in. A little inconvenient, but we assumed he/she would be there shortly to assist us.WRONG10 minutes passed. 20 minutes passed. No one showed up. We called back the answering service to ask what was going on. The answerer seemed surprised that no one had showed yet and said she would give the overnight staffer another call. At that time, a couple, who was already staying at Crossland (had checked in the previous day) showed up with their own problem - the key cards to their room no longer worked - i.e. they were locked out of their rooms (where all of their belongings were) and needed a staff person to reactivate their cards. Like us, they were horrified to learn that there was no 24-hour desk service for such emergencies, and even worse that we couldn't seem to get a hold of the supposedly "on-call" overnight staff-person. Together we tried the answering service again, only to finally learn that they had only been able to leave messages for the individual who was supposed to be on-call and had no idea where he/she was or how long they would be.In the ensuing half hour, ANOTHER GENTLEMAN, who had been staying at the Crossland for weeks, showed up. His key cards had also stopped working, and he found himself unable to get into his room. By now it was nearly 1 AM. Our group consisted of my girlfriend and I, who could not check into our room, and three guests who were locked out of theirs (with their belongings inside). No staff-person/manager/magical motel fairy had shown up to help us despite half a dozen increasingly desperate calls to the answering service and main Crossland number. Counting our losses and in desperate need of sleep for another long day of driving ahead, my girlfriend and I decided to pay the extra few bucks for a room at the Economy Suites around the block and will be contesting any credit card charges from Crossland for the room we booked but were never able to access. We were lucky. When we finally left after 1 AM, the other three were still waiting for a staffer to come so that they could get into their rooms. Heaven knows if anyone ever showed.Again, to recap - 3 customers locked out of their rooms and 2 unable to check in in the middle of the night because Crossland does not have an overnight staff-person and the "on-call" staff-person neglected to answer his/her phone. Thank God there wasn't any sort of real emergency (or that the folks locked out of their rooms didn't have a flight to catch). Just know that getting the cheapest deal on a Denver area room is worth nothing if you can't get into that room in the first place. Seriously, spend the extra 15 bucks to stay at literally any of the motels/hotels within a thirty second radius of this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Airport - Aurora, responded to this reviewResponded September 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2015</t>
+  </si>
+  <si>
+    <t>Booked a room here with my girlfriend as we drove cross-country (Chicago - Las Vegas). Worth mentioning the room was booked well in advance of stay. We picked it because it was the cheapest place in the Denver area - probably the same reason you're considering. Well, here's my advice - DO NOT BOOK. DO NOT TRY AND STAY HERE. RUN AWAY. RUN AWAY AS FAST AS YOU CAN.
+After 15 hours on the road, we arrived at Crossland a little before 12 midnight, weary from the road and looking forward to a bed - even a shabby, bug-infested, smoke-smelling bed, as many previous reviewers suggested we would be likely to find. Unfortunately for us, we got there only to learn that Crossland does not have on-hand staff 24 hours a day (something we were never informed of when making our reservation). We arrived to find the office locked and empty with no one there to check us in/get us keys/etc. There was, however, a telephone with a number to call for after hours assistance. The number  directed to an answering service who informed us they would call the "overnight staff-person" to come check us in. A little inconvenient, but we assumed he/she would be there shortly to assist us.
+WRONG
+10 minutes passed. 20 minutes passed. No one showed up. We called back the answering service to ask what was going on. The answerer seemed surprised that no one...Booked a room here with my girlfriend as we drove cross-country (Chicago - Las Vegas). Worth mentioning the room was booked well in advance of stay. We picked it because it was the cheapest place in the Denver area - probably the same reason you're considering. Well, here's my advice - DO NOT BOOK. DO NOT TRY AND STAY HERE. RUN AWAY. RUN AWAY AS FAST AS YOU CAN.After 15 hours on the road, we arrived at Crossland a little before 12 midnight, weary from the road and looking forward to a bed - even a shabby, bug-infested, smoke-smelling bed, as many previous reviewers suggested we would be likely to find. Unfortunately for us, we got there only to learn that Crossland does not have on-hand staff 24 hours a day (something we were never informed of when making our reservation). We arrived to find the office locked and empty with no one there to check us in/get us keys/etc. There was, however, a telephone with a number to call for after hours assistance. The number  directed to an answering service who informed us they would call the "overnight staff-person" to come check us in. A little inconvenient, but we assumed he/she would be there shortly to assist us.WRONG10 minutes passed. 20 minutes passed. No one showed up. We called back the answering service to ask what was going on. The answerer seemed surprised that no one had showed yet and said she would give the overnight staffer another call. At that time, a couple, who was already staying at Crossland (had checked in the previous day) showed up with their own problem - the key cards to their room no longer worked - i.e. they were locked out of their rooms (where all of their belongings were) and needed a staff person to reactivate their cards. Like us, they were horrified to learn that there was no 24-hour desk service for such emergencies, and even worse that we couldn't seem to get a hold of the supposedly "on-call" overnight staff-person. Together we tried the answering service again, only to finally learn that they had only been able to leave messages for the individual who was supposed to be on-call and had no idea where he/she was or how long they would be.In the ensuing half hour, ANOTHER GENTLEMAN, who had been staying at the Crossland for weeks, showed up. His key cards had also stopped working, and he found himself unable to get into his room. By now it was nearly 1 AM. Our group consisted of my girlfriend and I, who could not check into our room, and three guests who were locked out of theirs (with their belongings inside). No staff-person/manager/magical motel fairy had shown up to help us despite half a dozen increasingly desperate calls to the answering service and main Crossland number. Counting our losses and in desperate need of sleep for another long day of driving ahead, my girlfriend and I decided to pay the extra few bucks for a room at the Economy Suites around the block and will be contesting any credit card charges from Crossland for the room we booked but were never able to access. We were lucky. When we finally left after 1 AM, the other three were still waiting for a staffer to come so that they could get into their rooms. Heaven knows if anyone ever showed.Again, to recap - 3 customers locked out of their rooms and 2 unable to check in in the middle of the night because Crossland does not have an overnight staff-person and the "on-call" staff-person neglected to answer his/her phone. Thank God there wasn't any sort of real emergency (or that the folks locked out of their rooms didn't have a flight to catch). Just know that getting the cheapest deal on a Denver area room is worth nothing if you can't get into that room in the first place. Seriously, spend the extra 15 bucks to stay at literally any of the motels/hotels within a thirty second radius of this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r296970482-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>296970482</t>
+  </si>
+  <si>
+    <t>08/08/2015</t>
+  </si>
+  <si>
+    <t>Handy for the airport, but nothing else</t>
+  </si>
+  <si>
+    <t>The kind of place you end up in the night before a flight. As some, maybe all the rooms, are 'studios' with basic cooking facilities I get the feeling, from being in reception as a woman asked for her post &amp; the 'special' bedding she has some weeks that fits the bed better, some people actually live here.All stairwells/lift stank of urine, litter, bottles, cans piled outside rooms in walkways. Grubby room, ripped carpet, cold taps (bathroom &amp; 'kitchen') didn't work, generally shabby.On the plus side staff helpfully sorted taxi for my early morning escape, aircon excellent, shower hot !!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Airport - Aurora, responded to this reviewResponded August 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2015</t>
+  </si>
+  <si>
+    <t>The kind of place you end up in the night before a flight. As some, maybe all the rooms, are 'studios' with basic cooking facilities I get the feeling, from being in reception as a woman asked for her post &amp; the 'special' bedding she has some weeks that fits the bed better, some people actually live here.All stairwells/lift stank of urine, litter, bottles, cans piled outside rooms in walkways. Grubby room, ripped carpet, cold taps (bathroom &amp; 'kitchen') didn't work, generally shabby.On the plus side staff helpfully sorted taxi for my early morning escape, aircon excellent, shower hot !!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r295875832-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -706,6 +1158,48 @@
     <t>I have no words a nightmare, and the manager just ignore everyone's complaints cause reading comments it was everything I went through and nothing has changed. To travels this is a cheap discussing motelMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r287472423-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>287472423</t>
+  </si>
+  <si>
+    <t>07/09/2015</t>
+  </si>
+  <si>
+    <t>Disgusting...</t>
+  </si>
+  <si>
+    <t>Upon my arrival, I walked up the interior stairwell to my third floor room and discovered that the entire stairwell was littered with empty beer cans, socks, trash and even a used condom. The first thing I discovered in my room was that the lights over the bed were broken, there was no soap or towels in the room and the chair I sat on broke and sent me tumbling to the floor. I was in this toilet for 3 nights and at no time did "housekeeping" come to change my sheets or resupply anything in the room. I set my trash outside of the door and was told by an employee that it was MY responsibility to carry my own trash to the dumpster outside. I think I would have been better off to sleep in the dumpster. The absolute worst motel I have ever stayed in...if you're visiting Denver, you would be better off sleeping in an alley with the homeless people. This place should be condemned by the health department.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Airport - Aurora, responded to this reviewResponded July 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2015</t>
+  </si>
+  <si>
+    <t>Upon my arrival, I walked up the interior stairwell to my third floor room and discovered that the entire stairwell was littered with empty beer cans, socks, trash and even a used condom. The first thing I discovered in my room was that the lights over the bed were broken, there was no soap or towels in the room and the chair I sat on broke and sent me tumbling to the floor. I was in this toilet for 3 nights and at no time did "housekeeping" come to change my sheets or resupply anything in the room. I set my trash outside of the door and was told by an employee that it was MY responsibility to carry my own trash to the dumpster outside. I think I would have been better off to sleep in the dumpster. The absolute worst motel I have ever stayed in...if you're visiting Denver, you would be better off sleeping in an alley with the homeless people. This place should be condemned by the health department.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r287368334-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>287368334</t>
+  </si>
+  <si>
+    <t>Just awful</t>
+  </si>
+  <si>
+    <t>Booked this hotel for family July 6, 2015 to be near airport before early flight. On website we asked non-smoking room. What we saw, was just terrible. First room was unprepared, and looked like somebody still lived there (bottles, beds in mess, trash). We changed room, second one was cleaned (it means that beds were not in mess), but still smell of smoking, dirty floor, curtains, bedclothes, and everything was dirty and smell. We changed room third time and now it was the same condition and only one bed instead of two what we reserved! For a 5 minutes inside the room we had a headache and feelings of despair. We canceled our booking and gone. Better loose your money than stay there.MoreShow less</t>
+  </si>
+  <si>
+    <t>Booked this hotel for family July 6, 2015 to be near airport before early flight. On website we asked non-smoking room. What we saw, was just terrible. First room was unprepared, and looked like somebody still lived there (bottles, beds in mess, trash). We changed room, second one was cleaned (it means that beds were not in mess), but still smell of smoking, dirty floor, curtains, bedclothes, and everything was dirty and smell. We changed room third time and now it was the same condition and only one bed instead of two what we reserved! For a 5 minutes inside the room we had a headache and feelings of despair. We canceled our booking and gone. Better loose your money than stay there.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r286978934-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -721,12 +1215,6 @@
     <t>The room has stains on wall, cigarette burns and stains in sheets, floor is dirty as hell, kitchen has roach catchers in cabinets, shower is dirty... Just an overall nasty place. I am on tripadvisor now to find a new place. I don't recommend anyone stay here. MoreShow less</t>
   </si>
   <si>
-    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Airport - Aurora, responded to this reviewResponded July 15, 2015</t>
-  </si>
-  <si>
-    <t>Responded July 15, 2015</t>
-  </si>
-  <si>
     <t>The room has stains on wall, cigarette burns and stains in sheets, floor is dirty as hell, kitchen has roach catchers in cabinets, shower is dirty... Just an overall nasty place. I am on tripadvisor now to find a new place. I don't recommend anyone stay here. More</t>
   </si>
   <si>
@@ -745,9 +1233,6 @@
     <t>My reservation was for a non-smoking room. There were burn marks on the sheets, burn marks on the bathroom floor.  There was evidence of a drink being spilled on the wall that had never been wiped clean.  The shower floor was pretty disgusting.  I fortunately only needed a place to sleep jet lag off for a few hours!  I can't imagine anyone staying in this place longer than a few hours!  Elevator was gross and they used a lot of air fresheners to ward off the evident stench.  Trash in the corridors and it was overall just icky!MoreShow less</t>
   </si>
   <si>
-    <t>June 2015</t>
-  </si>
-  <si>
     <t>My reservation was for a non-smoking room. There were burn marks on the sheets, burn marks on the bathroom floor.  There was evidence of a drink being spilled on the wall that had never been wiped clean.  The shower floor was pretty disgusting.  I fortunately only needed a place to sleep jet lag off for a few hours!  I can't imagine anyone staying in this place longer than a few hours!  Elevator was gross and they used a lot of air fresheners to ward off the evident stench.  Trash in the corridors and it was overall just icky!More</t>
   </si>
   <si>
@@ -767,6 +1252,54 @@
   </si>
   <si>
     <t>Words cannot accurately describe this complete dump of a hotel. Hotel isn't even a proper word for this place. I booked on Hotwire for my husband who just needed a room for 1 night before catching his flight out. He spent more time checking in then he did in his room. Over 30 minutes to check in and when he finally got his room the windows were boarded up, the facilities filthy and the room was full of flies and stunk something awful. Needless to say he checked out and found more suitable accommodations. I recommend this hotel be shut down until it can figure out how to provide for its guests and run a safe establishment. The homeless folks asking for money out front certainly didn't help.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r272156293-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>272156293</t>
+  </si>
+  <si>
+    <t>05/15/2015</t>
+  </si>
+  <si>
+    <t>I came home with BED BUGS, need I say more. . . .</t>
+  </si>
+  <si>
+    <t>I stayed at the Crossland Economy Suites in Aurora, CO on Chambers Blvd. over the Thanksgiving/Black Friday weekend in 2014. I came home with BED BUGS. I am now writing this review in May of 2015 as we were not quite sure we had bed bugs until very recently. I would strongly suggest you find another place to stay! This is a costly problem and the hotel isn't worth what you will pay for your stay. This seems like a place that people LIVE.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Airport - Aurora, responded to this reviewResponded May 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2015</t>
+  </si>
+  <si>
+    <t>I stayed at the Crossland Economy Suites in Aurora, CO on Chambers Blvd. over the Thanksgiving/Black Friday weekend in 2014. I came home with BED BUGS. I am now writing this review in May of 2015 as we were not quite sure we had bed bugs until very recently. I would strongly suggest you find another place to stay! This is a costly problem and the hotel isn't worth what you will pay for your stay. This seems like a place that people LIVE.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r257434525-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>257434525</t>
+  </si>
+  <si>
+    <t>03/03/2015</t>
+  </si>
+  <si>
+    <t>Absolutely terrible</t>
+  </si>
+  <si>
+    <t>I can't make this stuff up.  When I was in the lobby trying to get checked in, a woman frantically ran in, screaming, "call the police!  there is a man in my room!"  The staff were trying to reassure her it's just because they have one idiot employee that can't book rooms right and often forgets that someone already stays there, as though that's okay.  Not one apology to her.  I did get a smoking room (because it was cheap and available) and if emphysema had a smell, that's what staying in that room smelled like.  The walls are thin and you hear everything any time someone walks outside or is in the next room.  And finally, and perhaps most terrifying, someone opened my hotel room door while I was in bed!  Fortunately I had the extra bolt on so it didn't open more than an inch, but SOMEBODY WAS ABLE TO OPEN MY HOTEL ROOM DOOR.  Unbelievable.  This place should be shut down.  I can't say enough bad things.  I feel bad for anyone who is stuck at the Denver airport and thinks they can get a bargain at this place.  Not worth it.  Pay more and go ANYWHERE ELSE.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>I can't make this stuff up.  When I was in the lobby trying to get checked in, a woman frantically ran in, screaming, "call the police!  there is a man in my room!"  The staff were trying to reassure her it's just because they have one idiot employee that can't book rooms right and often forgets that someone already stays there, as though that's okay.  Not one apology to her.  I did get a smoking room (because it was cheap and available) and if emphysema had a smell, that's what staying in that room smelled like.  The walls are thin and you hear everything any time someone walks outside or is in the next room.  And finally, and perhaps most terrifying, someone opened my hotel room door while I was in bed!  Fortunately I had the extra bolt on so it didn't open more than an inch, but SOMEBODY WAS ABLE TO OPEN MY HOTEL ROOM DOOR.  Unbelievable.  This place should be shut down.  I can't say enough bad things.  I feel bad for anyone who is stuck at the Denver airport and thinks they can get a bargain at this place.  Not worth it.  Pay more and go ANYWHERE ELSE.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r248620872-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
@@ -843,6 +1376,54 @@
     <t>so i drive 8 hours to denver and go to check in at 230 but check isnt until three which they were very rude about i asked if maybe my room was already done they said didnt matter check in was not until 3 so id have to come back rudely. so i come back and check in the room they gave me was not the one i reserved and was tiny and gross, burns in the comforter, dirty shower, no space, tiny bed, and the staff was very rude, i checked out as soon as i saw the room, which they said they would refund my money but have not done so yet, would not recommend to anyone, the front desk ladies were very rude and  unprofessional.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r240117659-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>240117659</t>
+  </si>
+  <si>
+    <t>11/16/2014</t>
+  </si>
+  <si>
+    <t>Outdated and dirty</t>
+  </si>
+  <si>
+    <t>Outdated and dirty is only the beginning! The sheets were dirty, the shower poured water like a faucet, the kitchen microwave was dirty and enough to make me not want to open anything else.  Don't believe the pictures of the rooms, they are highly deceptive! The tv is from the 80s with cigarette burns all over the top.  This place stands in desperate need of a renovation!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Airport - Aurora, responded to this reviewResponded November 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 24, 2014</t>
+  </si>
+  <si>
+    <t>Outdated and dirty is only the beginning! The sheets were dirty, the shower poured water like a faucet, the kitchen microwave was dirty and enough to make me not want to open anything else.  Don't believe the pictures of the rooms, they are highly deceptive! The tv is from the 80s with cigarette burns all over the top.  This place stands in desperate need of a renovation!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r239411251-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>239411251</t>
+  </si>
+  <si>
+    <t>11/11/2014</t>
+  </si>
+  <si>
+    <t>Worst craphole I've ever set foot in...</t>
+  </si>
+  <si>
+    <t>Spent 10 minutes in the filthy room. Worst place I've seen. Elevator had a used pair of latex gloves on floor... Wonder what those were used for? Walked down a smelly hallway...and it's open to the outside! How does that smell hang there? Room was a mess...afraid to touch anything let alone sleep there! Sketchy people everywhere. Desk clerk was very nice. Recommend you sleep in your car at the airport instead of staying here. The fact that Travelocity allows this type of place to be listed on its site blows my mind! Wish I could give zero stars!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Airport - Aurora, responded to this reviewResponded November 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 20, 2014</t>
+  </si>
+  <si>
+    <t>Spent 10 minutes in the filthy room. Worst place I've seen. Elevator had a used pair of latex gloves on floor... Wonder what those were used for? Walked down a smelly hallway...and it's open to the outside! How does that smell hang there? Room was a mess...afraid to touch anything let alone sleep there! Sketchy people everywhere. Desk clerk was very nice. Recommend you sleep in your car at the airport instead of staying here. The fact that Travelocity allows this type of place to be listed on its site blows my mind! Wish I could give zero stars!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r233558236-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -906,6 +1487,36 @@
     <t>This hotel was awful. The room had a really bad smell, and a dirty feel. Was very dated. A lot of dodgy people hanging around outside, making for an unsafe environment. When we returned to the room after a night out, the door would not open, and felt as though the chain was on from inside the room. This made us feel very unsafe, and it took 4 attempts to get in. Only stayed here as it was cheap, and close to the airport, but Would never stay here again.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r223821041-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>223821041</t>
+  </si>
+  <si>
+    <t>08/23/2014</t>
+  </si>
+  <si>
+    <t>You may want to Research other places! We were there for 30 min. in our room after seeing the condition and immediately</t>
+  </si>
+  <si>
+    <t>People loitering. Poor room condition s. Not clean. Treated  very carelessly by hotel staff... As if" OH well....WHAT KIND I DO"?  Didn't try hard enough to right the wrongs... Other GUEST complaining as we were...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r218946281-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>218946281</t>
+  </si>
+  <si>
+    <t>08/01/2014</t>
+  </si>
+  <si>
+    <t>Stay AWAY from this place!</t>
+  </si>
+  <si>
+    <t>This is a sad excuse for a hotel! Although the front desk lady was nice the rooms were awful. The hallways smelled like booze and smoke. We were supposed to be in a non-smoking room, but our room smelled like a dirty ashtray. (It was so bad that it gave me a headache) There were about 20 flies (I'm NOT exaggerating) in our room and it didn't seem like the room had been cleaned in a while. The sheets and bed smelled like horrible BO and the beds squeaked anytime you moved. It was absolutely horrible. DON'T STAY HERE!!!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r217897351-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -960,6 +1571,48 @@
     <t>I stayed here for 3 days. I booked online, got there and there were no vacancies. Luckily...or unlucky...the office lady gave me a room of someone that hadn't checked in yet. I asked her if the area was safe. She said "I wouldn't stay here". She also said "I'll be here til 11pm so if you need me to call 911 just let me know". Being a single woman that was of no comfort to me! I slept every night with my pistol beside me. By the 3rd night I was a little more comfortable with the place. The room wasn't bad, just very basic....essentials only. It was fairly clean, although I did still cover the toilet with paper whenever I sat on it. To me the main problem was the other people staying there. There were people up 3:30am shouting and laughing and stomping around with no regard to others. This occurred EVERY night that I was there! Honestly I just tried to keep to myself and blend in the woodwork as to not bring attention to myself from the undesirables. Also, on my 2nd night there, I got off work at 11pm went to the hotel and my key card wouldn't work. Mind you the office closes at 11p. If I ever need to stay in a hotel again...It WON'T be this one!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r214283061-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>214283061</t>
+  </si>
+  <si>
+    <t>07/08/2014</t>
+  </si>
+  <si>
+    <t>Dried Blood on towels, bugs worse then a hooker motel</t>
+  </si>
+  <si>
+    <t>I kid you not, I am not a picky person, but this has to be the worst hotel I have stayed at in the last 20 years. First off, 1 of two beds were missing bed spread and blanket. The other only had a bed spread no blanket. on the Spread were Silver Dollar size holes from smokers. No shampoo, no cups. I had to ask for Iron, Mgr says people steal them. Manager also said they RAN out of blankets!!! Seriously, Your a motel! holes and black stains all over carpet, dark black stains in bath like 5 of them. have no idea what they are. Dead bugs on wall. smoke detector missing from ceiling. Here is the worst most disgusting part yet. no wash cloth and the one and only towel had HUGE dried blood stains on one side and black pubic hair embedded on the other along with dark stains of some sort I dunno. Filthy disgusting. Smoke alarm in rooms went off at 6:30 am. Which was good because my 6 am wake up call was never placed!~ I have stayed at hooker hotels that rent by the hour that were cleaner and less discusting then this motel. The health department should be called on this place. Absolutely horrible. I have placed pics just to show how bad this place is.MoreShow less</t>
+  </si>
+  <si>
+    <t>I kid you not, I am not a picky person, but this has to be the worst hotel I have stayed at in the last 20 years. First off, 1 of two beds were missing bed spread and blanket. The other only had a bed spread no blanket. on the Spread were Silver Dollar size holes from smokers. No shampoo, no cups. I had to ask for Iron, Mgr says people steal them. Manager also said they RAN out of blankets!!! Seriously, Your a motel! holes and black stains all over carpet, dark black stains in bath like 5 of them. have no idea what they are. Dead bugs on wall. smoke detector missing from ceiling. Here is the worst most disgusting part yet. no wash cloth and the one and only towel had HUGE dried blood stains on one side and black pubic hair embedded on the other along with dark stains of some sort I dunno. Filthy disgusting. Smoke alarm in rooms went off at 6:30 am. Which was good because my 6 am wake up call was never placed!~ I have stayed at hooker hotels that rent by the hour that were cleaner and less discusting then this motel. The health department should be called on this place. Absolutely horrible. I have placed pics just to show how bad this place is.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r213994706-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>213994706</t>
+  </si>
+  <si>
+    <t>07/06/2014</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t>We booked this hotel from July 2 through July 6.  We stayed one night and found a different hotel.  The carpet in the room was so disgusting we would not even take our shoes off.  The hallways were filthy and I'm not completely sure the sheets were clean.  I would sleep in my car before ever staying at this dump again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Airport - Aurora, responded to this reviewResponded July 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2014</t>
+  </si>
+  <si>
+    <t>We booked this hotel from July 2 through July 6.  We stayed one night and found a different hotel.  The carpet in the room was so disgusting we would not even take our shoes off.  The hallways were filthy and I'm not completely sure the sheets were clean.  I would sleep in my car before ever staying at this dump again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r211435635-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -1020,6 +1673,48 @@
     <t>I was looking for a cheap place to stay just for a few hours before going to the airport, I bought it through Hotel.com for a really good deal. We got there and waiting for 20 minutes for somebody at the Front desk to finally come down, He finally check us in and give us our keys. The way to our room was dark and scary. We open up the room and it smelled terrible! The monoxide alarm was beeping, the lights above the night stand weren't working so the room was really dark, the bathroom was dirty and we didn't have any toilet paper, just the empty roll on the floor. We called the FD and asked him to move us but he said he didn't have any more rooms. The carpet has huge stains to what it seems to be blood, really disgusting!! I didn't even open the sheets because I didn't want to touch anything. We couldn't stay there, and they guy at the FD wouldn't refund the money. I ended up paying a lot more for another room at Quality Inn and Suites, but it was so worth it. I would have contracted some disease if I stayed at this hotel. PLEASE DON'T GO!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r206073386-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>206073386</t>
+  </si>
+  <si>
+    <t>05/18/2014</t>
+  </si>
+  <si>
+    <t>Worst budget hotel I have EVER stayed in.</t>
+  </si>
+  <si>
+    <t>I travel a lot for work, and usually pick the cheapest possible place when I am traveling alone. I am not picky; I just want a clean room with a deadbolt. I was not expecting much when I went here, based on the reviews. However, I was SHOCKED at the level of grunge and disrepair. Because it is an 'extended stay" hotel, they do not offer daily housekeeping unless you pay a fee. I was fine with that- I don't like housecleaning to come into my room anyway. HOWEVER. All the guests had to bring their own trash out, into the cans placed in the stairwells. The trash was not emptied ONCE during my 4 night stay, and the entire stairwell reeked like rotten poopy diapers. I am not exaggerating when I say I was dryheaving and retching every damn time I had to go up and down the stairs. My linens were covered with cigarrette burns. The dishes were greasy and sticky to the touch. There was no silverware in my "fully stocked" kitchen. The "free wifi" was spotty, at best. There was a broken light fixture on the celing that has covered in a plastic bag. In sum, this place was disgusting. I would never ever, stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Airport - Aurora, responded to this reviewResponded May 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2014</t>
+  </si>
+  <si>
+    <t>I travel a lot for work, and usually pick the cheapest possible place when I am traveling alone. I am not picky; I just want a clean room with a deadbolt. I was not expecting much when I went here, based on the reviews. However, I was SHOCKED at the level of grunge and disrepair. Because it is an 'extended stay" hotel, they do not offer daily housekeeping unless you pay a fee. I was fine with that- I don't like housecleaning to come into my room anyway. HOWEVER. All the guests had to bring their own trash out, into the cans placed in the stairwells. The trash was not emptied ONCE during my 4 night stay, and the entire stairwell reeked like rotten poopy diapers. I am not exaggerating when I say I was dryheaving and retching every damn time I had to go up and down the stairs. My linens were covered with cigarrette burns. The dishes were greasy and sticky to the touch. There was no silverware in my "fully stocked" kitchen. The "free wifi" was spotty, at best. There was a broken light fixture on the celing that has covered in a plastic bag. In sum, this place was disgusting. I would never ever, stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r205857522-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>205857522</t>
+  </si>
+  <si>
+    <t>05/16/2014</t>
+  </si>
+  <si>
+    <t>Filthy</t>
+  </si>
+  <si>
+    <t>The website shows nice-clean and affordable. It was nasty from the hallway to the elevator to outside walls of the room. It got worse inside the room. Carpet was filthy- bedspread filthy with cigarette burns. It was disgusting when it could have been a very nice accommodation, it has a nice layout. It needs cleaning inside unit and outside of unit and replacement of damaged and dirty linens.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r205086852-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -1035,9 +1730,6 @@
     <t>This extended stay hotel offers all the right features - clean room with comfy bed and well equipped kitchen plus friendly staff. The location is convenient to Denver International Airport. However, we stayed in a nonsmoking room, surrounded by other nonsmoking rooms but the smell was unpleasant. The ventilation system somehow allowed smoke from other rooms to filter through. Wifi was problematic, as well.</t>
   </si>
   <si>
-    <t>May 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r203290326-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -1084,6 +1776,42 @@
   </si>
   <si>
     <t>Overcharged, double booked, wrong room, dirty facilities,  clogged toilet, cigarette burns on the bed spreads, mold on the shower curtain. This hotel needs to be removed from all Third Party sites. Definitely a waste of my time and money. Do not stay hereMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r201112695-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>201112695</t>
+  </si>
+  <si>
+    <t>04/14/2014</t>
+  </si>
+  <si>
+    <t>Very poor customer service, &amp; unfriendly rude staff!</t>
+  </si>
+  <si>
+    <t>I stayed here for about a month. It is a convenient location but if you are planning on staying a while, well just don't!!!!! After the first week I was no longer receiving my weekly housekeeping. They advertise "a home away from home" we'll it's far from it. Very rude housekeepers that could barley Speak English (its not my fault you don't know what I'm saying) Front desk not much friendlier, advertises they have quarters for laundry on site but they never do. The hallways always dirty trash all around the outside. This place just turned out to be a bigger hassle then it's worth. From going down to fetch my own sheets towels ect. Every week. To having to go somewhere else to do laundry. I decided to pay a little more for way better service! MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for about a month. It is a convenient location but if you are planning on staying a while, well just don't!!!!! After the first week I was no longer receiving my weekly housekeeping. They advertise "a home away from home" we'll it's far from it. Very rude housekeepers that could barley Speak English (its not my fault you don't know what I'm saying) Front desk not much friendlier, advertises they have quarters for laundry on site but they never do. The hallways always dirty trash all around the outside. This place just turned out to be a bigger hassle then it's worth. From going down to fetch my own sheets towels ect. Every week. To having to go somewhere else to do laundry. I decided to pay a little more for way better service! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r200277861-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>200277861</t>
+  </si>
+  <si>
+    <t>04/07/2014</t>
+  </si>
+  <si>
+    <t>YUCK!</t>
+  </si>
+  <si>
+    <t>On the website the rooms looked nice and the reservations agent said over the phone that there was a free breakfast. When we arrived at the hotel the front desk attendant said there wasn't a breakfast. He was courteous and gave us instructions to our room. When we got in our room it was dirty and the covers were pulled back from the bed. The front desk attendant slightly apologized and gave us keys to a new room. The stairways and elevator were filthy with overfilled trash cans and smelled of marijuana, long ago spilled alcohol, and cigarettes.  We got to our new room and we were presented with a shabby room that smelled like cigarettes even though we asked for a non-smoking room. Everything in the room look outdated and in poor condition. The blankets were a thin scratchy material that had blood stains, tears, and mysterious white gunk on one of them. The chairs and furniture were beat up, scratched, and dirty. The floors looked dirty and smelled badly. The shower had brown grime on the floor of it and some awful yellow and green build up on the shower head itself. There was limited dishes and silverware in the cupboards and they were also dirty. We ran out of dish soap by the second night of our stay and when we asked for more the front desk attendant said they didn't have any more in yet but...On the website the rooms looked nice and the reservations agent said over the phone that there was a free breakfast. When we arrived at the hotel the front desk attendant said there wasn't a breakfast. He was courteous and gave us instructions to our room. When we got in our room it was dirty and the covers were pulled back from the bed. The front desk attendant slightly apologized and gave us keys to a new room. The stairways and elevator were filthy with overfilled trash cans and smelled of marijuana, long ago spilled alcohol, and cigarettes.  We got to our new room and we were presented with a shabby room that smelled like cigarettes even though we asked for a non-smoking room. Everything in the room look outdated and in poor condition. The blankets were a thin scratchy material that had blood stains, tears, and mysterious white gunk on one of them. The chairs and furniture were beat up, scratched, and dirty. The floors looked dirty and smelled badly. The shower had brown grime on the floor of it and some awful yellow and green build up on the shower head itself. There was limited dishes and silverware in the cupboards and they were also dirty. We ran out of dish soap by the second night of our stay and when we asked for more the front desk attendant said they didn't have any more in yet but that some people were using shampoo and offered me some. I accepted because it was a working weekend for me and I was too tired to go out and buy dish soap. Sleeping there was less than restful. The beds were saggy and uncomfortable. The air conditioning unit made noises like a howling baboon when it would kick on every hour or so and our neighbors sounded like they were in a wrestling match with their furniture for half of the first night. I got a military discount on this room for $50 a night and the total for the two night stay came to $112 and some change with tax. Based on the conditions of the hotel, I way overpaid to stay at this pitiful establishment.MoreShow less</t>
+  </si>
+  <si>
+    <t>On the website the rooms looked nice and the reservations agent said over the phone that there was a free breakfast. When we arrived at the hotel the front desk attendant said there wasn't a breakfast. He was courteous and gave us instructions to our room. When we got in our room it was dirty and the covers were pulled back from the bed. The front desk attendant slightly apologized and gave us keys to a new room. The stairways and elevator were filthy with overfilled trash cans and smelled of marijuana, long ago spilled alcohol, and cigarettes.  We got to our new room and we were presented with a shabby room that smelled like cigarettes even though we asked for a non-smoking room. Everything in the room look outdated and in poor condition. The blankets were a thin scratchy material that had blood stains, tears, and mysterious white gunk on one of them. The chairs and furniture were beat up, scratched, and dirty. The floors looked dirty and smelled badly. The shower had brown grime on the floor of it and some awful yellow and green build up on the shower head itself. There was limited dishes and silverware in the cupboards and they were also dirty. We ran out of dish soap by the second night of our stay and when we asked for more the front desk attendant said they didn't have any more in yet but...On the website the rooms looked nice and the reservations agent said over the phone that there was a free breakfast. When we arrived at the hotel the front desk attendant said there wasn't a breakfast. He was courteous and gave us instructions to our room. When we got in our room it was dirty and the covers were pulled back from the bed. The front desk attendant slightly apologized and gave us keys to a new room. The stairways and elevator were filthy with overfilled trash cans and smelled of marijuana, long ago spilled alcohol, and cigarettes.  We got to our new room and we were presented with a shabby room that smelled like cigarettes even though we asked for a non-smoking room. Everything in the room look outdated and in poor condition. The blankets were a thin scratchy material that had blood stains, tears, and mysterious white gunk on one of them. The chairs and furniture were beat up, scratched, and dirty. The floors looked dirty and smelled badly. The shower had brown grime on the floor of it and some awful yellow and green build up on the shower head itself. There was limited dishes and silverware in the cupboards and they were also dirty. We ran out of dish soap by the second night of our stay and when we asked for more the front desk attendant said they didn't have any more in yet but that some people were using shampoo and offered me some. I accepted because it was a working weekend for me and I was too tired to go out and buy dish soap. Sleeping there was less than restful. The beds were saggy and uncomfortable. The air conditioning unit made noises like a howling baboon when it would kick on every hour or so and our neighbors sounded like they were in a wrestling match with their furniture for half of the first night. I got a military discount on this room for $50 a night and the total for the two night stay came to $112 and some change with tax. Based on the conditions of the hotel, I way overpaid to stay at this pitiful establishment.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r199463742-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
@@ -1159,6 +1887,45 @@
     <t>I do not recommend you stay here, I repeat do not stay here. We were relocated to the Denver area and needed a place to stay for several days. I booked two nights online. It took approximately 50 minutes to check in, I had to ring a phone, wait for an answer and wait again for the clerk to open the door. There was one other customer in front of me. That other customer was a regular and decided to talk about her whole day and the clerk played into it. The other customer was there to pay one months rent, which probably should have taken 15 minutes at the most, it took her nearly 50 minutes. The clerk was slow and I rudely interrupted to get the clerk's attention so we could check in. It was 11 p.m. and we were on the road for 10 hours. Finally, after checking in, the room was filthy, there were blood stains on the comforter and the side of the linens. The floor carpet and tile had dirt. The bathroom sinks and towels had hair (looked like a man's shaving hair) left all over. We were extremely tired and fell asleep anyway. The next day I went to get my money back for the upcoming night's stay and was told it would take 3 to 5 business days to recieve a refund. It's day five and I haven't seen my money yet....I do not recommend you stay here, I repeat do not stay here. We were relocated to the Denver area and needed a place to stay for several days. I booked two nights online. It took approximately 50 minutes to check in, I had to ring a phone, wait for an answer and wait again for the clerk to open the door. There was one other customer in front of me. That other customer was a regular and decided to talk about her whole day and the clerk played into it. The other customer was there to pay one months rent, which probably should have taken 15 minutes at the most, it took her nearly 50 minutes. The clerk was slow and I rudely interrupted to get the clerk's attention so we could check in. It was 11 p.m. and we were on the road for 10 hours. Finally, after checking in, the room was filthy, there were blood stains on the comforter and the side of the linens. The floor carpet and tile had dirt. The bathroom sinks and towels had hair (looked like a man's shaving hair) left all over. We were extremely tired and fell asleep anyway. The next day I went to get my money back for the upcoming night's stay and was told it would take 3 to 5 business days to recieve a refund. It's day five and I haven't seen my money yet. We used Priceline and found a hotel, cheaper rated at 3.5 stars and it exceeded our expectations.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r193336880-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>193336880</t>
+  </si>
+  <si>
+    <t>02/07/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dirty hotel, must be a better one around </t>
+  </si>
+  <si>
+    <t>Stayed at crossland studios for 1 night. This is a really dirty hotel. We where with a group of 3 friends all staying in separate rooms. All rooms had dirty stained sheets on both beds, pillows with stains and really disgusting carpet.The free wifi is the only upside to this place. Find an other place.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r187473753-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>187473753</t>
+  </si>
+  <si>
+    <t>12/12/2013</t>
+  </si>
+  <si>
+    <t>Worst place ever!!!!!!!</t>
+  </si>
+  <si>
+    <t>I had so many issues with these people, from the ones at the corporate office to the ones at the front desk. I would never stay there again. I would never recommendthis hotel to anyone!!!!! The staff downstairs in the office was so rude everytime I needed something. They ran out of toilet paper everyday. Never clean towels. Laundry room was $2.00 to wash and $2.00 to halfway dry. This whole place was a ripoff!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Airport - Aurora, responded to this reviewResponded December 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2013</t>
+  </si>
+  <si>
+    <t>I had so many issues with these people, from the ones at the corporate office to the ones at the front desk. I would never stay there again. I would never recommendthis hotel to anyone!!!!! The staff downstairs in the office was so rude everytime I needed something. They ran out of toilet paper everyday. Never clean towels. Laundry room was $2.00 to wash and $2.00 to halfway dry. This whole place was a ripoff!!!!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r186338959-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -1231,6 +1998,45 @@
 6) Wifi does not work at all. When I checked in I was given a number to call "if I have any problems with the internet" - as if they expected there to be a problem. Sat for 25 minutes on hold waiting for this third party internet provider...I only stayed one night, but my experience at the Crossland Aurora was terrible. I will list reasons from my experience that contributred to my rating:1) Show up after check-in and am told the room is not ready and to return in 20 minutes. This is excusable as it is common in any hotel. I return in about 30 minutes and am told the room is available but it didn't get a chance to have a "deep clean" and do I mind if the carpet is a "little dirty"? What choice do I have? I prepaid on a third-party site. 2) I enter the elevator corridor and am instantly greeted by a garbage-coated floor - few garbage cans desperate to be emptied.3) Open the room door and am blasted by an absolutely putrid odor - a mix of smoke, rotten food, and cleaning product. 4) The carpet between the "kitchen" and the rest of the room is soaking wet. 5) Try to turn on the television - nothing happens. After struggling with it for a while I realize the outlet is dead. Change the outlet and it works. Barely.6) Wifi does not work at all. When I checked in I was given a number to call "if I have any problems with the internet" - as if they expected there to be a problem. Sat for 25 minutes on hold waiting for this third party internet provider before I give up. 7) Decide to cut my losses and go to bed (with a little liquid assistance) and notice they have only provided me with a sheet, unless I was willing to use the disgusting, unwashed bed cover - no thanks.8) Wake up freezing cold and resort to turning on the heater - cranked to "high heat" and not surprisingly...it doesn't work. Only get cold outside air. 9) few items I had in the fridge ended up frozen.10) Insects on the ceiling all night.11) Office didn't open at 7:00 as advertised. Waited around a little while after that so I could complain to someone but decided I'd rather just get the hell out of there.Seriously, I've never had such a poor experience in a hotel. The only kick I got out of the place were some interesting conversations with the "characters" that live there long term. Characters indeed.AVOID!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r179281314-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>179281314</t>
+  </si>
+  <si>
+    <t>09/30/2013</t>
+  </si>
+  <si>
+    <t>Worst Hotel in The country avoid at all cost</t>
+  </si>
+  <si>
+    <t>I stayed here for 30 days while working in the areaThe Bad            Most uncomfortable bed ever             Crack heads in the hallway             A staff with no accountability                 I turned in a leaking shower 7 times each time told they had no record                 internet running at 100 Kbps slower then dial up              After checking out found my card charged an additional 166.60 (why this number even desk had no idea why)           Garbage piled in the hallway reminded me of the movie Candyman            Had to deal with incessant begging for cigarettes and a constant fear of having things stolen            The person who cleans rooms refuses to take garbage out.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r178602732-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>178602732</t>
+  </si>
+  <si>
+    <t>09/25/2013</t>
+  </si>
+  <si>
+    <t>No frills.  No pool.</t>
+  </si>
+  <si>
+    <t>Working in the area for a couple of weeks.  Same layout as Suburban Suites.  No daily cleaning.  Lots of construction workers.  Does have two burner stove, fridge, microwave, cable, and free Wi-Fi.  Rooms don't stink or have bugs.  Desk staff are great.  Will be back, if working in the area.  Oh, and no hookers like mist of the other area hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Airport - Aurora, responded to this reviewResponded October 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2013</t>
+  </si>
+  <si>
+    <t>Working in the area for a couple of weeks.  Same layout as Suburban Suites.  No daily cleaning.  Lots of construction workers.  Does have two burner stove, fridge, microwave, cable, and free Wi-Fi.  Rooms don't stink or have bugs.  Desk staff are great.  Will be back, if working in the area.  Oh, and no hookers like mist of the other area hotels.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r170569362-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -1309,6 +2115,54 @@
     <t>truly scary.   found 2 hairs in the shower.  there were lots of tooth paste stains down the side of the wall next to the bathroom sink.   the floor was heavily water stained in the bathroom.  no fan in the bathroom, but that was good because the cover was rusted and full of dust.  cob web in one corner above shower.   one dining room chair had crumbs.  only one pot and one coffee cup in the kitchen.  bed covers were ancient.   no blankets.   thank goodness i travel with my own pillow.  tv controller gummy.   I survived.   Only reason i stayed was I didn't want to distress my worn out hubby.   If i have my own pillow, it can handle anything!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r158481291-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>158481291</t>
+  </si>
+  <si>
+    <t>04/22/2013</t>
+  </si>
+  <si>
+    <t>Great Staff!</t>
+  </si>
+  <si>
+    <t>The front desk staff is great! There was some confusion with my hotel that I had booked on Orbitz and I didnt think I was going to be able to stay there and that I would have to call Orbitz to get my money refunded, however the girl running the front desk, Dannyell, got EVERYTHING figured out for me! She worked it out with her boss/manager and was able to get my room situation figured out for the night. She was so sweet and did everything she could to help me out. They are so nice and respectful there. The staff alone made the stay great! The room was okay. My only complaint was that the shower curtains are a little short and water got all over the floor. Besides that, it was a great location, the room was fine, and I enjoyed staying there!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>The front desk staff is great! There was some confusion with my hotel that I had booked on Orbitz and I didnt think I was going to be able to stay there and that I would have to call Orbitz to get my money refunded, however the girl running the front desk, Dannyell, got EVERYTHING figured out for me! She worked it out with her boss/manager and was able to get my room situation figured out for the night. She was so sweet and did everything she could to help me out. They are so nice and respectful there. The staff alone made the stay great! The room was okay. My only complaint was that the shower curtains are a little short and water got all over the floor. Besides that, it was a great location, the room was fine, and I enjoyed staying there!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r152549513-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>152549513</t>
+  </si>
+  <si>
+    <t>02/19/2013</t>
+  </si>
+  <si>
+    <t>How is this place run? Terrible Day Crew!</t>
+  </si>
+  <si>
+    <t>stayed at this hotel and wow the day crew is way off i want it known that the night crew is what keeps this hotel running has the day crew has no idea what is going on it is always a guessing game on the day shift and what is clean day crew has now idea need help hire someone to clean the price is great but cleaness is not on menu but talk about helping someone the night people even the after hour person is on the right track they go out of te way to help was my pleasure to have stayed there for them abigail and danyell where the best ever they made sure we had clealn towels and told us where to eat the ladies where great !!!!!!!!! and one night key did not work the young man helped us out too!!! hank you so much but has far has the day crew goes they on the other hand did not know was told no reservation was made and then they found it after that we got to are room no towles called desk and was told they would bring us some we left came back still no towels called again told sorry no clean ones they would call us when they where ready,asked a maid for some was told they had no clean ones so how do you run a hotel and no towels in...stayed at this hotel and wow the day crew is way off i want it known that the night crew is what keeps this hotel running has the day crew has no idea what is going on it is always a guessing game on the day shift and what is clean day crew has now idea need help hire someone to clean the price is great but cleaness is not on menu but talk about helping someone the night people even the after hour person is on the right track they go out of te way to help was my pleasure to have stayed there for them abigail and danyell where the best ever they made sure we had clealn towels and told us where to eat the ladies where great !!!!!!!!! and one night key did not work the young man helped us out too!!! hank you so much but has far has the day crew goes they on the other hand did not know was told no reservation was made and then they found it after that we got to are room no towles called desk and was told they would bring us some we left came back still no towels called again told sorry no clean ones they would call us when they where ready,asked a maid for some was told they had no clean ones so how do you run a hotel and no towels in a 24 hour time frame. then trash every where walk ways ,halls slop everywhere i fell that if it was not for the night crew we would have left,there where others who also felt the hotel was not well cleaned and that the day crew ( office) did not kown what was going on with how it should be run,thanks night crew for the stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Crossland Economy Studios - Denver - Airport - Aurora, responded to this reviewResponded February 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2013</t>
+  </si>
+  <si>
+    <t>stayed at this hotel and wow the day crew is way off i want it known that the night crew is what keeps this hotel running has the day crew has no idea what is going on it is always a guessing game on the day shift and what is clean day crew has now idea need help hire someone to clean the price is great but cleaness is not on menu but talk about helping someone the night people even the after hour person is on the right track they go out of te way to help was my pleasure to have stayed there for them abigail and danyell where the best ever they made sure we had clealn towels and told us where to eat the ladies where great !!!!!!!!! and one night key did not work the young man helped us out too!!! hank you so much but has far has the day crew goes they on the other hand did not know was told no reservation was made and then they found it after that we got to are room no towles called desk and was told they would bring us some we left came back still no towels called again told sorry no clean ones they would call us when they where ready,asked a maid for some was told they had no clean ones so how do you run a hotel and no towels in...stayed at this hotel and wow the day crew is way off i want it known that the night crew is what keeps this hotel running has the day crew has no idea what is going on it is always a guessing game on the day shift and what is clean day crew has now idea need help hire someone to clean the price is great but cleaness is not on menu but talk about helping someone the night people even the after hour person is on the right track they go out of te way to help was my pleasure to have stayed there for them abigail and danyell where the best ever they made sure we had clealn towels and told us where to eat the ladies where great !!!!!!!!! and one night key did not work the young man helped us out too!!! hank you so much but has far has the day crew goes they on the other hand did not know was told no reservation was made and then they found it after that we got to are room no towles called desk and was told they would bring us some we left came back still no towels called again told sorry no clean ones they would call us when they where ready,asked a maid for some was told they had no clean ones so how do you run a hotel and no towels in a 24 hour time frame. then trash every where walk ways ,halls slop everywhere i fell that if it was not for the night crew we would have left,there where others who also felt the hotel was not well cleaned and that the day crew ( office) did not kown what was going on with how it should be run,thanks night crew for the stay.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r151575163-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -1387,6 +2241,48 @@
     <t>I'd rather sleep in my car. Disgusting is putting it nicely! There was feces on my toilet paper roll, Im not sure what was in the bed. The window wouldnt lock and as a single female, I did not feel safe here. The room smelled so bad I knew I wouldnt sleep, I checked in and checked right out. If this is what this chain is like then avoid it at all costs.... Im at the Laquinta on Tower road and its worth every extra penny I paid.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r139269481-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>139269481</t>
+  </si>
+  <si>
+    <t>09/03/2012</t>
+  </si>
+  <si>
+    <t>A mid to last resort</t>
+  </si>
+  <si>
+    <t>Overall, hotel room was clean. However, the full sized bed had cigarette burns in it. I really don't think the sheets were cleaned before we came. The fitted sheet was full of wrinkles and the pillows were awful. Pillow cases were filthy, stained and had hair on them. FIRM mattress. The mini kitchen was nice and VERY CLEAN. the bathroom was ok for one night. The shower curtain was about 2 inches shirt for a stand up shower so water went out the bottom everywhere. All on all, it worked for a one light stay. Location was ok, right next to a gas station and I70. The permanent residents, or "extended stay" residents were... Unique. For $39+tax, I would stay again. Front desk staff was great. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Airport - Aurora, responded to this reviewResponded September 7, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2012</t>
+  </si>
+  <si>
+    <t>Overall, hotel room was clean. However, the full sized bed had cigarette burns in it. I really don't think the sheets were cleaned before we came. The fitted sheet was full of wrinkles and the pillows were awful. Pillow cases were filthy, stained and had hair on them. FIRM mattress. The mini kitchen was nice and VERY CLEAN. the bathroom was ok for one night. The shower curtain was about 2 inches shirt for a stand up shower so water went out the bottom everywhere. All on all, it worked for a one light stay. Location was ok, right next to a gas station and I70. The permanent residents, or "extended stay" residents were... Unique. For $39+tax, I would stay again. Front desk staff was great. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r139056621-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>139056621</t>
+  </si>
+  <si>
+    <t>09/01/2012</t>
+  </si>
+  <si>
+    <t>JUST SAY NO</t>
+  </si>
+  <si>
+    <t>Management has changed. Customer service changed with managers. Terrible service! Kelly the front desk clerk announces your room number to all who care just in case the rif-raff staying at the HOTEL would like to rob you. Found a refrigerator in the shower when I arrived. When I inquired as to why it was there I was told it was de frosting. Keys often didn't work and after complaining I was asked to "Find another hotel that would meet my standards by a NEW manager amir or something. After asking this manager for the regional managers phone number I was told my reservation was being canceled and please stay somewhere else. CUSTOMER SERVICE no longer lives here. Do yourself justice stay AWAY!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management has changed. Customer service changed with managers. Terrible service! Kelly the front desk clerk announces your room number to all who care just in case the rif-raff staying at the HOTEL would like to rob you. Found a refrigerator in the shower when I arrived. When I inquired as to why it was there I was told it was de frosting. Keys often didn't work and after complaining I was asked to "Find another hotel that would meet my standards by a NEW manager amir or something. After asking this manager for the regional managers phone number I was told my reservation was being canceled and please stay somewhere else. CUSTOMER SERVICE no longer lives here. Do yourself justice stay AWAY!!!!!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r137752799-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -1460,6 +2356,51 @@
   </si>
   <si>
     <t>This hotel is a nice place where you can find a bed to sleep, a coffee-machine and some towels, a mini-fridge and a pretty big shower! If you want you can cook in the room but don't forget your showergel or shampoo because they give you just a face-soap! There isn't an hair -dryer and no brakfast in the morning but there is free wi-fi! It's near the airport so it's really convenient!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r129313752-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>129313752</t>
+  </si>
+  <si>
+    <t>05/03/2012</t>
+  </si>
+  <si>
+    <t>customer service still lives</t>
+  </si>
+  <si>
+    <t>The staff at this property are efficient, fast &amp; cross trained! kudos!! Enjoyed my stay. A+MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>ChristopherTM, General Manager at Crossland Economy Studios - Denver - Airport - Aurora, responded to this reviewResponded July 19, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2012</t>
+  </si>
+  <si>
+    <t>The staff at this property are efficient, fast &amp; cross trained! kudos!! Enjoyed my stay. A+More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r118245768-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>118245768</t>
+  </si>
+  <si>
+    <t>09/17/2011</t>
+  </si>
+  <si>
+    <t>A dive w/ a bed and kitchenette.</t>
+  </si>
+  <si>
+    <t>The front desk agent was very nice and tried to make it a pleasant stay, but the room ruined that.  Felt like a fleabag place with transients in stir.  Stayed for an hour and then made arrangements elsewhere.  Not much to do or see on the outskirts of Denver.  Go to the mountains instead.   Good for a layover @ DIA w/ shuttle from Crowne Plaza accross the hwy.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r116316145-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
@@ -1518,6 +2459,39 @@
   </si>
   <si>
     <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r112018617-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>112018617</t>
+  </si>
+  <si>
+    <t>06/07/2011</t>
+  </si>
+  <si>
+    <t>Good clean comfortable rooms .</t>
+  </si>
+  <si>
+    <t>We stayed for 3 nights. The rooms were clean the parking was good.Staff were good and Victoria was great.Only downside NO wifi   there is wifi here but we couldn't get it in our room . Which is. Pain as we are travellibv across the USA and need to plan stuff .We had to drive to local mcdonalds for wifi. The people before had the same problem as the answer phone in our room had messages saying there were trying to fix it.It's Very POOR that the people before  and us for 3 days have NO wifi .</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r93916426-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>93916426</t>
+  </si>
+  <si>
+    <t>01/20/2011</t>
+  </si>
+  <si>
+    <t>cheap, simple, clean, close to airport.</t>
+  </si>
+  <si>
+    <t>Stayed here one night before an early flight.  Very helpfull and friendly staff.  small room, but the kitchette is very nice.  and you can park your car here for free untill you get back from your trip.  It is a $20-30 cab ride to the airport, but thats cheaper then paying for parking at the airport.  So if you want a cheap no frills place to sleep for one night, I would recomend this place. I have stayed in nicer places for more money, so for $50, not bad. and there are a lot of resturants near by.</t>
+  </si>
+  <si>
+    <t>January 2011</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r74914727-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
@@ -1595,6 +2569,46 @@
 We called when coming back from Denver after our vacation to get a refund...and i found out that their number is only the HOTEL.COM number not their own.  WTV i told them give me my money back....they said not so fast talk to them directly....Here is what happened.I booked before flying to denver, co, 2 rooms for me and my wife and a coworker for the 2nd room.I had to prepay the hotel before flying, so i did, and in the 1 foto it looked like a normal holiday inn style low budged HOTEL ...not motel..HOTEL!it was cheap and near denver airport....yea right!!  its far and a drive in the middle of the night and an adventure just to find it.We got there at around 12 am MIDNITE.... there was nobody there to greet, welcome, give a key....or even say who the hell are you?NOBODY the door was CLOSED, and thats that...i looked and drove around.... we found no entrance without a lock.  People were sleeping if there were any and there wasnt a thing to do...i called the number and of course there was nobody there as the ligths were off in the office.to make this brief, we went for another hotel in the area paid more and were very happy, but this took an extra half hour.  Needless to say it was a horrible experience...now here is where it gets bad.We called when coming back from Denver after our vacation to get a refund...and i found out that their number is only the HOTEL.COM number not their own.  WTV i told them give me my money back....they said not so fast talk to them directly.  I said i wont give them the satisfaction and callledmy AMEX for a refund.They refused ( crossland Motel) and AMEX said i cant win, well its april and i still am fighting and i ll fight it nonstop till they go out of business so i will eventually win or just give this story to all other travel websites.I didnt stay there not cause of the motel looking dump but cause there was no way to get my key or get in the damn place.  i want my money back but they wont give me any refund.i didnt sleep or put a foot in the room but i have to pay for it!!?? HAHA  i love america! DONT STAY HERE&gt;&gt;&gt;&gt; pay more and stay at a human being run place.  Its a dump and its not like in the foto...its a damn MOTEL!!!Trust me you will be  glad you listened.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r20876299-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>20876299</t>
+  </si>
+  <si>
+    <t>10/14/2008</t>
+  </si>
+  <si>
+    <t>Good enough for a night</t>
+  </si>
+  <si>
+    <t>I admit that I'd gotten spoiled at the inns on our Colorado trip, so this hotel room was a bit of a letdown. We wanted something cheap for the night before we flew out of Denver, and this room served its purpose. The furniture was a little beat up, but everything was clean. The bed was a bit hard, but I slept fine. The kitchenette came in handy. There are lots of restaurants around if you want to get out of the room for a while. I wouldn't want to stay there for any longer than a night, but it was basically OK for the price.</t>
+  </si>
+  <si>
+    <t>October 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r8473648-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>8473648</t>
+  </si>
+  <si>
+    <t>08/21/2007</t>
+  </si>
+  <si>
+    <t>I've seen worse, MUCH worse</t>
+  </si>
+  <si>
+    <t>Although they were once our hotel chain of choice, in the last few years the Extended Stay America properties have gone feral.  Anytime you stay at a Crosslands suites, ESA, Homestead or StudioPlus, it's best to pretend you are trying out for "Survivor".  Housekeeping and property maintainance have become a thing of the past.  Your neighbors will be groups of construction workers and recipients of government assisted housing.  Get to know them.
+Since these hotels pop up pretty consistently on Hotwire and Priceline at the 1, 2 and  2 1/2 star levels, I still frequently find myself booked into one.  Such was the case the other night when I bid $34 on Priceline for a place to spend the night at DIA before an early morning flight.  I suspected the Crosslands Suites Aurora was the 1 star option on both Priceline and Hotwire but being desperate and having missed out on my higher star Priceline bids, I bit the bullet, bid low and, "won" the Crosslands.
+Knowing what I was in for ahead of time made me brave and ya know what, the Crossland Suites were NOT that bad for the 8 hours I needed to stay there.  It was a bit hard to get the girl at the front desk to stop talking with her friend long enough to book me in, and as the hotel is a vast and confusing maze of tIny, oddly numbered rooms, I needed...Although they were once our hotel chain of choice, in the last few years the Extended Stay America properties have gone feral.  Anytime you stay at a Crosslands suites, ESA, Homestead or StudioPlus, it's best to pretend you are trying out for "Survivor".  Housekeeping and property maintainance have become a thing of the past.  Your neighbors will be groups of construction workers and recipients of government assisted housing.  Get to know them.Since these hotels pop up pretty consistently on Hotwire and Priceline at the 1, 2 and  2 1/2 star levels, I still frequently find myself booked into one.  Such was the case the other night when I bid $34 on Priceline for a place to spend the night at DIA before an early morning flight.  I suspected the Crosslands Suites Aurora was the 1 star option on both Priceline and Hotwire but being desperate and having missed out on my higher star Priceline bids, I bit the bullet, bid low and, "won" the Crosslands.Knowing what I was in for ahead of time made me brave and ya know what, the Crossland Suites were NOT that bad for the 8 hours I needed to stay there.  It was a bit hard to get the girl at the front desk to stop talking with her friend long enough to book me in, and as the hotel is a vast and confusing maze of tIny, oddly numbered rooms, I needed the guidance of the teeny fellow from Oaxaca  with whom I shared the elevator to find my room.  Lovingly cradling his freshly dry cleaned yellow snakeskin jacket , he unerringly led me in the right direction, no small task I can assure you!The room itself was itty bitty, barely large enough for the bed, microwave, and mini fridge.  But it was suprisingly clean and did not reek of smoke, the shower and toilet worked, and there were no all night parties outside my window.  I slept well for 6 hours and made my 6 AM flight, which was was all I could have asked for.MoreShow less</t>
+  </si>
+  <si>
+    <t>Although they were once our hotel chain of choice, in the last few years the Extended Stay America properties have gone feral.  Anytime you stay at a Crosslands suites, ESA, Homestead or StudioPlus, it's best to pretend you are trying out for "Survivor".  Housekeeping and property maintainance have become a thing of the past.  Your neighbors will be groups of construction workers and recipients of government assisted housing.  Get to know them.
+Since these hotels pop up pretty consistently on Hotwire and Priceline at the 1, 2 and  2 1/2 star levels, I still frequently find myself booked into one.  Such was the case the other night when I bid $34 on Priceline for a place to spend the night at DIA before an early morning flight.  I suspected the Crosslands Suites Aurora was the 1 star option on both Priceline and Hotwire but being desperate and having missed out on my higher star Priceline bids, I bit the bullet, bid low and, "won" the Crosslands.
+Knowing what I was in for ahead of time made me brave and ya know what, the Crossland Suites were NOT that bad for the 8 hours I needed to stay there.  It was a bit hard to get the girl at the front desk to stop talking with her friend long enough to book me in, and as the hotel is a vast and confusing maze of tIny, oddly numbered rooms, I needed...Although they were once our hotel chain of choice, in the last few years the Extended Stay America properties have gone feral.  Anytime you stay at a Crosslands suites, ESA, Homestead or StudioPlus, it's best to pretend you are trying out for "Survivor".  Housekeeping and property maintainance have become a thing of the past.  Your neighbors will be groups of construction workers and recipients of government assisted housing.  Get to know them.Since these hotels pop up pretty consistently on Hotwire and Priceline at the 1, 2 and  2 1/2 star levels, I still frequently find myself booked into one.  Such was the case the other night when I bid $34 on Priceline for a place to spend the night at DIA before an early morning flight.  I suspected the Crosslands Suites Aurora was the 1 star option on both Priceline and Hotwire but being desperate and having missed out on my higher star Priceline bids, I bit the bullet, bid low and, "won" the Crosslands.Knowing what I was in for ahead of time made me brave and ya know what, the Crossland Suites were NOT that bad for the 8 hours I needed to stay there.  It was a bit hard to get the girl at the front desk to stop talking with her friend long enough to book me in, and as the hotel is a vast and confusing maze of tIny, oddly numbered rooms, I needed the guidance of the teeny fellow from Oaxaca  with whom I shared the elevator to find my room.  Lovingly cradling his freshly dry cleaned yellow snakeskin jacket , he unerringly led me in the right direction, no small task I can assure you!The room itself was itty bitty, barely large enough for the bed, microwave, and mini fridge.  But it was suprisingly clean and did not reek of smoke, the shower and toilet worked, and there were no all night parties outside my window.  I slept well for 6 hours and made my 6 AM flight, which was was all I could have asked for.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r8394512-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -1647,6 +2661,42 @@
   </si>
   <si>
     <t>If you're looking for room service, jacuzzi, in-room  internet/pay per view, heated indoor pool, and exercise room, look elsewhere. However, if you need inexpensive , clean lodging that has a kitchenette and untensils in the room, this is the place. Property is occupied primarily by out-of town construction workers, truckers, and others who are in the area for an extended period of time.  Previous employer required me to be in Aurora for business trips 3 times/year for 1-2 weeks at a time.  **Warning: Given that this is extended stay lodging, room service only comes once a week, unless you ask and pay for additional cleaning service.  Therefore, don't  be a slob unless you're willing to live in your own mess for a week or willing to pay for maid service out of your own pocket**Having the kitchenette really cut down on food costs, and grocery stores/restauaraunts are nearby.  What this property lacks in amenties, it makes up with price and convience of having a mini-kitchenette and location close  to 1-70, Denver Metro, and Aurora.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r4156934-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>4156934</t>
+  </si>
+  <si>
+    <t>11/30/2005</t>
+  </si>
+  <si>
+    <t>Looking for a crash pad?</t>
+  </si>
+  <si>
+    <t>Getting in late to DIA, we wanted an inexpensive hotel near the Airport, so grabbed this Hotwire 2 star.  No hotel is really close to DIA and the Crossland was as good as any other. The room, however, was spartan.  Thin carpet covered the floor, but not the sounds from the guy above us who got in at 2am and did what seemed like a romp around the room every 45 minutes.  The bed was a soft double -- a cozy fit for two.  On the plus side, the room had a rudimentary kitchen (fridge, micro and stove) although the room wasn't one you'd want to spend much time in given the uncomfortable or non-existent table and chairs.  If you're alone and need to crash for a couple days and have earplugs -- or plan to drink yourself into a stupor -- the Crossland is it!  Otherwise, spend a few bucks more and try a 2 1/2 star.MoreShow less</t>
+  </si>
+  <si>
+    <t>Getting in late to DIA, we wanted an inexpensive hotel near the Airport, so grabbed this Hotwire 2 star.  No hotel is really close to DIA and the Crossland was as good as any other. The room, however, was spartan.  Thin carpet covered the floor, but not the sounds from the guy above us who got in at 2am and did what seemed like a romp around the room every 45 minutes.  The bed was a soft double -- a cozy fit for two.  On the plus side, the room had a rudimentary kitchen (fridge, micro and stove) although the room wasn't one you'd want to spend much time in given the uncomfortable or non-existent table and chairs.  If you're alone and need to crash for a couple days and have earplugs -- or plan to drink yourself into a stupor -- the Crossland is it!  Otherwise, spend a few bucks more and try a 2 1/2 star.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85371-r2321210-Crossland_Economy_Studios_Denver_Airport_Aurora-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>2321210</t>
+  </si>
+  <si>
+    <t>07/25/2004</t>
+  </si>
+  <si>
+    <t>Denver Airport lodging</t>
+  </si>
+  <si>
+    <t>I just had the unfortunate experience of booking the Crossland Denver Aurora thru Hotwire. Background:  I will be visiting my daughter and wanted to book a Denver Airpirt hotel due to an early morning departure. Hotwire confirmed a "Denver Intl Airport" hotel and from prior trips I am aware that only Tower Rd. hotels are near the airport.  I purchased.  BIG MISTAKE. The hotel is approx. 18 miles from the terminal and offers no shuttle service.  After two phone calls to HOTWIRE their advice is: (1) the hotel was within the yellow shaded area on the HOTWIRE web page and therefore it meets the definition of a Denver Airport hotel; (2) since an airport shuttle service was not listed as a provided service I should have realized there is no shuttle service. HOTWIRE recommended "Super Shuttle" limosine service @ $18 per person.  Outcome: I will not throw good money after bad and will walk away from the reservation and have my daughter get up at 4;00Am to drive my wife and I to the airport. My advice never book lodging from HOTWIRE.MoreShow less</t>
+  </si>
+  <si>
+    <t>I just had the unfortunate experience of booking the Crossland Denver Aurora thru Hotwire. Background:  I will be visiting my daughter and wanted to book a Denver Airpirt hotel due to an early morning departure. Hotwire confirmed a "Denver Intl Airport" hotel and from prior trips I am aware that only Tower Rd. hotels are near the airport.  I purchased.  BIG MISTAKE. The hotel is approx. 18 miles from the terminal and offers no shuttle service.  After two phone calls to HOTWIRE their advice is: (1) the hotel was within the yellow shaded area on the HOTWIRE web page and therefore it meets the definition of a Denver Airport hotel; (2) since an airport shuttle service was not listed as a provided service I should have realized there is no shuttle service. HOTWIRE recommended "Super Shuttle" limosine service @ $18 per person.  Outcome: I will not throw good money after bad and will walk away from the reservation and have my daughter get up at 4;00Am to drive my wife and I to the airport. My advice never book lodging from HOTWIRE.More</t>
   </si>
 </sst>
 </file>
@@ -2181,7 +3231,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -2238,27 +3288,33 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -2274,7 +3330,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -2283,25 +3339,25 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
         <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2315,7 +3371,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -2352,33 +3408,27 @@
         <v>71</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>3</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -2394,31 +3444,35 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
         <v>74</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>75</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>76</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>77</v>
       </c>
-      <c r="L6" t="s">
+      <c r="O6" t="s">
         <v>78</v>
       </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
@@ -2468,24 +3522,20 @@
         <v>84</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
         <v>85</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>4</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
@@ -2529,33 +3579,27 @@
         <v>90</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
+        <v>85</v>
+      </c>
+      <c r="O8" t="s">
         <v>91</v>
       </c>
-      <c r="O8" t="s">
-        <v>66</v>
-      </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>4</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>3</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
@@ -2571,7 +3615,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2580,45 +3624,39 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="O9" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>3</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
@@ -2634,44 +3672,54 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
         <v>99</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>100</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>101</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>102</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
         <v>103</v>
       </c>
-      <c r="M10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
-      <c r="P10" t="s"/>
+      <c r="O10" t="s">
+        <v>104</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -2687,7 +3735,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2696,35 +3744,37 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="O11" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
       <c r="R11" t="s"/>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -2732,7 +3782,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
@@ -2748,7 +3798,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2757,39 +3807,45 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="O12" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
@@ -2805,7 +3861,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2814,26 +3870,22 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="s">
-        <v>109</v>
-      </c>
-      <c r="O13" t="s">
-        <v>122</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
@@ -2846,7 +3898,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14">
@@ -2862,7 +3914,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2871,37 +3923,35 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="O14" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2925,7 +3975,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2934,49 +3984,43 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="O15" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1</v>
-      </c>
-      <c r="S15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
         <v>134</v>
-      </c>
-      <c r="X15" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="16">
@@ -2992,44 +4036,54 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
         <v>137</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>138</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>139</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>140</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>141</v>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
-      <c r="P16" t="s"/>
+      <c r="O16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
@@ -3045,7 +4099,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -3054,37 +4108,37 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O17" t="s">
-        <v>66</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>1</v>
-      </c>
-      <c r="S17" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -3092,7 +4146,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18">
@@ -3108,7 +4162,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -3117,39 +4171,45 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J18" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="K18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="O18" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19">
@@ -3165,7 +4225,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3174,26 +4234,22 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="J19" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K19" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L19" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="s">
-        <v>157</v>
-      </c>
-      <c r="O19" t="s">
-        <v>98</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
@@ -3206,7 +4262,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20">
@@ -3222,7 +4278,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3231,47 +4287,45 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J20" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K20" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L20" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O20" t="s">
-        <v>59</v>
-      </c>
-      <c r="P20" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
       <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>1</v>
-      </c>
+      <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>1</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="X20" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y20" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21">
@@ -3287,7 +4341,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3296,43 +4350,45 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J21" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L21" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O21" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>164</v>
-      </c>
-      <c r="X21" t="s">
-        <v>165</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22">
@@ -3348,41 +4404,41 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>177</v>
+      </c>
+      <c r="J22" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" t="s">
+        <v>179</v>
+      </c>
+      <c r="L22" t="s">
+        <v>180</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
         <v>174</v>
-      </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
-        <v>175</v>
-      </c>
-      <c r="J22" t="s">
-        <v>176</v>
-      </c>
-      <c r="K22" t="s">
-        <v>177</v>
-      </c>
-      <c r="L22" t="s">
-        <v>178</v>
-      </c>
-      <c r="M22" t="n">
-        <v>2</v>
-      </c>
-      <c r="N22" t="s">
-        <v>179</v>
       </c>
       <c r="O22" t="s">
         <v>53</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
         <v>1</v>
@@ -3393,7 +4449,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23">
@@ -3409,7 +4465,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3418,38 +4474,32 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="O23" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>1</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
@@ -3496,23 +4546,17 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="O24" t="s">
-        <v>98</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="n">
-        <v>1</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>2</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
@@ -3559,15 +4603,15 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="O25" t="s">
-        <v>98</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q25" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
@@ -3580,7 +4624,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26">
@@ -3596,7 +4640,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3605,10 +4649,10 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J26" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="K26" t="s">
         <v>202</v>
@@ -3619,25 +4663,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
-      <c r="N26" t="s"/>
-      <c r="O26" t="s"/>
+      <c r="N26" t="s">
+        <v>198</v>
+      </c>
+      <c r="O26" t="s">
+        <v>104</v>
+      </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
         <v>204</v>
-      </c>
-      <c r="X26" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="27">
@@ -3653,43 +4701,43 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>206</v>
+      </c>
+      <c r="J27" t="s">
         <v>207</v>
       </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="K27" t="s">
         <v>208</v>
       </c>
-      <c r="J27" t="s">
+      <c r="L27" t="s">
         <v>209</v>
       </c>
-      <c r="K27" t="s">
-        <v>210</v>
-      </c>
-      <c r="L27" t="s">
-        <v>211</v>
-      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="O27" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
       </c>
-      <c r="Q27" t="s"/>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
       <c r="R27" t="s"/>
-      <c r="S27" t="n">
-        <v>1</v>
-      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
         <v>1</v>
@@ -3697,14 +4745,10 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>213</v>
-      </c>
-      <c r="X27" t="s">
-        <v>214</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28">
@@ -3720,7 +4764,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3729,43 +4773,49 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="J28" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="K28" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L28" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="O28" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="P28" t="s"/>
-      <c r="Q28" t="s"/>
-      <c r="R28" t="s"/>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="X28" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="Y28" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29">
@@ -3781,7 +4831,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3790,26 +4840,22 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J29" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="K29" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="L29" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
-      <c r="N29" t="s">
-        <v>212</v>
-      </c>
-      <c r="O29" t="s">
-        <v>98</v>
-      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
@@ -3819,14 +4865,10 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>229</v>
-      </c>
-      <c r="X29" t="s">
-        <v>230</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30">
@@ -3842,7 +4884,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3851,49 +4893,49 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="J30" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="K30" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="L30" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="O30" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
         <v>1</v>
       </c>
-      <c r="R30" t="s"/>
-      <c r="S30" t="n">
-        <v>1</v>
-      </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="X30" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y30" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31">
@@ -3909,7 +4951,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3918,26 +4960,22 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="J31" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="K31" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="L31" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
-      <c r="N31" t="s">
-        <v>237</v>
-      </c>
-      <c r="O31" t="s">
-        <v>59</v>
-      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
@@ -3947,14 +4985,10 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>229</v>
-      </c>
-      <c r="X31" t="s">
-        <v>230</v>
-      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32">
@@ -3970,7 +5004,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3979,37 +5013,37 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="J32" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="K32" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="L32" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="O32" t="s">
-        <v>98</v>
-      </c>
-      <c r="P32" t="s"/>
-      <c r="Q32" t="n">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="s"/>
       <c r="R32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -4017,7 +5051,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33">
@@ -4033,7 +5067,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -4042,49 +5076,39 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="J33" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="K33" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="L33" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
-      </c>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
-      <c r="P33" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1</v>
-      </c>
-      <c r="R33" t="n">
-        <v>4</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>229</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>1</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>257</v>
-      </c>
-      <c r="X33" t="s">
-        <v>258</v>
-      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34">
@@ -4100,7 +5124,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4109,43 +5133,39 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="J34" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K34" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="L34" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="O34" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
-      <c r="S34" t="n">
-        <v>1</v>
-      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>1</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35">
@@ -4161,7 +5181,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4170,43 +5190,39 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="J35" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="K35" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="L35" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
-      <c r="S35" t="n">
-        <v>2</v>
-      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36">
@@ -4222,7 +5238,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4231,45 +5247,39 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="J36" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="K36" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="L36" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="O36" t="s">
-        <v>66</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
-      <c r="S36" t="n">
-        <v>1</v>
-      </c>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>1</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37">
@@ -4285,7 +5295,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4294,45 +5304,47 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="J37" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="K37" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="L37" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="O37" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
       <c r="R37" t="n">
-        <v>4</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>269</v>
+      </c>
+      <c r="X37" t="s">
+        <v>270</v>
+      </c>
       <c r="Y37" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38">
@@ -4348,7 +5360,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4357,43 +5369,43 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="J38" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="K38" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="L38" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="O38" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
-      <c r="R38" t="n">
-        <v>3</v>
-      </c>
+      <c r="R38" t="s"/>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>1</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>269</v>
+      </c>
+      <c r="X38" t="s">
+        <v>270</v>
+      </c>
       <c r="Y38" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39">
@@ -4409,7 +5421,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4418,34 +5430,32 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="J39" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="K39" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="L39" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="s"/>
-      <c r="O39" t="s"/>
-      <c r="P39" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>284</v>
+      </c>
+      <c r="O39" t="s">
+        <v>78</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
       <c r="R39" t="n">
-        <v>3</v>
-      </c>
-      <c r="S39" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
         <v>1</v>
@@ -4456,7 +5466,7 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40">
@@ -4472,7 +5482,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4481,16 +5491,16 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="J40" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="K40" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="L40" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
@@ -4499,7 +5509,7 @@
         <v>291</v>
       </c>
       <c r="O40" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4513,7 +5523,7 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41">
@@ -4529,7 +5539,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4538,41 +5548,35 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="J41" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="K41" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="L41" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="M41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="O41" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
       </c>
-      <c r="Q41" t="n">
-        <v>3</v>
-      </c>
-      <c r="R41" t="n">
-        <v>2</v>
-      </c>
-      <c r="S41" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -4580,7 +5584,7 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="42">
@@ -4596,7 +5600,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4605,38 +5609,34 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="J42" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="K42" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="L42" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="O42" t="s">
         <v>53</v>
       </c>
-      <c r="P42" t="n">
-        <v>3</v>
-      </c>
+      <c r="P42" t="s"/>
       <c r="Q42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R42" t="n">
-        <v>3</v>
-      </c>
-      <c r="S42" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
         <v>1</v>
@@ -4647,7 +5647,7 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43">
@@ -4663,7 +5663,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4672,53 +5672,45 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="J43" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="K43" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="L43" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="O43" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="P43" t="n">
         <v>1</v>
       </c>
-      <c r="Q43" t="n">
-        <v>1</v>
-      </c>
-      <c r="R43" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
       <c r="S43" t="n">
         <v>1</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s">
-        <v>321</v>
-      </c>
-      <c r="X43" t="s">
-        <v>322</v>
-      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44">
@@ -4734,7 +5726,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4743,41 +5735,35 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="J44" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="K44" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="L44" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="M44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="O44" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="P44" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>3</v>
-      </c>
-      <c r="R44" t="n">
-        <v>4</v>
-      </c>
-      <c r="S44" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4785,7 +5771,7 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45">
@@ -4801,7 +5787,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4810,53 +5796,49 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="J45" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="K45" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="L45" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="M45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O45" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P45" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1</v>
-      </c>
-      <c r="R45" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
       <c r="S45" t="n">
         <v>1</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="X45" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="Y45" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46">
@@ -4872,7 +5854,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4881,49 +5863,39 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="J46" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="K46" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="L46" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N46" t="s"/>
       <c r="O46" t="s"/>
-      <c r="P46" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>1</v>
-      </c>
-      <c r="R46" t="n">
-        <v>3</v>
-      </c>
-      <c r="S46" t="n">
-        <v>1</v>
-      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>1</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="X46" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="Y46" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47">
@@ -4939,7 +5911,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4948,45 +5920,39 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="J47" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="K47" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="L47" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N47" t="s"/>
       <c r="O47" t="s"/>
-      <c r="P47" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>4</v>
-      </c>
-      <c r="R47" t="n">
-        <v>4</v>
-      </c>
-      <c r="S47" t="n">
-        <v>4</v>
-      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>5</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>338</v>
+      </c>
+      <c r="X47" t="s">
+        <v>339</v>
+      </c>
       <c r="Y47" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="48">
@@ -5002,7 +5968,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5011,35 +5977,31 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="J48" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="K48" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="L48" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="O48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P48" t="n">
         <v>1</v>
       </c>
-      <c r="Q48" t="n">
-        <v>1</v>
-      </c>
-      <c r="R48" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
       <c r="S48" t="n">
         <v>1</v>
       </c>
@@ -5050,10 +6012,14 @@
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>347</v>
+      </c>
+      <c r="X48" t="s">
+        <v>348</v>
+      </c>
       <c r="Y48" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="49">
@@ -5069,7 +6035,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5078,49 +6044,43 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="J49" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="K49" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="L49" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="O49" t="s">
-        <v>98</v>
-      </c>
-      <c r="P49" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>1</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1</v>
-      </c>
-      <c r="S49" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="n">
-        <v>1</v>
-      </c>
+      <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>355</v>
+      </c>
+      <c r="X49" t="s">
+        <v>356</v>
+      </c>
       <c r="Y49" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="50">
@@ -5136,7 +6096,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5145,31 +6105,31 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="J50" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="K50" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="L50" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="M50" t="n">
-        <v>2</v>
-      </c>
-      <c r="N50" t="s"/>
-      <c r="O50" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>363</v>
+      </c>
+      <c r="O50" t="s">
+        <v>91</v>
+      </c>
       <c r="P50" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>1</v>
-      </c>
-      <c r="R50" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
       <c r="S50" t="n">
         <v>1</v>
       </c>
@@ -5180,10 +6140,14 @@
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>364</v>
+      </c>
+      <c r="X50" t="s">
+        <v>365</v>
+      </c>
       <c r="Y50" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="51">
@@ -5199,43 +6163,41 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
+        <v>367</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>368</v>
+      </c>
+      <c r="J51" t="s">
+        <v>360</v>
+      </c>
+      <c r="K51" t="s">
+        <v>369</v>
+      </c>
+      <c r="L51" t="s">
         <v>370</v>
       </c>
-      <c r="G51" t="s">
-        <v>46</v>
-      </c>
-      <c r="H51" t="s">
-        <v>47</v>
-      </c>
-      <c r="I51" t="s">
-        <v>371</v>
-      </c>
-      <c r="J51" t="s">
-        <v>372</v>
-      </c>
-      <c r="K51" t="s">
-        <v>373</v>
-      </c>
-      <c r="L51" t="s">
-        <v>374</v>
-      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="O51" t="s">
         <v>53</v>
       </c>
-      <c r="P51" t="n">
-        <v>1</v>
-      </c>
+      <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
-      <c r="R51" t="n">
-        <v>3</v>
-      </c>
-      <c r="S51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
         <v>1</v>
@@ -5243,14 +6205,10 @@
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s">
-        <v>376</v>
-      </c>
-      <c r="X51" t="s">
-        <v>377</v>
-      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="52">
@@ -5266,7 +6224,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5275,53 +6233,43 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="J52" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="K52" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="L52" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
-      </c>
-      <c r="P52" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>1</v>
-      </c>
-      <c r="R52" t="n">
-        <v>3</v>
-      </c>
-      <c r="S52" t="n">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
-      <c r="U52" t="n">
-        <v>2</v>
-      </c>
+      <c r="U52" t="s"/>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="X52" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y52" t="s">
         <v>377</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="53">
@@ -5337,7 +6285,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5346,43 +6294,49 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="J53" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="K53" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="L53" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
       <c r="O53" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="P53" t="s"/>
-      <c r="Q53" t="s"/>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
       <c r="R53" t="s"/>
-      <c r="S53" t="s"/>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
       <c r="T53" t="s"/>
-      <c r="U53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
       <c r="X53" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
       <c r="Y53" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
     <row r="54">
@@ -5398,7 +6352,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5407,53 +6361,43 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="J54" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="K54" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="L54" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
       <c r="O54" t="s">
-        <v>122</v>
-      </c>
-      <c r="P54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>1</v>
-      </c>
-      <c r="R54" t="n">
-        <v>3</v>
-      </c>
-      <c r="S54" t="n">
-        <v>1</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
-      <c r="U54" t="n">
-        <v>1</v>
-      </c>
+      <c r="U54" t="s"/>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>399</v>
+        <v>364</v>
       </c>
       <c r="X54" t="s">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="Y54" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="55">
@@ -5469,7 +6413,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5478,25 +6422,25 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="J55" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="K55" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="L55" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="O55" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="P55" t="n">
         <v>1</v>
@@ -5504,25 +6448,23 @@
       <c r="Q55" t="n">
         <v>1</v>
       </c>
-      <c r="R55" t="n">
-        <v>3</v>
-      </c>
-      <c r="S55" t="n">
-        <v>1</v>
-      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
-      <c r="U55" t="s"/>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="X55" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="Y55" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
     </row>
     <row r="56">
@@ -5538,7 +6480,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5547,49 +6489,43 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="J56" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="K56" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="L56" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="M56" t="n">
-        <v>3</v>
-      </c>
-      <c r="N56" t="s"/>
-      <c r="O56" t="s"/>
-      <c r="P56" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>3</v>
-      </c>
-      <c r="R56" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>404</v>
+      </c>
+      <c r="O56" t="s">
+        <v>78</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
       <c r="S56" t="n">
         <v>2</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s">
-        <v>416</v>
-      </c>
-      <c r="X56" t="s">
-        <v>417</v>
-      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
     </row>
     <row r="57">
@@ -5605,7 +6541,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5614,38 +6550,34 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="J57" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="K57" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="L57" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="O57" t="s">
-        <v>98</v>
-      </c>
-      <c r="P57" t="n">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P57" t="s"/>
       <c r="Q57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R57" t="n">
         <v>3</v>
       </c>
-      <c r="S57" t="n">
-        <v>1</v>
-      </c>
+      <c r="S57" t="s"/>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
         <v>2</v>
@@ -5653,14 +6585,10 @@
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s">
-        <v>425</v>
-      </c>
-      <c r="X57" t="s">
-        <v>426</v>
-      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
     </row>
     <row r="58">
@@ -5676,7 +6604,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5685,53 +6613,49 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="J58" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="K58" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="L58" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="s">
-        <v>433</v>
-      </c>
-      <c r="O58" t="s">
-        <v>53</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
       <c r="P58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
       </c>
       <c r="R58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S58" t="n">
         <v>1</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="X58" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="Y58" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="59">
@@ -5747,7 +6671,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5756,49 +6680,43 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="J59" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="K59" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="L59" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="M59" t="n">
-        <v>5</v>
-      </c>
-      <c r="N59" t="s"/>
-      <c r="O59" t="s"/>
-      <c r="P59" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>5</v>
-      </c>
-      <c r="R59" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>426</v>
+      </c>
+      <c r="O59" t="s">
+        <v>60</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
       <c r="S59" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s">
-        <v>442</v>
-      </c>
-      <c r="X59" t="s">
-        <v>443</v>
-      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
     </row>
     <row r="60">
@@ -5814,7 +6732,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5823,53 +6741,49 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="J60" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="K60" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="L60" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="M60" t="n">
-        <v>3</v>
-      </c>
-      <c r="N60" t="s">
-        <v>450</v>
-      </c>
-      <c r="O60" t="s">
-        <v>98</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
       <c r="P60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R60" t="n">
         <v>3</v>
       </c>
       <c r="S60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="X60" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="Y60" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
     </row>
     <row r="61">
@@ -5885,7 +6799,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -5894,37 +6808,33 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="J61" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="K61" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="L61" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
         <v>3</v>
       </c>
-      <c r="N61" t="s">
-        <v>450</v>
-      </c>
-      <c r="O61" t="s">
-        <v>122</v>
-      </c>
-      <c r="P61" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>3</v>
-      </c>
-      <c r="R61" t="n">
-        <v>4</v>
-      </c>
       <c r="S61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
@@ -5934,13 +6844,13 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="X61" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="Y61" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
     </row>
     <row r="62">
@@ -5956,7 +6866,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -5965,37 +6875,35 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="J62" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="K62" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="L62" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="M62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
-      </c>
-      <c r="P62" t="n">
-        <v>1</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
       <c r="R62" t="s"/>
       <c r="S62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
@@ -6003,7 +6911,7 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
     </row>
     <row r="63">
@@ -6019,7 +6927,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -6028,28 +6936,28 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="J63" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="K63" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="L63" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="M63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="O63" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="P63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q63" t="s"/>
       <c r="R63" t="s"/>
@@ -6058,7 +6966,7 @@
       </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
@@ -6066,7 +6974,7 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
     </row>
     <row r="64">
@@ -6082,7 +6990,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -6091,37 +6999,37 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="J64" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="K64" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="L64" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="M64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N64" t="s">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="O64" t="s">
-        <v>122</v>
-      </c>
-      <c r="P64" t="n">
+        <v>104</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="n">
         <v>4</v>
       </c>
-      <c r="Q64" t="s"/>
-      <c r="R64" t="s"/>
       <c r="S64" t="n">
         <v>1</v>
       </c>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
@@ -6129,7 +7037,7 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
     </row>
     <row r="65">
@@ -6145,7 +7053,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -6154,39 +7062,45 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="J65" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="K65" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="L65" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
       <c r="N65" t="s">
-        <v>485</v>
+        <v>449</v>
       </c>
       <c r="O65" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="P65" t="s"/>
-      <c r="Q65" t="s"/>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
       <c r="R65" t="s"/>
-      <c r="S65" t="s"/>
+      <c r="S65" t="n">
+        <v>1</v>
+      </c>
       <c r="T65" t="s"/>
-      <c r="U65" t="s"/>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
       <c r="V65" t="n">
         <v>0</v>
       </c>
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
     </row>
     <row r="66">
@@ -6202,7 +7116,7 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="G66" t="s">
         <v>46</v>
@@ -6211,30 +7125,30 @@
         <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="J66" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="K66" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="L66" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
-      <c r="N66" t="s"/>
-      <c r="O66" t="s"/>
-      <c r="P66" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>1</v>
-      </c>
+      <c r="N66" t="s">
+        <v>449</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
       <c r="R66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S66" t="n">
         <v>1</v>
@@ -6249,7 +7163,7 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
     </row>
     <row r="67">
@@ -6265,7 +7179,7 @@
         <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="G67" t="s">
         <v>46</v>
@@ -6274,32 +7188,30 @@
         <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="J67" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="K67" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="L67" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
       <c r="N67" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="O67" t="s">
-        <v>98</v>
-      </c>
-      <c r="P67" t="n">
-        <v>1</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
       <c r="R67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S67" t="s"/>
       <c r="T67" t="s"/>
@@ -6312,7 +7224,7 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
     </row>
     <row r="68">
@@ -6328,7 +7240,7 @@
         <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="G68" t="s">
         <v>46</v>
@@ -6337,16 +7249,16 @@
         <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="J68" t="s">
-        <v>501</v>
+        <v>475</v>
       </c>
       <c r="K68" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="L68" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="M68" t="n">
         <v>1</v>
@@ -6360,10 +7272,10 @@
         <v>1</v>
       </c>
       <c r="R68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T68" t="s"/>
       <c r="U68" t="n">
@@ -6375,7 +7287,7 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
     </row>
     <row r="69">
@@ -6391,7 +7303,7 @@
         <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="G69" t="s">
         <v>46</v>
@@ -6400,49 +7312,39 @@
         <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="J69" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="K69" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="L69" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="M69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N69" t="s">
-        <v>509</v>
+        <v>478</v>
       </c>
       <c r="O69" t="s">
-        <v>98</v>
-      </c>
-      <c r="P69" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>3</v>
-      </c>
-      <c r="R69" t="n">
-        <v>4</v>
-      </c>
-      <c r="S69" t="n">
-        <v>3</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
       <c r="T69" t="s"/>
-      <c r="U69" t="n">
-        <v>4</v>
-      </c>
+      <c r="U69" t="s"/>
       <c r="V69" t="n">
         <v>0</v>
       </c>
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
     </row>
     <row r="70">
@@ -6458,7 +7360,7 @@
         <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="G70" t="s">
         <v>46</v>
@@ -6467,41 +7369,35 @@
         <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="J70" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="K70" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="L70" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="M70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N70" t="s">
-        <v>509</v>
+        <v>478</v>
       </c>
       <c r="O70" t="s">
-        <v>98</v>
-      </c>
-      <c r="P70" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q70" t="n">
+        <v>60</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="n">
         <v>3</v>
       </c>
-      <c r="R70" t="n">
-        <v>4</v>
-      </c>
-      <c r="S70" t="n">
-        <v>4</v>
-      </c>
+      <c r="S70" t="s"/>
       <c r="T70" t="s"/>
       <c r="U70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V70" t="n">
         <v>0</v>
@@ -6509,7 +7405,3370 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>497</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>498</v>
+      </c>
+      <c r="J71" t="s">
+        <v>499</v>
+      </c>
+      <c r="K71" t="s">
+        <v>500</v>
+      </c>
+      <c r="L71" t="s">
+        <v>501</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>478</v>
+      </c>
+      <c r="O71" t="s">
+        <v>91</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>502</v>
+      </c>
+      <c r="X71" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>505</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>506</v>
+      </c>
+      <c r="J72" t="s">
+        <v>507</v>
+      </c>
+      <c r="K72" t="s">
+        <v>508</v>
+      </c>
+      <c r="L72" t="s">
+        <v>509</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>456</v>
+      </c>
+      <c r="O72" t="s">
+        <v>104</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2</v>
+      </c>
+      <c r="S72" t="n">
+        <v>2</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>511</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>512</v>
+      </c>
+      <c r="J73" t="s">
+        <v>513</v>
+      </c>
+      <c r="K73" t="s">
+        <v>514</v>
+      </c>
+      <c r="L73" t="s">
+        <v>515</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>456</v>
+      </c>
+      <c r="O73" t="s">
+        <v>78</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>2</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>2</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
         <v>516</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>517</v>
+      </c>
+      <c r="J74" t="s">
+        <v>518</v>
+      </c>
+      <c r="K74" t="s">
+        <v>519</v>
+      </c>
+      <c r="L74" t="s">
+        <v>520</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>521</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>522</v>
+      </c>
+      <c r="X74" t="s">
+        <v>523</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>525</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>526</v>
+      </c>
+      <c r="J75" t="s">
+        <v>527</v>
+      </c>
+      <c r="K75" t="s">
+        <v>528</v>
+      </c>
+      <c r="L75" t="s">
+        <v>529</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
+        <v>530</v>
+      </c>
+      <c r="O75" t="s">
+        <v>60</v>
+      </c>
+      <c r="P75" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>531</v>
+      </c>
+      <c r="X75" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>534</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>535</v>
+      </c>
+      <c r="J76" t="s">
+        <v>536</v>
+      </c>
+      <c r="K76" t="s">
+        <v>537</v>
+      </c>
+      <c r="L76" t="s">
+        <v>538</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s">
+        <v>521</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>539</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>540</v>
+      </c>
+      <c r="J77" t="s">
+        <v>541</v>
+      </c>
+      <c r="K77" t="s">
+        <v>542</v>
+      </c>
+      <c r="L77" t="s">
+        <v>543</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>530</v>
+      </c>
+      <c r="O77" t="s">
+        <v>104</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>544</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>545</v>
+      </c>
+      <c r="J78" t="s">
+        <v>546</v>
+      </c>
+      <c r="K78" t="s">
+        <v>547</v>
+      </c>
+      <c r="L78" t="s">
+        <v>548</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="s">
+        <v>521</v>
+      </c>
+      <c r="O78" t="s">
+        <v>60</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>2</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>549</v>
+      </c>
+      <c r="X78" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>552</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>553</v>
+      </c>
+      <c r="J79" t="s">
+        <v>554</v>
+      </c>
+      <c r="K79" t="s">
+        <v>555</v>
+      </c>
+      <c r="L79" t="s">
+        <v>556</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>557</v>
+      </c>
+      <c r="X79" t="s">
+        <v>558</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>560</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>561</v>
+      </c>
+      <c r="J80" t="s">
+        <v>562</v>
+      </c>
+      <c r="K80" t="s">
+        <v>563</v>
+      </c>
+      <c r="L80" t="s">
+        <v>564</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>2</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>566</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>567</v>
+      </c>
+      <c r="J81" t="s">
+        <v>568</v>
+      </c>
+      <c r="K81" t="s">
+        <v>569</v>
+      </c>
+      <c r="L81" t="s">
+        <v>570</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>521</v>
+      </c>
+      <c r="O81" t="s">
+        <v>60</v>
+      </c>
+      <c r="P81" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>572</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>573</v>
+      </c>
+      <c r="J82" t="s">
+        <v>574</v>
+      </c>
+      <c r="K82" t="s">
+        <v>575</v>
+      </c>
+      <c r="L82" t="s">
+        <v>576</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>577</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>578</v>
+      </c>
+      <c r="J83" t="s">
+        <v>579</v>
+      </c>
+      <c r="K83" t="s">
+        <v>580</v>
+      </c>
+      <c r="L83" t="s">
+        <v>581</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>582</v>
+      </c>
+      <c r="O83" t="s">
+        <v>91</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>1</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>584</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>585</v>
+      </c>
+      <c r="J84" t="s">
+        <v>586</v>
+      </c>
+      <c r="K84" t="s">
+        <v>587</v>
+      </c>
+      <c r="L84" t="s">
+        <v>588</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
+        <v>589</v>
+      </c>
+      <c r="O84" t="s">
+        <v>60</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1</v>
+      </c>
+      <c r="R84" t="n">
+        <v>1</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>591</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>592</v>
+      </c>
+      <c r="J85" t="s">
+        <v>593</v>
+      </c>
+      <c r="K85" t="s">
+        <v>594</v>
+      </c>
+      <c r="L85" t="s">
+        <v>595</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="s">
+        <v>589</v>
+      </c>
+      <c r="O85" t="s">
+        <v>91</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>596</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>597</v>
+      </c>
+      <c r="J86" t="s">
+        <v>598</v>
+      </c>
+      <c r="K86" t="s">
+        <v>599</v>
+      </c>
+      <c r="L86" t="s">
+        <v>600</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
+      <c r="R86" t="n">
+        <v>1</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>601</v>
+      </c>
+      <c r="X86" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>604</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>605</v>
+      </c>
+      <c r="J87" t="s">
+        <v>606</v>
+      </c>
+      <c r="K87" t="s">
+        <v>607</v>
+      </c>
+      <c r="L87" t="s">
+        <v>608</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>609</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>610</v>
+      </c>
+      <c r="J88" t="s">
+        <v>611</v>
+      </c>
+      <c r="K88" t="s">
+        <v>612</v>
+      </c>
+      <c r="L88" t="s">
+        <v>613</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="s">
+        <v>614</v>
+      </c>
+      <c r="O88" t="s">
+        <v>78</v>
+      </c>
+      <c r="P88" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>1</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>615</v>
+      </c>
+      <c r="X88" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>618</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>619</v>
+      </c>
+      <c r="J89" t="s">
+        <v>620</v>
+      </c>
+      <c r="K89" t="s">
+        <v>621</v>
+      </c>
+      <c r="L89" t="s">
+        <v>622</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s">
+        <v>614</v>
+      </c>
+      <c r="O89" t="s">
+        <v>78</v>
+      </c>
+      <c r="P89" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>2</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>615</v>
+      </c>
+      <c r="X89" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>624</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>625</v>
+      </c>
+      <c r="J90" t="s">
+        <v>626</v>
+      </c>
+      <c r="K90" t="s">
+        <v>627</v>
+      </c>
+      <c r="L90" t="s">
+        <v>628</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="s">
+        <v>582</v>
+      </c>
+      <c r="O90" t="s">
+        <v>60</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>2</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>1</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>629</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>630</v>
+      </c>
+      <c r="J91" t="s">
+        <v>631</v>
+      </c>
+      <c r="K91" t="s">
+        <v>632</v>
+      </c>
+      <c r="L91" t="s">
+        <v>633</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>2</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>2</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>634</v>
+      </c>
+      <c r="X91" t="s">
+        <v>635</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>637</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>638</v>
+      </c>
+      <c r="J92" t="s">
+        <v>639</v>
+      </c>
+      <c r="K92" t="s">
+        <v>640</v>
+      </c>
+      <c r="L92" t="s">
+        <v>641</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s">
+        <v>642</v>
+      </c>
+      <c r="O92" t="s">
+        <v>104</v>
+      </c>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="s"/>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>643</v>
+      </c>
+      <c r="X92" t="s">
+        <v>644</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>646</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>647</v>
+      </c>
+      <c r="J93" t="s">
+        <v>648</v>
+      </c>
+      <c r="K93" t="s">
+        <v>649</v>
+      </c>
+      <c r="L93" t="s">
+        <v>650</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="s">
+        <v>642</v>
+      </c>
+      <c r="O93" t="s">
+        <v>104</v>
+      </c>
+      <c r="P93" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>1</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>1</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>1</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>651</v>
+      </c>
+      <c r="X93" t="s">
+        <v>652</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>654</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>655</v>
+      </c>
+      <c r="J94" t="s">
+        <v>656</v>
+      </c>
+      <c r="K94" t="s">
+        <v>657</v>
+      </c>
+      <c r="L94" t="s">
+        <v>658</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s">
+        <v>659</v>
+      </c>
+      <c r="O94" t="s">
+        <v>104</v>
+      </c>
+      <c r="P94" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>1</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>1</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>660</v>
+      </c>
+      <c r="X94" t="s">
+        <v>661</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>663</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>664</v>
+      </c>
+      <c r="J95" t="s">
+        <v>665</v>
+      </c>
+      <c r="K95" t="s">
+        <v>666</v>
+      </c>
+      <c r="L95" t="s">
+        <v>667</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>668</v>
+      </c>
+      <c r="O95" t="s">
+        <v>78</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>3</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>670</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>671</v>
+      </c>
+      <c r="J96" t="s">
+        <v>672</v>
+      </c>
+      <c r="K96" t="s">
+        <v>673</v>
+      </c>
+      <c r="L96" t="s">
+        <v>674</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="s">
+        <v>675</v>
+      </c>
+      <c r="O96" t="s">
+        <v>91</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>1</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>3</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>676</v>
+      </c>
+      <c r="X96" t="s">
+        <v>677</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>679</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>680</v>
+      </c>
+      <c r="J97" t="s">
+        <v>681</v>
+      </c>
+      <c r="K97" t="s">
+        <v>682</v>
+      </c>
+      <c r="L97" t="s">
+        <v>683</v>
+      </c>
+      <c r="M97" t="n">
+        <v>3</v>
+      </c>
+      <c r="N97" t="s"/>
+      <c r="O97" t="s"/>
+      <c r="P97" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>3</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>2</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>2</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>684</v>
+      </c>
+      <c r="X97" t="s">
+        <v>685</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>687</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>688</v>
+      </c>
+      <c r="J98" t="s">
+        <v>689</v>
+      </c>
+      <c r="K98" t="s">
+        <v>690</v>
+      </c>
+      <c r="L98" t="s">
+        <v>691</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="s">
+        <v>692</v>
+      </c>
+      <c r="O98" t="s">
+        <v>60</v>
+      </c>
+      <c r="P98" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>1</v>
+      </c>
+      <c r="R98" t="n">
+        <v>3</v>
+      </c>
+      <c r="S98" t="n">
+        <v>1</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>2</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>693</v>
+      </c>
+      <c r="X98" t="s">
+        <v>694</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>696</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>697</v>
+      </c>
+      <c r="J99" t="s">
+        <v>698</v>
+      </c>
+      <c r="K99" t="s">
+        <v>699</v>
+      </c>
+      <c r="L99" t="s">
+        <v>700</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="s">
+        <v>701</v>
+      </c>
+      <c r="O99" t="s">
+        <v>78</v>
+      </c>
+      <c r="P99" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>1</v>
+      </c>
+      <c r="R99" t="n">
+        <v>1</v>
+      </c>
+      <c r="S99" t="n">
+        <v>1</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>2</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>702</v>
+      </c>
+      <c r="X99" t="s">
+        <v>703</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>705</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>706</v>
+      </c>
+      <c r="J100" t="s">
+        <v>707</v>
+      </c>
+      <c r="K100" t="s">
+        <v>708</v>
+      </c>
+      <c r="L100" t="s">
+        <v>709</v>
+      </c>
+      <c r="M100" t="n">
+        <v>3</v>
+      </c>
+      <c r="N100" t="s"/>
+      <c r="O100" t="s"/>
+      <c r="P100" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>3</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>710</v>
+      </c>
+      <c r="X100" t="s">
+        <v>711</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>713</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>714</v>
+      </c>
+      <c r="J101" t="s">
+        <v>715</v>
+      </c>
+      <c r="K101" t="s">
+        <v>716</v>
+      </c>
+      <c r="L101" t="s">
+        <v>717</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="s"/>
+      <c r="O101" t="s"/>
+      <c r="P101" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>1</v>
+      </c>
+      <c r="R101" t="n">
+        <v>1</v>
+      </c>
+      <c r="S101" t="n">
+        <v>1</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>1</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>710</v>
+      </c>
+      <c r="X101" t="s">
+        <v>711</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>719</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>720</v>
+      </c>
+      <c r="J102" t="s">
+        <v>721</v>
+      </c>
+      <c r="K102" t="s">
+        <v>722</v>
+      </c>
+      <c r="L102" t="s">
+        <v>723</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s"/>
+      <c r="O102" t="s"/>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>4</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>724</v>
+      </c>
+      <c r="X102" t="s">
+        <v>725</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>727</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>728</v>
+      </c>
+      <c r="J103" t="s">
+        <v>729</v>
+      </c>
+      <c r="K103" t="s">
+        <v>730</v>
+      </c>
+      <c r="L103" t="s">
+        <v>731</v>
+      </c>
+      <c r="M103" t="n">
+        <v>3</v>
+      </c>
+      <c r="N103" t="s">
+        <v>732</v>
+      </c>
+      <c r="O103" t="s">
+        <v>60</v>
+      </c>
+      <c r="P103" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>3</v>
+      </c>
+      <c r="R103" t="n">
+        <v>3</v>
+      </c>
+      <c r="S103" t="n">
+        <v>4</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>4</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>733</v>
+      </c>
+      <c r="X103" t="s">
+        <v>734</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>736</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>737</v>
+      </c>
+      <c r="J104" t="s">
+        <v>738</v>
+      </c>
+      <c r="K104" t="s">
+        <v>739</v>
+      </c>
+      <c r="L104" t="s">
+        <v>740</v>
+      </c>
+      <c r="M104" t="n">
+        <v>3</v>
+      </c>
+      <c r="N104" t="s">
+        <v>732</v>
+      </c>
+      <c r="O104" t="s">
+        <v>104</v>
+      </c>
+      <c r="P104" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>3</v>
+      </c>
+      <c r="R104" t="n">
+        <v>4</v>
+      </c>
+      <c r="S104" t="n">
+        <v>3</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>3</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>741</v>
+      </c>
+      <c r="X104" t="s">
+        <v>742</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>744</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>745</v>
+      </c>
+      <c r="J105" t="s">
+        <v>746</v>
+      </c>
+      <c r="K105" t="s">
+        <v>747</v>
+      </c>
+      <c r="L105" t="s">
+        <v>748</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="s">
+        <v>749</v>
+      </c>
+      <c r="O105" t="s">
+        <v>60</v>
+      </c>
+      <c r="P105" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>3</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>4</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>750</v>
+      </c>
+      <c r="X105" t="s">
+        <v>751</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>753</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>754</v>
+      </c>
+      <c r="J106" t="s">
+        <v>755</v>
+      </c>
+      <c r="K106" t="s">
+        <v>756</v>
+      </c>
+      <c r="L106" t="s">
+        <v>757</v>
+      </c>
+      <c r="M106" t="n">
+        <v>2</v>
+      </c>
+      <c r="N106" t="s">
+        <v>758</v>
+      </c>
+      <c r="O106" t="s">
+        <v>78</v>
+      </c>
+      <c r="P106" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>2</v>
+      </c>
+      <c r="R106" t="n">
+        <v>2</v>
+      </c>
+      <c r="S106" t="s"/>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>4</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>759</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>760</v>
+      </c>
+      <c r="J107" t="s">
+        <v>761</v>
+      </c>
+      <c r="K107" t="s">
+        <v>762</v>
+      </c>
+      <c r="L107" t="s">
+        <v>763</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="s">
+        <v>764</v>
+      </c>
+      <c r="O107" t="s">
+        <v>78</v>
+      </c>
+      <c r="P107" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q107" t="s"/>
+      <c r="R107" t="s"/>
+      <c r="S107" t="n">
+        <v>1</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>1</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>766</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>767</v>
+      </c>
+      <c r="J108" t="s">
+        <v>768</v>
+      </c>
+      <c r="K108" t="s">
+        <v>769</v>
+      </c>
+      <c r="L108" t="s">
+        <v>770</v>
+      </c>
+      <c r="M108" t="n">
+        <v>2</v>
+      </c>
+      <c r="N108" t="s">
+        <v>764</v>
+      </c>
+      <c r="O108" t="s">
+        <v>53</v>
+      </c>
+      <c r="P108" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q108" t="s"/>
+      <c r="R108" t="s"/>
+      <c r="S108" t="n">
+        <v>1</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>3</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>771</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>772</v>
+      </c>
+      <c r="J109" t="s">
+        <v>773</v>
+      </c>
+      <c r="K109" t="s">
+        <v>774</v>
+      </c>
+      <c r="L109" t="s">
+        <v>775</v>
+      </c>
+      <c r="M109" t="n">
+        <v>2</v>
+      </c>
+      <c r="N109" t="s">
+        <v>776</v>
+      </c>
+      <c r="O109" t="s">
+        <v>104</v>
+      </c>
+      <c r="P109" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q109" t="s"/>
+      <c r="R109" t="s"/>
+      <c r="S109" t="n">
+        <v>1</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>3</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>777</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>778</v>
+      </c>
+      <c r="J110" t="s">
+        <v>779</v>
+      </c>
+      <c r="K110" t="s">
+        <v>780</v>
+      </c>
+      <c r="L110" t="s">
+        <v>781</v>
+      </c>
+      <c r="M110" t="n">
+        <v>4</v>
+      </c>
+      <c r="N110" t="s"/>
+      <c r="O110" t="s"/>
+      <c r="P110" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>4</v>
+      </c>
+      <c r="R110" t="n">
+        <v>3</v>
+      </c>
+      <c r="S110" t="n">
+        <v>4</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>4</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>782</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>783</v>
+      </c>
+      <c r="J111" t="s">
+        <v>784</v>
+      </c>
+      <c r="K111" t="s">
+        <v>785</v>
+      </c>
+      <c r="L111" t="s">
+        <v>786</v>
+      </c>
+      <c r="M111" t="n">
+        <v>5</v>
+      </c>
+      <c r="N111" t="s">
+        <v>787</v>
+      </c>
+      <c r="O111" t="s">
+        <v>78</v>
+      </c>
+      <c r="P111" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>3</v>
+      </c>
+      <c r="R111" t="n">
+        <v>5</v>
+      </c>
+      <c r="S111" t="n">
+        <v>5</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>5</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>788</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>789</v>
+      </c>
+      <c r="J112" t="s">
+        <v>790</v>
+      </c>
+      <c r="K112" t="s">
+        <v>791</v>
+      </c>
+      <c r="L112" t="s">
+        <v>792</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="s">
+        <v>793</v>
+      </c>
+      <c r="O112" t="s">
+        <v>53</v>
+      </c>
+      <c r="P112" t="s"/>
+      <c r="Q112" t="s"/>
+      <c r="R112" t="s"/>
+      <c r="S112" t="s"/>
+      <c r="T112" t="s"/>
+      <c r="U112" t="s"/>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>795</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>796</v>
+      </c>
+      <c r="J113" t="s">
+        <v>797</v>
+      </c>
+      <c r="K113" t="s">
+        <v>798</v>
+      </c>
+      <c r="L113" t="s">
+        <v>799</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="s"/>
+      <c r="O113" t="s"/>
+      <c r="P113" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>1</v>
+      </c>
+      <c r="R113" t="n">
+        <v>1</v>
+      </c>
+      <c r="S113" t="n">
+        <v>1</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>1</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>800</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>801</v>
+      </c>
+      <c r="J114" t="s">
+        <v>802</v>
+      </c>
+      <c r="K114" t="s">
+        <v>803</v>
+      </c>
+      <c r="L114" t="s">
+        <v>804</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="s">
+        <v>805</v>
+      </c>
+      <c r="O114" t="s">
+        <v>60</v>
+      </c>
+      <c r="P114" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q114" t="s"/>
+      <c r="R114" t="n">
+        <v>1</v>
+      </c>
+      <c r="S114" t="s"/>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>1</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>807</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>808</v>
+      </c>
+      <c r="J115" t="s">
+        <v>809</v>
+      </c>
+      <c r="K115" t="s">
+        <v>810</v>
+      </c>
+      <c r="L115" t="s">
+        <v>811</v>
+      </c>
+      <c r="M115" t="n">
+        <v>3</v>
+      </c>
+      <c r="N115" t="s">
+        <v>812</v>
+      </c>
+      <c r="O115" t="s">
+        <v>104</v>
+      </c>
+      <c r="P115" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>3</v>
+      </c>
+      <c r="R115" t="n">
+        <v>3</v>
+      </c>
+      <c r="S115" t="n">
+        <v>3</v>
+      </c>
+      <c r="T115" t="s"/>
+      <c r="U115" t="n">
+        <v>2</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s"/>
+      <c r="X115" t="s"/>
+      <c r="Y115" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
+      <c r="D116" t="n">
+        <v>115</v>
+      </c>
+      <c r="E116" t="s">
+        <v>44</v>
+      </c>
+      <c r="F116" t="s">
+        <v>813</v>
+      </c>
+      <c r="G116" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" t="s">
+        <v>47</v>
+      </c>
+      <c r="I116" t="s">
+        <v>814</v>
+      </c>
+      <c r="J116" t="s">
+        <v>815</v>
+      </c>
+      <c r="K116" t="s">
+        <v>816</v>
+      </c>
+      <c r="L116" t="s">
+        <v>817</v>
+      </c>
+      <c r="M116" t="n">
+        <v>3</v>
+      </c>
+      <c r="N116" t="s"/>
+      <c r="O116" t="s"/>
+      <c r="P116" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>2</v>
+      </c>
+      <c r="R116" t="n">
+        <v>3</v>
+      </c>
+      <c r="S116" t="n">
+        <v>3</v>
+      </c>
+      <c r="T116" t="s"/>
+      <c r="U116" t="s"/>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="s"/>
+      <c r="X116" t="s"/>
+      <c r="Y116" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B117" t="s"/>
+      <c r="C117" t="s"/>
+      <c r="D117" t="n">
+        <v>116</v>
+      </c>
+      <c r="E117" t="s">
+        <v>44</v>
+      </c>
+      <c r="F117" t="s">
+        <v>819</v>
+      </c>
+      <c r="G117" t="s">
+        <v>46</v>
+      </c>
+      <c r="H117" t="s">
+        <v>47</v>
+      </c>
+      <c r="I117" t="s">
+        <v>820</v>
+      </c>
+      <c r="J117" t="s">
+        <v>821</v>
+      </c>
+      <c r="K117" t="s">
+        <v>822</v>
+      </c>
+      <c r="L117" t="s">
+        <v>823</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="s"/>
+      <c r="O117" t="s"/>
+      <c r="P117" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>1</v>
+      </c>
+      <c r="R117" t="n">
+        <v>1</v>
+      </c>
+      <c r="S117" t="n">
+        <v>1</v>
+      </c>
+      <c r="T117" t="s"/>
+      <c r="U117" t="n">
+        <v>1</v>
+      </c>
+      <c r="V117" t="n">
+        <v>0</v>
+      </c>
+      <c r="W117" t="s"/>
+      <c r="X117" t="s"/>
+      <c r="Y117" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B118" t="s"/>
+      <c r="C118" t="s"/>
+      <c r="D118" t="n">
+        <v>117</v>
+      </c>
+      <c r="E118" t="s">
+        <v>44</v>
+      </c>
+      <c r="F118" t="s">
+        <v>824</v>
+      </c>
+      <c r="G118" t="s">
+        <v>46</v>
+      </c>
+      <c r="H118" t="s">
+        <v>47</v>
+      </c>
+      <c r="I118" t="s">
+        <v>825</v>
+      </c>
+      <c r="J118" t="s">
+        <v>826</v>
+      </c>
+      <c r="K118" t="s">
+        <v>827</v>
+      </c>
+      <c r="L118" t="s">
+        <v>828</v>
+      </c>
+      <c r="M118" t="n">
+        <v>3</v>
+      </c>
+      <c r="N118" t="s">
+        <v>829</v>
+      </c>
+      <c r="O118" t="s">
+        <v>60</v>
+      </c>
+      <c r="P118" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>3</v>
+      </c>
+      <c r="R118" t="n">
+        <v>4</v>
+      </c>
+      <c r="S118" t="n">
+        <v>3</v>
+      </c>
+      <c r="T118" t="s"/>
+      <c r="U118" t="n">
+        <v>4</v>
+      </c>
+      <c r="V118" t="n">
+        <v>0</v>
+      </c>
+      <c r="W118" t="s"/>
+      <c r="X118" t="s"/>
+      <c r="Y118" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B119" t="s"/>
+      <c r="C119" t="s"/>
+      <c r="D119" t="n">
+        <v>118</v>
+      </c>
+      <c r="E119" t="s">
+        <v>44</v>
+      </c>
+      <c r="F119" t="s">
+        <v>831</v>
+      </c>
+      <c r="G119" t="s">
+        <v>46</v>
+      </c>
+      <c r="H119" t="s">
+        <v>47</v>
+      </c>
+      <c r="I119" t="s">
+        <v>832</v>
+      </c>
+      <c r="J119" t="s">
+        <v>833</v>
+      </c>
+      <c r="K119" t="s">
+        <v>834</v>
+      </c>
+      <c r="L119" t="s">
+        <v>835</v>
+      </c>
+      <c r="M119" t="n">
+        <v>4</v>
+      </c>
+      <c r="N119" t="s">
+        <v>829</v>
+      </c>
+      <c r="O119" t="s">
+        <v>60</v>
+      </c>
+      <c r="P119" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>3</v>
+      </c>
+      <c r="R119" t="n">
+        <v>4</v>
+      </c>
+      <c r="S119" t="n">
+        <v>4</v>
+      </c>
+      <c r="T119" t="s"/>
+      <c r="U119" t="n">
+        <v>3</v>
+      </c>
+      <c r="V119" t="n">
+        <v>0</v>
+      </c>
+      <c r="W119" t="s"/>
+      <c r="X119" t="s"/>
+      <c r="Y119" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B120" t="s"/>
+      <c r="C120" t="s"/>
+      <c r="D120" t="n">
+        <v>119</v>
+      </c>
+      <c r="E120" t="s">
+        <v>44</v>
+      </c>
+      <c r="F120" t="s">
+        <v>837</v>
+      </c>
+      <c r="G120" t="s">
+        <v>46</v>
+      </c>
+      <c r="H120" t="s">
+        <v>47</v>
+      </c>
+      <c r="I120" t="s">
+        <v>838</v>
+      </c>
+      <c r="J120" t="s">
+        <v>839</v>
+      </c>
+      <c r="K120" t="s">
+        <v>840</v>
+      </c>
+      <c r="L120" t="s">
+        <v>841</v>
+      </c>
+      <c r="M120" t="n">
+        <v>2</v>
+      </c>
+      <c r="N120" t="s"/>
+      <c r="O120" t="s"/>
+      <c r="P120" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>2</v>
+      </c>
+      <c r="R120" t="s"/>
+      <c r="S120" t="n">
+        <v>2</v>
+      </c>
+      <c r="T120" t="s"/>
+      <c r="U120" t="n">
+        <v>3</v>
+      </c>
+      <c r="V120" t="n">
+        <v>0</v>
+      </c>
+      <c r="W120" t="s"/>
+      <c r="X120" t="s"/>
+      <c r="Y120" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>37424</v>
+      </c>
+      <c r="B121" t="s"/>
+      <c r="C121" t="s"/>
+      <c r="D121" t="n">
+        <v>120</v>
+      </c>
+      <c r="E121" t="s">
+        <v>44</v>
+      </c>
+      <c r="F121" t="s">
+        <v>843</v>
+      </c>
+      <c r="G121" t="s">
+        <v>46</v>
+      </c>
+      <c r="H121" t="s">
+        <v>47</v>
+      </c>
+      <c r="I121" t="s">
+        <v>844</v>
+      </c>
+      <c r="J121" t="s">
+        <v>845</v>
+      </c>
+      <c r="K121" t="s">
+        <v>846</v>
+      </c>
+      <c r="L121" t="s">
+        <v>847</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="s"/>
+      <c r="O121" t="s"/>
+      <c r="P121" t="s"/>
+      <c r="Q121" t="s"/>
+      <c r="R121" t="s"/>
+      <c r="S121" t="s"/>
+      <c r="T121" t="s"/>
+      <c r="U121" t="s"/>
+      <c r="V121" t="n">
+        <v>0</v>
+      </c>
+      <c r="W121" t="s"/>
+      <c r="X121" t="s"/>
+      <c r="Y121" t="s">
+        <v>848</v>
       </c>
     </row>
   </sheetData>
